--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6288" uniqueCount="3674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6691" uniqueCount="3908">
   <si>
     <t>Timestamp</t>
   </si>
@@ -11033,6 +11033,708 @@
   </si>
   <si>
     <t>Nuttritionist Dietitian</t>
+  </si>
+  <si>
+    <t>vsagrado@yahoo.com</t>
+  </si>
+  <si>
+    <t>VIRGINIA G. SAGRADO</t>
+  </si>
+  <si>
+    <t>City Health Office, Zamboanga City</t>
+  </si>
+  <si>
+    <t>Nutrition Officer III (representing CNAO Miravite)</t>
+  </si>
+  <si>
+    <t>09056211607</t>
+  </si>
+  <si>
+    <t>0004577</t>
+  </si>
+  <si>
+    <t>dessareen_20@yahoo.com</t>
+  </si>
+  <si>
+    <t>Edel A. Aboga-a</t>
+  </si>
+  <si>
+    <t>LGU-Sulat</t>
+  </si>
+  <si>
+    <t>Nurse I/ mnao designate</t>
+  </si>
+  <si>
+    <t>09554129128</t>
+  </si>
+  <si>
+    <t>loraineflorescaabiog@gmail.com</t>
+  </si>
+  <si>
+    <t>Loraine Abiog</t>
+  </si>
+  <si>
+    <t>Brooke's Point, Palawan</t>
+  </si>
+  <si>
+    <t>09301729288</t>
+  </si>
+  <si>
+    <t>0011800</t>
+  </si>
+  <si>
+    <t>nona.tad-y@nnc.gov.ph</t>
+  </si>
+  <si>
+    <t>Nona B. Tad-y</t>
+  </si>
+  <si>
+    <t>National Nutrition Council</t>
+  </si>
+  <si>
+    <t>Regional Nutrition Program Coordinator</t>
+  </si>
+  <si>
+    <t>09177773793</t>
+  </si>
+  <si>
+    <t>coyellenluki_iglesia@yahoo.com.ph</t>
+  </si>
+  <si>
+    <t>Maria Elena P. Iglesia</t>
+  </si>
+  <si>
+    <t>LGU-Ligao City</t>
+  </si>
+  <si>
+    <t>09326611130</t>
+  </si>
+  <si>
+    <t>0009327</t>
+  </si>
+  <si>
+    <t>rhu.gher@yahoo.com</t>
+  </si>
+  <si>
+    <t>JUDE P. TOMELAP</t>
+  </si>
+  <si>
+    <t>LGU GARCIA-HERNANDEZ,BOHOL</t>
+  </si>
+  <si>
+    <t>SANITARY INSPECTOR-I DESIGNATED MNPC</t>
+  </si>
+  <si>
+    <t>09087744836</t>
+  </si>
+  <si>
+    <t>0250649</t>
+  </si>
+  <si>
+    <t>tutcyusman05@gmail.com</t>
+  </si>
+  <si>
+    <t>RHOHAYDA U. MAROHOMSALIC, RN</t>
+  </si>
+  <si>
+    <t>PROVINCIAL GOVERNMENT OF MAGUINDANAO</t>
+  </si>
+  <si>
+    <t>09054908527</t>
+  </si>
+  <si>
+    <t>0558823</t>
+  </si>
+  <si>
+    <t>quezonisabelamswdo@yahoo.com</t>
+  </si>
+  <si>
+    <t>Annie B. Enfectana</t>
+  </si>
+  <si>
+    <t>Quezon, Isabela</t>
+  </si>
+  <si>
+    <t>09176365193</t>
+  </si>
+  <si>
+    <t>0012016</t>
+  </si>
+  <si>
+    <t>dopmcmati1971@gmail.com</t>
+  </si>
+  <si>
+    <t>REDEN V. BERSALDO</t>
+  </si>
+  <si>
+    <t>Davao Oriental</t>
+  </si>
+  <si>
+    <t>Provincial Health Officer II/ Chief of Hospital, DOPMC</t>
+  </si>
+  <si>
+    <t>099809804378</t>
+  </si>
+  <si>
+    <t>0094967</t>
+  </si>
+  <si>
+    <t>jenapril73@yahoo.com</t>
+  </si>
+  <si>
+    <t>Jennifer V. Francisco</t>
+  </si>
+  <si>
+    <t>Tigbao</t>
+  </si>
+  <si>
+    <t>09171561575</t>
+  </si>
+  <si>
+    <t>MSWDO</t>
+  </si>
+  <si>
+    <t>maryjune_adriatico@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mary June Algarne</t>
+  </si>
+  <si>
+    <t>Province of Abra</t>
+  </si>
+  <si>
+    <t>Nutritionist Dietitian II</t>
+  </si>
+  <si>
+    <t>09778369004</t>
+  </si>
+  <si>
+    <t>0006417</t>
+  </si>
+  <si>
+    <t>rlpyosores@gmail.com</t>
+  </si>
+  <si>
+    <t>Rayhanna Leah</t>
+  </si>
+  <si>
+    <t>Datu Piang, Maguindanao</t>
+  </si>
+  <si>
+    <t>Budget Officer II</t>
+  </si>
+  <si>
+    <t>hmacantan@yahoo.com.ph</t>
+  </si>
+  <si>
+    <t>Helen Grace Macantan</t>
+  </si>
+  <si>
+    <t>Sibalom</t>
+  </si>
+  <si>
+    <t>09053497371</t>
+  </si>
+  <si>
+    <t>marivicalcoseba@gmail.com</t>
+  </si>
+  <si>
+    <t>MA. VICTORIA V. ALCOSEBA</t>
+  </si>
+  <si>
+    <t>TALUSAN</t>
+  </si>
+  <si>
+    <t>09067200355</t>
+  </si>
+  <si>
+    <t>rhu.ayungon@gmail.com</t>
+  </si>
+  <si>
+    <t>Irving P. Dingcong</t>
+  </si>
+  <si>
+    <t>Ayungon</t>
+  </si>
+  <si>
+    <t>09175981426</t>
+  </si>
+  <si>
+    <t>0055820</t>
+  </si>
+  <si>
+    <t>lissayorong@gmail.com</t>
+  </si>
+  <si>
+    <t>MARY LISSA B.YORONG</t>
+  </si>
+  <si>
+    <t>LGU_DIPLAHAN.ZAMBOANGA SIBUGAY</t>
+  </si>
+  <si>
+    <t>09973022116</t>
+  </si>
+  <si>
+    <t>0064928</t>
+  </si>
+  <si>
+    <t>nino.labordo@nnc.gov.ph</t>
+  </si>
+  <si>
+    <t>NINO ARCHIE S. LABORDO</t>
+  </si>
+  <si>
+    <t>NNC8</t>
+  </si>
+  <si>
+    <t>NOIII</t>
+  </si>
+  <si>
+    <t>0532328821</t>
+  </si>
+  <si>
+    <t>0365434</t>
+  </si>
+  <si>
+    <t>rhudipaculao2016@yahoo.com</t>
+  </si>
+  <si>
+    <t>ARTURO A. PARILLA JR.</t>
+  </si>
+  <si>
+    <t>DIPACULAO</t>
+  </si>
+  <si>
+    <t>09496657983</t>
+  </si>
+  <si>
+    <t>0064843</t>
+  </si>
+  <si>
+    <t>princessvillafria@yahoo.com</t>
+  </si>
+  <si>
+    <t>Princesita O. Villafria</t>
+  </si>
+  <si>
+    <t>Gumaca,Quezon</t>
+  </si>
+  <si>
+    <t>Municipal Nutrition AcGtion Officer</t>
+  </si>
+  <si>
+    <t>09282859082</t>
+  </si>
+  <si>
+    <t>Administrative Aide IV</t>
+  </si>
+  <si>
+    <t>kimelliza1175@gmail.com</t>
+  </si>
+  <si>
+    <t>Analiza L. Bornales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGU-TITAY </t>
+  </si>
+  <si>
+    <t>09161195323</t>
+  </si>
+  <si>
+    <t>0296067</t>
+  </si>
+  <si>
+    <t>Pinkyadesas@yahoo.com</t>
+  </si>
+  <si>
+    <t>Pinky Pante Adesas</t>
+  </si>
+  <si>
+    <t>BAYUGAN CITY</t>
+  </si>
+  <si>
+    <t>CNPC</t>
+  </si>
+  <si>
+    <t>09381341372</t>
+  </si>
+  <si>
+    <t>0854632</t>
+  </si>
+  <si>
+    <t>eunica.janine14@gmail.com</t>
+  </si>
+  <si>
+    <t>MIKAELA SOCORRO L.  ESCALANTE</t>
+  </si>
+  <si>
+    <t>MANAPLA</t>
+  </si>
+  <si>
+    <t>09270078268</t>
+  </si>
+  <si>
+    <t>manabo_mesu@yahoo.com</t>
+  </si>
+  <si>
+    <t>Merceditas Emma L.Quilala</t>
+  </si>
+  <si>
+    <t>Manabo LGU</t>
+  </si>
+  <si>
+    <t>09362488675</t>
+  </si>
+  <si>
+    <t>0092938</t>
+  </si>
+  <si>
+    <t>sallydespns@gmail.com</t>
+  </si>
+  <si>
+    <t>Sally Espinosa</t>
+  </si>
+  <si>
+    <t>Bunawan</t>
+  </si>
+  <si>
+    <t>09173006352</t>
+  </si>
+  <si>
+    <t>0432565</t>
+  </si>
+  <si>
+    <t>mno.boac.gov@gmail.com</t>
+  </si>
+  <si>
+    <t>Giselle Pearl Olympia</t>
+  </si>
+  <si>
+    <t>Boac</t>
+  </si>
+  <si>
+    <t>emerene.pingol@nnc.gov.ph</t>
+  </si>
+  <si>
+    <t>Mary Emerene P. Pingol</t>
+  </si>
+  <si>
+    <t>Quezon City</t>
+  </si>
+  <si>
+    <t>F1K Provincial Nutrition Coordinator</t>
+  </si>
+  <si>
+    <t>09225248865</t>
+  </si>
+  <si>
+    <t>0016352</t>
+  </si>
+  <si>
+    <t>chutabaco.4511@gmail.com</t>
+  </si>
+  <si>
+    <t>Audwin C. Azada, M.D.</t>
+  </si>
+  <si>
+    <t>LGU Tabaco City</t>
+  </si>
+  <si>
+    <t>City Health Officer</t>
+  </si>
+  <si>
+    <t>09178022733</t>
+  </si>
+  <si>
+    <t>passicity_healthoffice@yahoo.com</t>
+  </si>
+  <si>
+    <t>MELVEN PALMARES OYAD</t>
+  </si>
+  <si>
+    <t>PASSI CITY</t>
+  </si>
+  <si>
+    <t>CITY HEALTH OFFICER II</t>
+  </si>
+  <si>
+    <t>09215065174</t>
+  </si>
+  <si>
+    <t>0072874</t>
+  </si>
+  <si>
+    <t>ricardoawot@yahoo.com</t>
+  </si>
+  <si>
+    <t>ricardo awit</t>
+  </si>
+  <si>
+    <t>pinan</t>
+  </si>
+  <si>
+    <t>mho/mnao</t>
+  </si>
+  <si>
+    <t>ruralhealthunitsanjose@gmail.com</t>
+  </si>
+  <si>
+    <t>Vivien Marie V. Ceniza</t>
+  </si>
+  <si>
+    <t>San Jose Negros Oriental</t>
+  </si>
+  <si>
+    <t>09989704470</t>
+  </si>
+  <si>
+    <t>0064989</t>
+  </si>
+  <si>
+    <t>lornabalintong98@gmail.com</t>
+  </si>
+  <si>
+    <t>Lorna B Tapiador</t>
+  </si>
+  <si>
+    <t>URBIZTONDO  PANGASINAN</t>
+  </si>
+  <si>
+    <t>09487412645</t>
+  </si>
+  <si>
+    <t>Bhw</t>
+  </si>
+  <si>
+    <t>0155450013</t>
+  </si>
+  <si>
+    <t>lamosao123@gmail.com</t>
+  </si>
+  <si>
+    <t>Jonathan Tanduyan</t>
+  </si>
+  <si>
+    <t>Alcantara</t>
+  </si>
+  <si>
+    <t>09225139386</t>
+  </si>
+  <si>
+    <t>0122287</t>
+  </si>
+  <si>
+    <t>cfptungawan@gmail.com</t>
+  </si>
+  <si>
+    <t>GLORIA M. DELOS REYES</t>
+  </si>
+  <si>
+    <t>LGU TUNGAWAN</t>
+  </si>
+  <si>
+    <t>09263371773</t>
+  </si>
+  <si>
+    <t>0016239</t>
+  </si>
+  <si>
+    <t>LGU TUNGWAN</t>
+  </si>
+  <si>
+    <t>jugi830@gmail.com</t>
+  </si>
+  <si>
+    <t>Juliva Gina Allaga</t>
+  </si>
+  <si>
+    <t>Hungduan</t>
+  </si>
+  <si>
+    <t>Nutrition Staff</t>
+  </si>
+  <si>
+    <t>09364734980</t>
+  </si>
+  <si>
+    <t>almalvarado44@gmail.com</t>
+  </si>
+  <si>
+    <t>Alma Alvarado</t>
+  </si>
+  <si>
+    <t>Buug</t>
+  </si>
+  <si>
+    <t>09176387780</t>
+  </si>
+  <si>
+    <t>0080835</t>
+  </si>
+  <si>
+    <t>Leilani A. Perez</t>
+  </si>
+  <si>
+    <t>LGU Luna Isabela</t>
+  </si>
+  <si>
+    <t>mholuna@yahoo.com.ph</t>
+  </si>
+  <si>
+    <t>Claire Francisco</t>
+  </si>
+  <si>
+    <t>LGU LUNA</t>
+  </si>
+  <si>
+    <t>09759843256</t>
+  </si>
+  <si>
+    <t>ANA JANE M. GARCIA</t>
+  </si>
+  <si>
+    <t>Bayugan city</t>
+  </si>
+  <si>
+    <t>09457764838</t>
+  </si>
+  <si>
+    <t>0114880</t>
+  </si>
+  <si>
+    <t>alistairematocinos@gmail.com</t>
+  </si>
+  <si>
+    <t>Alistaire Matocinos</t>
+  </si>
+  <si>
+    <t>NNC Calabarzon</t>
+  </si>
+  <si>
+    <t>09173719191</t>
+  </si>
+  <si>
+    <t>pnozambosibugay09@gmail.com</t>
+  </si>
+  <si>
+    <t>Marelene C. Garcia</t>
+  </si>
+  <si>
+    <t>Zamboanga Sibugay Province</t>
+  </si>
+  <si>
+    <t>09069355352</t>
+  </si>
+  <si>
+    <t>0007166</t>
+  </si>
+  <si>
+    <t>Na. Lourdes s. Langco</t>
+  </si>
+  <si>
+    <t>Liloy</t>
+  </si>
+  <si>
+    <t>Min.dentist/manao</t>
+  </si>
+  <si>
+    <t>anaorhu@gmail.com</t>
+  </si>
+  <si>
+    <t>Maricris V.Galvan</t>
+  </si>
+  <si>
+    <t>MIDWIFE 2/MNAO</t>
+  </si>
+  <si>
+    <t>buguiasrhu2607@gmail.com</t>
+  </si>
+  <si>
+    <t>BUGUIAS RHU</t>
+  </si>
+  <si>
+    <t>09219774110</t>
+  </si>
+  <si>
+    <t>neliagnaga@gmail.com</t>
+  </si>
+  <si>
+    <t>MERLYN T. MASDO</t>
+  </si>
+  <si>
+    <t>LGU-SAN VICENTE, N. SAMAR</t>
+  </si>
+  <si>
+    <t>09307067017</t>
+  </si>
+  <si>
+    <t>MUNICIPAL AGRICULTURIST</t>
+  </si>
+  <si>
+    <t>torrijos.health@hmail.com</t>
+  </si>
+  <si>
+    <t>Lgu torrijos</t>
+  </si>
+  <si>
+    <t>mnc.calumpit2019@gmail.com</t>
+  </si>
+  <si>
+    <t>Maribeth B. Torres</t>
+  </si>
+  <si>
+    <t>LGU- Calumpit</t>
+  </si>
+  <si>
+    <t>09655968011</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>mendoza.josefina05@YAHOO.COM</t>
+  </si>
+  <si>
+    <t>LGU MARAGONDON</t>
+  </si>
+  <si>
+    <t>FOODTECH</t>
+  </si>
+  <si>
+    <t>glemmabriones@gmail.com</t>
+  </si>
+  <si>
+    <t>Glemma Jamisola Briones</t>
+  </si>
+  <si>
+    <t>Margosatubig,Zamboanga del Sur</t>
+  </si>
+  <si>
+    <t>Asst. Nutritonist</t>
+  </si>
+  <si>
+    <t>09653157441</t>
+  </si>
+  <si>
+    <t>Food Science</t>
+  </si>
+  <si>
+    <t>lumigueannalyn7@gmail.com</t>
+  </si>
+  <si>
+    <t>ANNALYN LUMIGUE</t>
+  </si>
+  <si>
+    <t>Malangas, Zamboanga Sibugay</t>
+  </si>
+  <si>
+    <t>Metro Aide II/MNAO</t>
+  </si>
+  <si>
+    <t>09355124235</t>
+  </si>
+  <si>
+    <t>Bachelor of Science in Industrial Technology</t>
   </si>
 </sst>
 </file>
@@ -11042,7 +11744,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -11057,6 +11759,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="6">
     <fill>
@@ -11096,7 +11799,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -11146,6 +11849,24 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -35122,7 +35843,7 @@
       </c>
     </row>
     <row r="722">
-      <c r="A722" s="3">
+      <c r="A722" s="11">
         <v>44103.46186954861</v>
       </c>
       <c r="B722" s="2" t="s">
@@ -35177,7 +35898,7 @@
       </c>
     </row>
     <row r="724">
-      <c r="A724" s="3">
+      <c r="A724" s="11">
         <v>44103.47873016204</v>
       </c>
       <c r="B724" s="2" t="s">
@@ -35203,7 +35924,7 @@
       </c>
     </row>
     <row r="725">
-      <c r="A725" s="3">
+      <c r="A725" s="11">
         <v>44103.48148239583</v>
       </c>
       <c r="B725" s="2" t="s">
@@ -35232,7 +35953,7 @@
       </c>
     </row>
     <row r="726">
-      <c r="A726" s="3">
+      <c r="A726" s="11">
         <v>44103.49552416667</v>
       </c>
       <c r="B726" s="2" t="s">
@@ -35383,7 +36104,7 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" s="3">
+      <c r="A731" s="11">
         <v>44103.550814120375</v>
       </c>
       <c r="B731" s="2" t="s">
@@ -35415,7 +36136,7 @@
       </c>
     </row>
     <row r="732">
-      <c r="A732" s="3">
+      <c r="A732" s="11">
         <v>44103.56017871528</v>
       </c>
       <c r="B732" s="2" t="s">
@@ -35447,7 +36168,7 @@
       </c>
     </row>
     <row r="733">
-      <c r="A733" s="3">
+      <c r="A733" s="11">
         <v>44103.57313471065</v>
       </c>
       <c r="B733" s="2" t="s">
@@ -35473,7 +36194,7 @@
       </c>
     </row>
     <row r="734">
-      <c r="A734" s="3">
+      <c r="A734" s="11">
         <v>44103.57766501157</v>
       </c>
       <c r="B734" s="2" t="s">
@@ -35505,7 +36226,7 @@
       </c>
     </row>
     <row r="735">
-      <c r="A735" s="3">
+      <c r="A735" s="11">
         <v>44103.57902315972</v>
       </c>
       <c r="B735" s="2" t="s">
@@ -35537,7 +36258,7 @@
       </c>
     </row>
     <row r="736">
-      <c r="A736" s="3">
+      <c r="A736" s="11">
         <v>44103.59246488426</v>
       </c>
       <c r="B736" s="2" t="s">
@@ -35601,7 +36322,7 @@
       </c>
     </row>
     <row r="738">
-      <c r="A738" s="3">
+      <c r="A738" s="11">
         <v>44103.59856355324</v>
       </c>
       <c r="B738" s="2" t="s">
@@ -35630,7 +36351,7 @@
       </c>
     </row>
     <row r="739">
-      <c r="A739" s="3">
+      <c r="A739" s="11">
         <v>44103.59931049768</v>
       </c>
       <c r="B739" s="2" t="s">
@@ -35662,7 +36383,7 @@
       </c>
     </row>
     <row r="740">
-      <c r="A740" s="3">
+      <c r="A740" s="11">
         <v>44103.60718961805</v>
       </c>
       <c r="B740" s="2" t="s">
@@ -35694,7 +36415,7 @@
       </c>
     </row>
     <row r="741">
-      <c r="A741" s="3">
+      <c r="A741" s="11">
         <v>44103.611259513884</v>
       </c>
       <c r="B741" s="2" t="s">
@@ -35720,7 +36441,7 @@
       </c>
     </row>
     <row r="742">
-      <c r="A742" s="3">
+      <c r="A742" s="11">
         <v>44103.612760104166</v>
       </c>
       <c r="B742" s="2" t="s">
@@ -35746,7 +36467,7 @@
       </c>
     </row>
     <row r="743">
-      <c r="A743" s="3">
+      <c r="A743" s="11">
         <v>44103.613479629625</v>
       </c>
       <c r="B743" s="2" t="s">
@@ -35778,7 +36499,7 @@
       </c>
     </row>
     <row r="744">
-      <c r="A744" s="3">
+      <c r="A744" s="11">
         <v>44103.61381905092</v>
       </c>
       <c r="B744" s="2" t="s">
@@ -35804,7 +36525,7 @@
       </c>
     </row>
     <row r="745">
-      <c r="A745" s="3">
+      <c r="A745" s="11">
         <v>44103.62290398148</v>
       </c>
       <c r="B745" s="2" t="s">
@@ -35836,7 +36557,7 @@
       </c>
     </row>
     <row r="746">
-      <c r="A746" s="3">
+      <c r="A746" s="11">
         <v>44103.62804462963</v>
       </c>
       <c r="B746" s="2" t="s">
@@ -35868,7 +36589,7 @@
       </c>
     </row>
     <row r="747">
-      <c r="A747" s="3">
+      <c r="A747" s="11">
         <v>44103.63516988426</v>
       </c>
       <c r="B747" s="2" t="s">
@@ -35900,7 +36621,7 @@
       </c>
     </row>
     <row r="748">
-      <c r="A748" s="3">
+      <c r="A748" s="11">
         <v>44103.63524979167</v>
       </c>
       <c r="B748" s="2" t="s">
@@ -35926,7 +36647,7 @@
       </c>
     </row>
     <row r="749">
-      <c r="A749" s="3">
+      <c r="A749" s="11">
         <v>44103.63546689815</v>
       </c>
       <c r="B749" s="2" t="s">
@@ -35952,7 +36673,7 @@
       </c>
     </row>
     <row r="750">
-      <c r="A750" s="3">
+      <c r="A750" s="11">
         <v>44103.63731278935</v>
       </c>
       <c r="B750" s="2" t="s">
@@ -35984,7 +36705,7 @@
       </c>
     </row>
     <row r="751">
-      <c r="A751" s="3">
+      <c r="A751" s="11">
         <v>44103.63966221065</v>
       </c>
       <c r="B751" s="2" t="s">
@@ -36016,7 +36737,7 @@
       </c>
     </row>
     <row r="752">
-      <c r="A752" s="3">
+      <c r="A752" s="11">
         <v>44103.652820902775</v>
       </c>
       <c r="B752" s="2" t="s">
@@ -36048,7 +36769,7 @@
       </c>
     </row>
     <row r="753">
-      <c r="A753" s="3">
+      <c r="A753" s="11">
         <v>44103.66663289352</v>
       </c>
       <c r="B753" s="2" t="s">
@@ -36074,7 +36795,7 @@
       </c>
     </row>
     <row r="754">
-      <c r="A754" s="3">
+      <c r="A754" s="11">
         <v>44103.66885178241</v>
       </c>
       <c r="B754" s="2" t="s">
@@ -36106,7 +36827,7 @@
       </c>
     </row>
     <row r="755">
-      <c r="A755" s="3">
+      <c r="A755" s="11">
         <v>44103.67511090278</v>
       </c>
       <c r="B755" s="2" t="s">
@@ -36138,7 +36859,7 @@
       </c>
     </row>
     <row r="756">
-      <c r="A756" s="3">
+      <c r="A756" s="11">
         <v>44103.699978171295</v>
       </c>
       <c r="B756" s="2" t="s">
@@ -36170,7 +36891,7 @@
       </c>
     </row>
     <row r="757">
-      <c r="A757" s="3">
+      <c r="A757" s="11">
         <v>44103.757537453705</v>
       </c>
       <c r="B757" s="2" t="s">
@@ -36202,7 +36923,7 @@
       </c>
     </row>
     <row r="758">
-      <c r="A758" s="3">
+      <c r="A758" s="11">
         <v>44103.773653055556</v>
       </c>
       <c r="B758" s="2" t="s">
@@ -36234,7 +36955,7 @@
       </c>
     </row>
     <row r="759">
-      <c r="A759" s="3">
+      <c r="A759" s="11">
         <v>44103.79766527777</v>
       </c>
       <c r="B759" s="2" t="s">
@@ -36260,7 +36981,7 @@
       </c>
     </row>
     <row r="760">
-      <c r="A760" s="3">
+      <c r="A760" s="11">
         <v>44103.813151574075</v>
       </c>
       <c r="B760" s="2" t="s">
@@ -36286,7 +37007,7 @@
       </c>
     </row>
     <row r="761">
-      <c r="A761" s="3">
+      <c r="A761" s="11">
         <v>44103.82154630787</v>
       </c>
       <c r="B761" s="2" t="s">
@@ -36312,7 +37033,7 @@
       </c>
     </row>
     <row r="762">
-      <c r="A762" s="3">
+      <c r="A762" s="11">
         <v>44103.82196127315</v>
       </c>
       <c r="B762" s="2" t="s">
@@ -36344,7 +37065,7 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" s="3">
+      <c r="A763" s="11">
         <v>44103.86346141204</v>
       </c>
       <c r="B763" s="2" t="s">
@@ -36376,7 +37097,7 @@
       </c>
     </row>
     <row r="764">
-      <c r="A764" s="3">
+      <c r="A764" s="11">
         <v>44103.90621666667</v>
       </c>
       <c r="B764" s="2" t="s">
@@ -36402,7 +37123,7 @@
       </c>
     </row>
     <row r="765">
-      <c r="A765" s="3">
+      <c r="A765" s="11">
         <v>44104.33001002315</v>
       </c>
       <c r="B765" s="2" t="s">
@@ -36434,7 +37155,7 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" s="3">
+      <c r="A766" s="11">
         <v>44104.36702439815</v>
       </c>
       <c r="B766" s="2" t="s">
@@ -36460,7 +37181,7 @@
       </c>
     </row>
     <row r="767">
-      <c r="A767" s="3">
+      <c r="A767" s="11">
         <v>44104.36853190973</v>
       </c>
       <c r="B767" s="2" t="s">
@@ -36492,7 +37213,7 @@
       </c>
     </row>
     <row r="768">
-      <c r="A768" s="3">
+      <c r="A768" s="11">
         <v>44104.37090645834</v>
       </c>
       <c r="B768" s="2" t="s">
@@ -36524,7 +37245,7 @@
       </c>
     </row>
     <row r="769">
-      <c r="A769" s="3">
+      <c r="A769" s="11">
         <v>44104.4061078588</v>
       </c>
       <c r="B769" s="2" t="s">
@@ -36556,7 +37277,7 @@
       </c>
     </row>
     <row r="770">
-      <c r="A770" s="3">
+      <c r="A770" s="11">
         <v>44104.41031277778</v>
       </c>
       <c r="B770" s="2" t="s">
@@ -36582,7 +37303,7 @@
       </c>
     </row>
     <row r="771">
-      <c r="A771" s="3">
+      <c r="A771" s="11">
         <v>44104.411942314815</v>
       </c>
       <c r="B771" s="2" t="s">
@@ -36614,7 +37335,7 @@
       </c>
     </row>
     <row r="772">
-      <c r="A772" s="3">
+      <c r="A772" s="11">
         <v>44104.414943923606</v>
       </c>
       <c r="B772" s="2" t="s">
@@ -36646,7 +37367,7 @@
       </c>
     </row>
     <row r="773">
-      <c r="A773" s="3">
+      <c r="A773" s="11">
         <v>44104.418474039354</v>
       </c>
       <c r="B773" s="2" t="s">
@@ -36678,7 +37399,7 @@
       </c>
     </row>
     <row r="774">
-      <c r="A774" s="3">
+      <c r="A774" s="11">
         <v>44104.42267418982</v>
       </c>
       <c r="B774" s="2" t="s">
@@ -36710,7 +37431,7 @@
       </c>
     </row>
     <row r="775">
-      <c r="A775" s="3">
+      <c r="A775" s="11">
         <v>44104.42328928241</v>
       </c>
       <c r="B775" s="2" t="s">
@@ -36742,7 +37463,7 @@
       </c>
     </row>
     <row r="776">
-      <c r="A776" s="3">
+      <c r="A776" s="11">
         <v>44104.42467835648</v>
       </c>
       <c r="B776" s="2" t="s">
@@ -36774,7 +37495,7 @@
       </c>
     </row>
     <row r="777">
-      <c r="A777" s="3">
+      <c r="A777" s="11">
         <v>44104.44869160879</v>
       </c>
       <c r="B777" s="2" t="s">
@@ -36806,7 +37527,7 @@
       </c>
     </row>
     <row r="778">
-      <c r="A778" s="3">
+      <c r="A778" s="11">
         <v>44104.46139494213</v>
       </c>
       <c r="B778" s="2" t="s">
@@ -36838,7 +37559,7 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" s="3">
+      <c r="A779" s="11">
         <v>44104.46783789352</v>
       </c>
       <c r="B779" s="2" t="s">
@@ -36870,7 +37591,7 @@
       </c>
     </row>
     <row r="780">
-      <c r="A780" s="3">
+      <c r="A780" s="11">
         <v>44104.46806771991</v>
       </c>
       <c r="B780" s="2" t="s">
@@ -36896,7 +37617,7 @@
       </c>
     </row>
     <row r="781">
-      <c r="A781" s="3">
+      <c r="A781" s="11">
         <v>44104.471345115744</v>
       </c>
       <c r="B781" s="2" t="s">
@@ -36928,7 +37649,7 @@
       </c>
     </row>
     <row r="782">
-      <c r="A782" s="3">
+      <c r="A782" s="11">
         <v>44104.47451339121</v>
       </c>
       <c r="B782" s="2" t="s">
@@ -36960,7 +37681,7 @@
       </c>
     </row>
     <row r="783">
-      <c r="A783" s="3">
+      <c r="A783" s="11">
         <v>44104.476919016204</v>
       </c>
       <c r="B783" s="2" t="s">
@@ -36986,7 +37707,7 @@
       </c>
     </row>
     <row r="784">
-      <c r="A784" s="3">
+      <c r="A784" s="11">
         <v>44104.479470439815</v>
       </c>
       <c r="B784" s="2" t="s">
@@ -37018,7 +37739,7 @@
       </c>
     </row>
     <row r="785">
-      <c r="A785" s="3">
+      <c r="A785" s="11">
         <v>44104.48164907408</v>
       </c>
       <c r="B785" s="2" t="s">
@@ -37050,7 +37771,7 @@
       </c>
     </row>
     <row r="786">
-      <c r="A786" s="3">
+      <c r="A786" s="11">
         <v>44104.48554657407</v>
       </c>
       <c r="B786" s="2" t="s">
@@ -37082,7 +37803,7 @@
       </c>
     </row>
     <row r="787">
-      <c r="A787" s="3">
+      <c r="A787" s="11">
         <v>44104.51071336806</v>
       </c>
       <c r="B787" s="2" t="s">
@@ -37108,7 +37829,7 @@
       </c>
     </row>
     <row r="788">
-      <c r="A788" s="3">
+      <c r="A788" s="11">
         <v>44104.528573495365</v>
       </c>
       <c r="B788" s="2" t="s">
@@ -37140,7 +37861,7 @@
       </c>
     </row>
     <row r="789">
-      <c r="A789" s="3">
+      <c r="A789" s="11">
         <v>44104.52895033565</v>
       </c>
       <c r="B789" s="2" t="s">
@@ -37172,7 +37893,7 @@
       </c>
     </row>
     <row r="790">
-      <c r="A790" s="3">
+      <c r="A790" s="11">
         <v>44104.5321759838</v>
       </c>
       <c r="B790" s="2" t="s">
@@ -37204,7 +37925,7 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" s="3">
+      <c r="A791" s="11">
         <v>44104.53421590278</v>
       </c>
       <c r="B791" s="2" t="s">
@@ -37236,7 +37957,7 @@
       </c>
     </row>
     <row r="792">
-      <c r="A792" s="3">
+      <c r="A792" s="11">
         <v>44104.54839489583</v>
       </c>
       <c r="B792" s="2" t="s">
@@ -37268,7 +37989,7 @@
       </c>
     </row>
     <row r="793">
-      <c r="A793" s="3">
+      <c r="A793" s="11">
         <v>44104.55669398148</v>
       </c>
       <c r="B793" s="2" t="s">
@@ -37300,7 +38021,7 @@
       </c>
     </row>
     <row r="794">
-      <c r="A794" s="3">
+      <c r="A794" s="11">
         <v>44104.55782957176</v>
       </c>
       <c r="B794" s="2" t="s">
@@ -37332,7 +38053,7 @@
       </c>
     </row>
     <row r="795">
-      <c r="A795" s="3">
+      <c r="A795" s="11">
         <v>44104.55867200231</v>
       </c>
       <c r="B795" s="2" t="s">
@@ -37364,7 +38085,7 @@
       </c>
     </row>
     <row r="796">
-      <c r="A796" s="3">
+      <c r="A796" s="11">
         <v>44104.5587227662</v>
       </c>
       <c r="B796" s="2" t="s">
@@ -37390,7 +38111,7 @@
       </c>
     </row>
     <row r="797">
-      <c r="A797" s="3">
+      <c r="A797" s="11">
         <v>44104.55934920139</v>
       </c>
       <c r="B797" s="2" t="s">
@@ -37422,7 +38143,7 @@
       </c>
     </row>
     <row r="798">
-      <c r="A798" s="3">
+      <c r="A798" s="11">
         <v>44104.561469039356</v>
       </c>
       <c r="B798" s="2" t="s">
@@ -37454,7 +38175,7 @@
       </c>
     </row>
     <row r="799">
-      <c r="A799" s="3">
+      <c r="A799" s="11">
         <v>44104.56756710648</v>
       </c>
       <c r="B799" s="2" t="s">
@@ -37486,7 +38207,7 @@
       </c>
     </row>
     <row r="800">
-      <c r="A800" s="3">
+      <c r="A800" s="11">
         <v>44104.57364019676</v>
       </c>
       <c r="B800" s="2" t="s">
@@ -37515,7 +38236,7 @@
       </c>
     </row>
     <row r="801">
-      <c r="A801" s="3">
+      <c r="A801" s="11">
         <v>44104.58314351852</v>
       </c>
       <c r="B801" s="2" t="s">
@@ -37541,7 +38262,7 @@
       </c>
     </row>
     <row r="802">
-      <c r="A802" s="3">
+      <c r="A802" s="11">
         <v>44104.59118065972</v>
       </c>
       <c r="B802" s="2" t="s">
@@ -37573,7 +38294,7 @@
       </c>
     </row>
     <row r="803">
-      <c r="A803" s="3">
+      <c r="A803" s="11">
         <v>44104.59801883102</v>
       </c>
       <c r="B803" s="2" t="s">
@@ -37605,7 +38326,7 @@
       </c>
     </row>
     <row r="804">
-      <c r="A804" s="3">
+      <c r="A804" s="11">
         <v>44104.60955552083</v>
       </c>
       <c r="B804" s="2" t="s">
@@ -37637,7 +38358,7 @@
       </c>
     </row>
     <row r="805">
-      <c r="A805" s="3">
+      <c r="A805" s="11">
         <v>44104.61069877315</v>
       </c>
       <c r="B805" s="2" t="s">
@@ -37669,7 +38390,7 @@
       </c>
     </row>
     <row r="806">
-      <c r="A806" s="3">
+      <c r="A806" s="11">
         <v>44104.627130787034</v>
       </c>
       <c r="B806" s="2" t="s">
@@ -37695,7 +38416,7 @@
       </c>
     </row>
     <row r="807">
-      <c r="A807" s="3">
+      <c r="A807" s="11">
         <v>44104.640639502315</v>
       </c>
       <c r="B807" s="2" t="s">
@@ -37727,7 +38448,7 @@
       </c>
     </row>
     <row r="808">
-      <c r="A808" s="3">
+      <c r="A808" s="19">
         <v>44104.650613854166</v>
       </c>
       <c r="B808" s="2" t="s">
@@ -37745,7 +38466,7 @@
       <c r="F808" s="2" t="s">
         <v>3526</v>
       </c>
-      <c r="G808" s="4" t="s">
+      <c r="G808" s="20" t="s">
         <v>3527</v>
       </c>
       <c r="H808" s="2" t="s">
@@ -37753,7 +38474,7 @@
       </c>
     </row>
     <row r="809">
-      <c r="A809" s="3">
+      <c r="A809" s="19">
         <v>44104.65363216435</v>
       </c>
       <c r="B809" s="2" t="s">
@@ -37785,7 +38506,7 @@
       </c>
     </row>
     <row r="810">
-      <c r="A810" s="3">
+      <c r="A810" s="19">
         <v>44104.65510849537</v>
       </c>
       <c r="B810" s="2" t="s">
@@ -37811,7 +38532,7 @@
       </c>
     </row>
     <row r="811">
-      <c r="A811" s="3">
+      <c r="A811" s="19">
         <v>44104.65514159722</v>
       </c>
       <c r="B811" s="2" t="s">
@@ -37843,7 +38564,7 @@
       </c>
     </row>
     <row r="812">
-      <c r="A812" s="3">
+      <c r="A812" s="19">
         <v>44104.65528355324</v>
       </c>
       <c r="B812" s="2" t="s">
@@ -37869,7 +38590,7 @@
       </c>
     </row>
     <row r="813">
-      <c r="A813" s="3">
+      <c r="A813" s="19">
         <v>44104.66058422453</v>
       </c>
       <c r="B813" s="2" t="s">
@@ -37898,7 +38619,7 @@
       </c>
     </row>
     <row r="814">
-      <c r="A814" s="3">
+      <c r="A814" s="19">
         <v>44104.66257785879</v>
       </c>
       <c r="B814" s="2" t="s">
@@ -37930,7 +38651,7 @@
       </c>
     </row>
     <row r="815">
-      <c r="A815" s="3">
+      <c r="A815" s="19">
         <v>44104.67087625</v>
       </c>
       <c r="B815" s="2" t="s">
@@ -37962,7 +38683,7 @@
       </c>
     </row>
     <row r="816">
-      <c r="A816" s="3">
+      <c r="A816" s="19">
         <v>44104.67230880787</v>
       </c>
       <c r="B816" s="2" t="s">
@@ -37977,7 +38698,7 @@
       <c r="E816" s="2" t="s">
         <v>3561</v>
       </c>
-      <c r="F816" s="2" t="s">
+      <c r="F816" s="21" t="s">
         <v>185</v>
       </c>
       <c r="G816" s="4" t="s">
@@ -37994,7 +38715,7 @@
       </c>
     </row>
     <row r="817">
-      <c r="A817" s="3">
+      <c r="A817" s="19">
         <v>44104.67404385417</v>
       </c>
       <c r="B817" s="2" t="s">
@@ -38009,7 +38730,7 @@
       <c r="E817" s="2" t="s">
         <v>3566</v>
       </c>
-      <c r="F817" s="2" t="s">
+      <c r="F817" s="21" t="s">
         <v>2207</v>
       </c>
       <c r="G817" s="4" t="s">
@@ -38026,13 +38747,13 @@
       </c>
     </row>
     <row r="818">
-      <c r="A818" s="3">
+      <c r="A818" s="19">
         <v>44104.67989784722</v>
       </c>
       <c r="B818" s="2" t="s">
         <v>3569</v>
       </c>
-      <c r="C818" s="2" t="s">
+      <c r="C818" s="21" t="s">
         <v>3570</v>
       </c>
       <c r="D818" s="2" t="s">
@@ -38058,7 +38779,7 @@
       </c>
     </row>
     <row r="819">
-      <c r="A819" s="3">
+      <c r="A819" s="19">
         <v>44104.68197060185</v>
       </c>
       <c r="B819" s="2" t="s">
@@ -38076,7 +38797,7 @@
       <c r="F819" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G819" s="4" t="s">
+      <c r="G819" s="20" t="s">
         <v>3578</v>
       </c>
       <c r="H819" s="2" t="s">
@@ -38084,7 +38805,7 @@
       </c>
     </row>
     <row r="820">
-      <c r="A820" s="3">
+      <c r="A820" s="19">
         <v>44104.686710462964</v>
       </c>
       <c r="B820" s="2" t="s">
@@ -38102,7 +38823,7 @@
       <c r="F820" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G820" s="4" t="s">
+      <c r="G820" s="20" t="s">
         <v>3582</v>
       </c>
       <c r="H820" s="2" t="s">
@@ -38113,7 +38834,7 @@
       </c>
     </row>
     <row r="821">
-      <c r="A821" s="3">
+      <c r="A821" s="19">
         <v>44104.69053857639</v>
       </c>
       <c r="B821" s="2" t="s">
@@ -38145,7 +38866,7 @@
       </c>
     </row>
     <row r="822">
-      <c r="A822" s="3">
+      <c r="A822" s="19">
         <v>44104.69149840278</v>
       </c>
       <c r="B822" s="2" t="s">
@@ -38177,7 +38898,7 @@
       </c>
     </row>
     <row r="823">
-      <c r="A823" s="3">
+      <c r="A823" s="19">
         <v>44104.69287373843</v>
       </c>
       <c r="B823" s="2" t="s">
@@ -38203,7 +38924,7 @@
       </c>
     </row>
     <row r="824">
-      <c r="A824" s="3">
+      <c r="A824" s="19">
         <v>44104.69389671297</v>
       </c>
       <c r="B824" s="2" t="s">
@@ -38235,7 +38956,7 @@
       </c>
     </row>
     <row r="825">
-      <c r="A825" s="3">
+      <c r="A825" s="19">
         <v>44104.700794143515</v>
       </c>
       <c r="B825" s="2" t="s">
@@ -38267,7 +38988,7 @@
       </c>
     </row>
     <row r="826">
-      <c r="A826" s="3">
+      <c r="A826" s="19">
         <v>44104.70400585648</v>
       </c>
       <c r="B826" s="2" t="s">
@@ -38299,7 +39020,7 @@
       </c>
     </row>
     <row r="827">
-      <c r="A827" s="3">
+      <c r="A827" s="19">
         <v>44104.725599513884</v>
       </c>
       <c r="B827" s="2" t="s">
@@ -38331,7 +39052,7 @@
       </c>
     </row>
     <row r="828">
-      <c r="A828" s="3">
+      <c r="A828" s="19">
         <v>44104.757085289355</v>
       </c>
       <c r="B828" s="2" t="s">
@@ -38363,7 +39084,7 @@
       </c>
     </row>
     <row r="829">
-      <c r="A829" s="3">
+      <c r="A829" s="19">
         <v>44104.760657129635</v>
       </c>
       <c r="B829" s="2" t="s">
@@ -38395,7 +39116,7 @@
       </c>
     </row>
     <row r="830">
-      <c r="A830" s="3">
+      <c r="A830" s="19">
         <v>44104.76837179398</v>
       </c>
       <c r="B830" s="2" t="s">
@@ -38421,7 +39142,7 @@
       </c>
     </row>
     <row r="831">
-      <c r="A831" s="3">
+      <c r="A831" s="19">
         <v>44104.77709018518</v>
       </c>
       <c r="B831" s="2" t="s">
@@ -38453,7 +39174,7 @@
       </c>
     </row>
     <row r="832">
-      <c r="A832" s="3">
+      <c r="A832" s="19">
         <v>44104.784604988425</v>
       </c>
       <c r="B832" s="2" t="s">
@@ -38485,7 +39206,7 @@
       </c>
     </row>
     <row r="833">
-      <c r="A833" s="3">
+      <c r="A833" s="19">
         <v>44104.83139262731</v>
       </c>
       <c r="B833" s="2" t="s">
@@ -38517,7 +39238,7 @@
       </c>
     </row>
     <row r="834">
-      <c r="A834" s="3">
+      <c r="A834" s="19">
         <v>44104.84165552084</v>
       </c>
       <c r="B834" s="2" t="s">
@@ -38549,13 +39270,13 @@
       </c>
     </row>
     <row r="835">
-      <c r="A835" s="3">
+      <c r="A835" s="19">
         <v>44104.84200278935</v>
       </c>
       <c r="B835" s="2" t="s">
         <v>3646</v>
       </c>
-      <c r="C835" s="2" t="s">
+      <c r="C835" s="21" t="s">
         <v>3647</v>
       </c>
       <c r="D835" s="2" t="s">
@@ -38581,7 +39302,7 @@
       </c>
     </row>
     <row r="836">
-      <c r="A836" s="3">
+      <c r="A836" s="19">
         <v>44104.848506759256</v>
       </c>
       <c r="B836" s="2" t="s">
@@ -38607,7 +39328,7 @@
       </c>
     </row>
     <row r="837">
-      <c r="A837" s="3">
+      <c r="A837" s="19">
         <v>44104.8557549074</v>
       </c>
       <c r="B837" s="2" t="s">
@@ -38639,7 +39360,7 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" s="3">
+      <c r="A838" s="19">
         <v>44104.86472344908</v>
       </c>
       <c r="B838" s="2" t="s">
@@ -38654,7 +39375,7 @@
       <c r="E838" s="2" t="s">
         <v>3664</v>
       </c>
-      <c r="F838" s="2" t="s">
+      <c r="F838" s="21" t="s">
         <v>3665</v>
       </c>
       <c r="G838" s="4" t="s">
@@ -38671,7 +39392,7 @@
       </c>
     </row>
     <row r="839">
-      <c r="A839" s="3">
+      <c r="A839" s="19">
         <v>44104.881664189816</v>
       </c>
       <c r="B839" s="2" t="s">
@@ -38694,6 +39415,1860 @@
       </c>
       <c r="H839" s="2" t="s">
         <v>3673</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="19">
+        <v>44104.954228692135</v>
+      </c>
+      <c r="B840" s="2" t="s">
+        <v>3674</v>
+      </c>
+      <c r="C840" s="2" t="s">
+        <v>3675</v>
+      </c>
+      <c r="D840" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E840" s="2" t="s">
+        <v>3676</v>
+      </c>
+      <c r="F840" s="2" t="s">
+        <v>3677</v>
+      </c>
+      <c r="G840" s="4" t="s">
+        <v>3678</v>
+      </c>
+      <c r="H840" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="I840" s="4" t="s">
+        <v>3679</v>
+      </c>
+      <c r="J840" s="5">
+        <v>44171.0</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="19">
+        <v>44104.973340729164</v>
+      </c>
+      <c r="B841" s="2" t="s">
+        <v>3680</v>
+      </c>
+      <c r="C841" s="2" t="s">
+        <v>3681</v>
+      </c>
+      <c r="D841" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E841" s="2" t="s">
+        <v>3682</v>
+      </c>
+      <c r="F841" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G841" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H841" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I841" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="J841" s="5">
+        <v>44644.0</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="19">
+        <v>44104.99594665509</v>
+      </c>
+      <c r="B842" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C842" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D842" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E842" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F842" s="2" t="s">
+        <v>3683</v>
+      </c>
+      <c r="G842" s="4" t="s">
+        <v>3684</v>
+      </c>
+      <c r="H842" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I842" s="4" t="s">
+        <v>1483</v>
+      </c>
+      <c r="J842" s="5">
+        <v>44235.0</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="19">
+        <v>44105.08845769676</v>
+      </c>
+      <c r="B843" s="22" t="s">
+        <v>3680</v>
+      </c>
+      <c r="C843" s="22" t="s">
+        <v>3681</v>
+      </c>
+      <c r="D843" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="E843" s="22" t="s">
+        <v>3682</v>
+      </c>
+      <c r="F843" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G843" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H843" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="I843" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="J843" s="24">
+        <v>44644.0</v>
+      </c>
+      <c r="K843" s="15"/>
+      <c r="L843" s="15"/>
+      <c r="M843" s="15"/>
+      <c r="N843" s="15"/>
+      <c r="O843" s="15"/>
+      <c r="P843" s="15"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="19">
+        <v>44105.24700478009</v>
+      </c>
+      <c r="B844" s="22" t="s">
+        <v>3685</v>
+      </c>
+      <c r="C844" s="22" t="s">
+        <v>3686</v>
+      </c>
+      <c r="D844" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="E844" s="22" t="s">
+        <v>3687</v>
+      </c>
+      <c r="F844" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G844" s="23" t="s">
+        <v>3688</v>
+      </c>
+      <c r="H844" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I844" s="23" t="s">
+        <v>3689</v>
+      </c>
+      <c r="J844" s="24">
+        <v>44849.0</v>
+      </c>
+      <c r="K844" s="15"/>
+      <c r="L844" s="15"/>
+      <c r="M844" s="15"/>
+      <c r="N844" s="15"/>
+      <c r="O844" s="15"/>
+      <c r="P844" s="15"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="19">
+        <v>44105.26203423611</v>
+      </c>
+      <c r="B845" s="22" t="s">
+        <v>3690</v>
+      </c>
+      <c r="C845" s="22" t="s">
+        <v>3691</v>
+      </c>
+      <c r="D845" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="E845" s="22" t="s">
+        <v>3692</v>
+      </c>
+      <c r="F845" s="22" t="s">
+        <v>3693</v>
+      </c>
+      <c r="G845" s="23" t="s">
+        <v>3694</v>
+      </c>
+      <c r="H845" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I845" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J845" s="15"/>
+      <c r="K845" s="15"/>
+      <c r="L845" s="15"/>
+      <c r="M845" s="15"/>
+      <c r="N845" s="15"/>
+      <c r="O845" s="15"/>
+      <c r="P845" s="15"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="19">
+        <v>44105.34551530093</v>
+      </c>
+      <c r="B846" s="22" t="s">
+        <v>3695</v>
+      </c>
+      <c r="C846" s="22" t="s">
+        <v>3696</v>
+      </c>
+      <c r="D846" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="E846" s="22" t="s">
+        <v>3697</v>
+      </c>
+      <c r="F846" s="22" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G846" s="23" t="s">
+        <v>3698</v>
+      </c>
+      <c r="H846" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="I846" s="23" t="s">
+        <v>3699</v>
+      </c>
+      <c r="J846" s="24">
+        <v>44465.0</v>
+      </c>
+      <c r="K846" s="15"/>
+      <c r="L846" s="15"/>
+      <c r="M846" s="15"/>
+      <c r="N846" s="15"/>
+      <c r="O846" s="15"/>
+      <c r="P846" s="15"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="19">
+        <v>44105.34609409722</v>
+      </c>
+      <c r="B847" s="22" t="s">
+        <v>3700</v>
+      </c>
+      <c r="C847" s="22" t="s">
+        <v>3701</v>
+      </c>
+      <c r="D847" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="E847" s="22" t="s">
+        <v>3702</v>
+      </c>
+      <c r="F847" s="22" t="s">
+        <v>3703</v>
+      </c>
+      <c r="G847" s="23" t="s">
+        <v>3704</v>
+      </c>
+      <c r="H847" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="I847" s="23" t="s">
+        <v>3705</v>
+      </c>
+      <c r="J847" s="24">
+        <v>44277.0</v>
+      </c>
+      <c r="K847" s="15"/>
+      <c r="L847" s="15"/>
+      <c r="M847" s="15"/>
+      <c r="N847" s="15"/>
+      <c r="O847" s="15"/>
+      <c r="P847" s="15"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="19">
+        <v>44105.34907960648</v>
+      </c>
+      <c r="B848" s="22" t="s">
+        <v>3706</v>
+      </c>
+      <c r="C848" s="22" t="s">
+        <v>3707</v>
+      </c>
+      <c r="D848" s="22" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E848" s="22" t="s">
+        <v>3708</v>
+      </c>
+      <c r="F848" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="G848" s="23" t="s">
+        <v>3709</v>
+      </c>
+      <c r="H848" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="I848" s="23" t="s">
+        <v>3710</v>
+      </c>
+      <c r="J848" s="24">
+        <v>44533.0</v>
+      </c>
+      <c r="K848" s="15"/>
+      <c r="L848" s="15"/>
+      <c r="M848" s="15"/>
+      <c r="N848" s="15"/>
+      <c r="O848" s="15"/>
+      <c r="P848" s="15"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="19">
+        <v>44105.35050591435</v>
+      </c>
+      <c r="B849" s="22" t="s">
+        <v>3711</v>
+      </c>
+      <c r="C849" s="22" t="s">
+        <v>3712</v>
+      </c>
+      <c r="D849" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="E849" s="22" t="s">
+        <v>3713</v>
+      </c>
+      <c r="F849" s="22" t="s">
+        <v>920</v>
+      </c>
+      <c r="G849" s="23" t="s">
+        <v>3714</v>
+      </c>
+      <c r="H849" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I849" s="23" t="s">
+        <v>3715</v>
+      </c>
+      <c r="J849" s="24">
+        <v>44649.0</v>
+      </c>
+      <c r="K849" s="15"/>
+      <c r="L849" s="15"/>
+      <c r="M849" s="15"/>
+      <c r="N849" s="15"/>
+      <c r="O849" s="15"/>
+      <c r="P849" s="15"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="19">
+        <v>44105.35835929398</v>
+      </c>
+      <c r="B850" s="22" t="s">
+        <v>3716</v>
+      </c>
+      <c r="C850" s="22" t="s">
+        <v>3717</v>
+      </c>
+      <c r="D850" s="22" t="s">
+        <v>964</v>
+      </c>
+      <c r="E850" s="22" t="s">
+        <v>3718</v>
+      </c>
+      <c r="F850" s="22" t="s">
+        <v>3719</v>
+      </c>
+      <c r="G850" s="23" t="s">
+        <v>3720</v>
+      </c>
+      <c r="H850" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="I850" s="23" t="s">
+        <v>3721</v>
+      </c>
+      <c r="J850" s="24">
+        <v>44432.0</v>
+      </c>
+      <c r="K850" s="15"/>
+      <c r="L850" s="15"/>
+      <c r="M850" s="15"/>
+      <c r="N850" s="15"/>
+      <c r="O850" s="15"/>
+      <c r="P850" s="15"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="19">
+        <v>44105.37183914352</v>
+      </c>
+      <c r="B851" s="22" t="s">
+        <v>3722</v>
+      </c>
+      <c r="C851" s="22" t="s">
+        <v>3723</v>
+      </c>
+      <c r="D851" s="22" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E851" s="22" t="s">
+        <v>3724</v>
+      </c>
+      <c r="F851" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G851" s="23" t="s">
+        <v>3725</v>
+      </c>
+      <c r="H851" s="22" t="s">
+        <v>3726</v>
+      </c>
+      <c r="I851" s="22">
+        <v>9226.0</v>
+      </c>
+      <c r="J851" s="24">
+        <v>45017.0</v>
+      </c>
+      <c r="K851" s="15"/>
+      <c r="L851" s="15"/>
+      <c r="M851" s="15"/>
+      <c r="N851" s="15"/>
+      <c r="O851" s="15"/>
+      <c r="P851" s="15"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="19">
+        <v>44105.38286510417</v>
+      </c>
+      <c r="B852" s="22" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C852" s="22" t="s">
+        <v>3728</v>
+      </c>
+      <c r="D852" s="22" t="s">
+        <v>874</v>
+      </c>
+      <c r="E852" s="22" t="s">
+        <v>3729</v>
+      </c>
+      <c r="F852" s="22" t="s">
+        <v>3730</v>
+      </c>
+      <c r="G852" s="23" t="s">
+        <v>3731</v>
+      </c>
+      <c r="H852" s="22" t="s">
+        <v>3730</v>
+      </c>
+      <c r="I852" s="23" t="s">
+        <v>3732</v>
+      </c>
+      <c r="J852" s="24">
+        <v>44355.0</v>
+      </c>
+      <c r="K852" s="15"/>
+      <c r="L852" s="15"/>
+      <c r="M852" s="15"/>
+      <c r="N852" s="15"/>
+      <c r="O852" s="15"/>
+      <c r="P852" s="15"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="19">
+        <v>44105.387860462964</v>
+      </c>
+      <c r="B853" s="22" t="s">
+        <v>3733</v>
+      </c>
+      <c r="C853" s="22" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D853" s="22" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E853" s="22" t="s">
+        <v>3735</v>
+      </c>
+      <c r="F853" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G853" s="23" t="s">
+        <v>2022</v>
+      </c>
+      <c r="H853" s="22" t="s">
+        <v>3736</v>
+      </c>
+      <c r="I853" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J853" s="15"/>
+      <c r="K853" s="15"/>
+      <c r="L853" s="15"/>
+      <c r="M853" s="15"/>
+      <c r="N853" s="15"/>
+      <c r="O853" s="15"/>
+      <c r="P853" s="15"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="19">
+        <v>44105.38991575231</v>
+      </c>
+      <c r="B854" s="22" t="s">
+        <v>3737</v>
+      </c>
+      <c r="C854" s="22" t="s">
+        <v>3738</v>
+      </c>
+      <c r="D854" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="E854" s="22" t="s">
+        <v>3739</v>
+      </c>
+      <c r="F854" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G854" s="23" t="s">
+        <v>3740</v>
+      </c>
+      <c r="H854" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I854" s="15"/>
+      <c r="J854" s="15"/>
+      <c r="K854" s="15"/>
+      <c r="L854" s="15"/>
+      <c r="M854" s="15"/>
+      <c r="N854" s="15"/>
+      <c r="O854" s="15"/>
+      <c r="P854" s="15"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="19">
+        <v>44105.396493113425</v>
+      </c>
+      <c r="B855" s="22" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C855" s="22" t="s">
+        <v>3742</v>
+      </c>
+      <c r="D855" s="22" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E855" s="22" t="s">
+        <v>3743</v>
+      </c>
+      <c r="F855" s="22" t="s">
+        <v>3545</v>
+      </c>
+      <c r="G855" s="23" t="s">
+        <v>3744</v>
+      </c>
+      <c r="H855" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I855" s="15"/>
+      <c r="J855" s="15"/>
+      <c r="K855" s="15"/>
+      <c r="L855" s="15"/>
+      <c r="M855" s="15"/>
+      <c r="N855" s="15"/>
+      <c r="O855" s="15"/>
+      <c r="P855" s="15"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="19">
+        <v>44105.40281140046</v>
+      </c>
+      <c r="B856" s="22" t="s">
+        <v>3745</v>
+      </c>
+      <c r="C856" s="22" t="s">
+        <v>3746</v>
+      </c>
+      <c r="D856" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="E856" s="22" t="s">
+        <v>3747</v>
+      </c>
+      <c r="F856" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G856" s="23" t="s">
+        <v>3748</v>
+      </c>
+      <c r="H856" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I856" s="23" t="s">
+        <v>3749</v>
+      </c>
+      <c r="J856" s="24">
+        <v>44894.0</v>
+      </c>
+      <c r="K856" s="15"/>
+      <c r="L856" s="15"/>
+      <c r="M856" s="15"/>
+      <c r="N856" s="15"/>
+      <c r="O856" s="15"/>
+      <c r="P856" s="15"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="19">
+        <v>44105.404195625</v>
+      </c>
+      <c r="B857" s="22" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C857" s="22" t="s">
+        <v>3751</v>
+      </c>
+      <c r="D857" s="22" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E857" s="22" t="s">
+        <v>3752</v>
+      </c>
+      <c r="F857" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G857" s="23" t="s">
+        <v>3753</v>
+      </c>
+      <c r="H857" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="I857" s="23" t="s">
+        <v>3754</v>
+      </c>
+      <c r="J857" s="24">
+        <v>45114.0</v>
+      </c>
+      <c r="K857" s="15"/>
+      <c r="L857" s="15"/>
+      <c r="M857" s="15"/>
+      <c r="N857" s="15"/>
+      <c r="O857" s="15"/>
+      <c r="P857" s="15"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="19">
+        <v>44105.41094166666</v>
+      </c>
+      <c r="B858" s="22" t="s">
+        <v>3755</v>
+      </c>
+      <c r="C858" s="22" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D858" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="E858" s="22" t="s">
+        <v>3757</v>
+      </c>
+      <c r="F858" s="22" t="s">
+        <v>3758</v>
+      </c>
+      <c r="G858" s="23" t="s">
+        <v>3759</v>
+      </c>
+      <c r="H858" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="I858" s="23" t="s">
+        <v>3760</v>
+      </c>
+      <c r="J858" s="24">
+        <v>44160.0</v>
+      </c>
+      <c r="K858" s="15"/>
+      <c r="L858" s="15"/>
+      <c r="M858" s="15"/>
+      <c r="N858" s="15"/>
+      <c r="O858" s="15"/>
+      <c r="P858" s="15"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="19">
+        <v>44105.414088171296</v>
+      </c>
+      <c r="B859" s="22" t="s">
+        <v>3761</v>
+      </c>
+      <c r="C859" s="22" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D859" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="E859" s="22" t="s">
+        <v>3763</v>
+      </c>
+      <c r="F859" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="G859" s="23" t="s">
+        <v>3764</v>
+      </c>
+      <c r="H859" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I859" s="23" t="s">
+        <v>3765</v>
+      </c>
+      <c r="J859" s="24">
+        <v>43984.0</v>
+      </c>
+      <c r="K859" s="15"/>
+      <c r="L859" s="15"/>
+      <c r="M859" s="15"/>
+      <c r="N859" s="15"/>
+      <c r="O859" s="15"/>
+      <c r="P859" s="15"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="19">
+        <v>44105.42037383102</v>
+      </c>
+      <c r="B860" s="22" t="s">
+        <v>3766</v>
+      </c>
+      <c r="C860" s="22" t="s">
+        <v>3767</v>
+      </c>
+      <c r="D860" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="E860" s="22" t="s">
+        <v>3768</v>
+      </c>
+      <c r="F860" s="22" t="s">
+        <v>3769</v>
+      </c>
+      <c r="G860" s="23" t="s">
+        <v>3770</v>
+      </c>
+      <c r="H860" s="22" t="s">
+        <v>3771</v>
+      </c>
+      <c r="I860" s="15"/>
+      <c r="J860" s="15"/>
+      <c r="K860" s="15"/>
+      <c r="L860" s="15"/>
+      <c r="M860" s="15"/>
+      <c r="N860" s="15"/>
+      <c r="O860" s="15"/>
+      <c r="P860" s="15"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="19">
+        <v>44105.42168292824</v>
+      </c>
+      <c r="B861" s="22" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C861" s="22" t="s">
+        <v>3773</v>
+      </c>
+      <c r="D861" s="22" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E861" s="22" t="s">
+        <v>3774</v>
+      </c>
+      <c r="F861" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="G861" s="23" t="s">
+        <v>3775</v>
+      </c>
+      <c r="H861" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I861" s="23" t="s">
+        <v>3776</v>
+      </c>
+      <c r="J861" s="24">
+        <v>44631.0</v>
+      </c>
+      <c r="K861" s="15"/>
+      <c r="L861" s="15"/>
+      <c r="M861" s="15"/>
+      <c r="N861" s="15"/>
+      <c r="O861" s="15"/>
+      <c r="P861" s="15"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="19">
+        <v>44105.42557111111</v>
+      </c>
+      <c r="B862" s="22" t="s">
+        <v>3777</v>
+      </c>
+      <c r="C862" s="22" t="s">
+        <v>3778</v>
+      </c>
+      <c r="D862" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="E862" s="22" t="s">
+        <v>3779</v>
+      </c>
+      <c r="F862" s="22" t="s">
+        <v>3780</v>
+      </c>
+      <c r="G862" s="23" t="s">
+        <v>3781</v>
+      </c>
+      <c r="H862" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I862" s="23" t="s">
+        <v>3782</v>
+      </c>
+      <c r="J862" s="24">
+        <v>44898.0</v>
+      </c>
+      <c r="K862" s="15"/>
+      <c r="L862" s="15"/>
+      <c r="M862" s="15"/>
+      <c r="N862" s="15"/>
+      <c r="O862" s="15"/>
+      <c r="P862" s="15"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="19">
+        <v>44105.427158067134</v>
+      </c>
+      <c r="B863" s="22" t="s">
+        <v>3783</v>
+      </c>
+      <c r="C863" s="22" t="s">
+        <v>3784</v>
+      </c>
+      <c r="D863" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="E863" s="22" t="s">
+        <v>3785</v>
+      </c>
+      <c r="F863" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G863" s="23" t="s">
+        <v>3786</v>
+      </c>
+      <c r="H863" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I863" s="15"/>
+      <c r="J863" s="15"/>
+      <c r="K863" s="15"/>
+      <c r="L863" s="15"/>
+      <c r="M863" s="15"/>
+      <c r="N863" s="15"/>
+      <c r="O863" s="15"/>
+      <c r="P863" s="15"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="19">
+        <v>44105.43024891204</v>
+      </c>
+      <c r="B864" s="22" t="s">
+        <v>3787</v>
+      </c>
+      <c r="C864" s="22" t="s">
+        <v>3788</v>
+      </c>
+      <c r="D864" s="22" t="s">
+        <v>874</v>
+      </c>
+      <c r="E864" s="22" t="s">
+        <v>3789</v>
+      </c>
+      <c r="F864" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G864" s="23" t="s">
+        <v>3790</v>
+      </c>
+      <c r="H864" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="I864" s="23" t="s">
+        <v>3791</v>
+      </c>
+      <c r="J864" s="24">
+        <v>44098.0</v>
+      </c>
+      <c r="K864" s="15"/>
+      <c r="L864" s="15"/>
+      <c r="M864" s="15"/>
+      <c r="N864" s="15"/>
+      <c r="O864" s="15"/>
+      <c r="P864" s="15"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="19">
+        <v>44105.43563006945</v>
+      </c>
+      <c r="B865" s="22" t="s">
+        <v>3792</v>
+      </c>
+      <c r="C865" s="22" t="s">
+        <v>3793</v>
+      </c>
+      <c r="D865" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="E865" s="22" t="s">
+        <v>3794</v>
+      </c>
+      <c r="F865" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G865" s="23" t="s">
+        <v>3795</v>
+      </c>
+      <c r="H865" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="I865" s="23" t="s">
+        <v>3796</v>
+      </c>
+      <c r="J865" s="24">
+        <v>44350.0</v>
+      </c>
+      <c r="K865" s="15"/>
+      <c r="L865" s="15"/>
+      <c r="M865" s="15"/>
+      <c r="N865" s="15"/>
+      <c r="O865" s="15"/>
+      <c r="P865" s="15"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="19">
+        <v>44105.43644837963</v>
+      </c>
+      <c r="B866" s="22" t="s">
+        <v>3797</v>
+      </c>
+      <c r="C866" s="22" t="s">
+        <v>3798</v>
+      </c>
+      <c r="D866" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="E866" s="22" t="s">
+        <v>3799</v>
+      </c>
+      <c r="F866" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="G866" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="H866" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="I866" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="J866" s="24">
+        <v>44886.0</v>
+      </c>
+      <c r="K866" s="15"/>
+      <c r="L866" s="15"/>
+      <c r="M866" s="15"/>
+      <c r="N866" s="15"/>
+      <c r="O866" s="15"/>
+      <c r="P866" s="15"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="19">
+        <v>44105.44257194444</v>
+      </c>
+      <c r="B867" s="22" t="s">
+        <v>3800</v>
+      </c>
+      <c r="C867" s="22" t="s">
+        <v>3801</v>
+      </c>
+      <c r="D867" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="E867" s="22" t="s">
+        <v>3802</v>
+      </c>
+      <c r="F867" s="22" t="s">
+        <v>3803</v>
+      </c>
+      <c r="G867" s="23" t="s">
+        <v>3804</v>
+      </c>
+      <c r="H867" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="I867" s="23" t="s">
+        <v>3805</v>
+      </c>
+      <c r="J867" s="24">
+        <v>44197.0</v>
+      </c>
+      <c r="K867" s="15"/>
+      <c r="L867" s="15"/>
+      <c r="M867" s="15"/>
+      <c r="N867" s="15"/>
+      <c r="O867" s="15"/>
+      <c r="P867" s="15"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="19">
+        <v>44105.45039273148</v>
+      </c>
+      <c r="B868" s="22" t="s">
+        <v>3806</v>
+      </c>
+      <c r="C868" s="22" t="s">
+        <v>3807</v>
+      </c>
+      <c r="D868" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="E868" s="22" t="s">
+        <v>3808</v>
+      </c>
+      <c r="F868" s="22" t="s">
+        <v>3809</v>
+      </c>
+      <c r="G868" s="23" t="s">
+        <v>3810</v>
+      </c>
+      <c r="H868" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="I868" s="15"/>
+      <c r="J868" s="15"/>
+      <c r="K868" s="15"/>
+      <c r="L868" s="15"/>
+      <c r="M868" s="15"/>
+      <c r="N868" s="15"/>
+      <c r="O868" s="15"/>
+      <c r="P868" s="15"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="3">
+        <v>44105.451199375</v>
+      </c>
+      <c r="B869" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="C869" s="2" t="s">
+        <v>3807</v>
+      </c>
+      <c r="D869" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E869" s="2" t="s">
+        <v>3808</v>
+      </c>
+      <c r="F869" s="2" t="s">
+        <v>3809</v>
+      </c>
+      <c r="G869" s="4" t="s">
+        <v>3810</v>
+      </c>
+      <c r="H869" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="19">
+        <v>44105.453699537036</v>
+      </c>
+      <c r="B870" s="22" t="s">
+        <v>3811</v>
+      </c>
+      <c r="C870" s="22" t="s">
+        <v>3812</v>
+      </c>
+      <c r="D870" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="E870" s="22" t="s">
+        <v>3813</v>
+      </c>
+      <c r="F870" s="22" t="s">
+        <v>3814</v>
+      </c>
+      <c r="G870" s="23" t="s">
+        <v>3815</v>
+      </c>
+      <c r="H870" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I870" s="23" t="s">
+        <v>3816</v>
+      </c>
+      <c r="J870" s="24">
+        <v>45289.0</v>
+      </c>
+      <c r="K870" s="15"/>
+      <c r="L870" s="15"/>
+      <c r="M870" s="15"/>
+      <c r="N870" s="15"/>
+      <c r="O870" s="15"/>
+      <c r="P870" s="15"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="19">
+        <v>44105.46041356481</v>
+      </c>
+      <c r="B871" s="22" t="s">
+        <v>3817</v>
+      </c>
+      <c r="C871" s="22" t="s">
+        <v>3818</v>
+      </c>
+      <c r="D871" s="22" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E871" s="22" t="s">
+        <v>3819</v>
+      </c>
+      <c r="F871" s="22" t="s">
+        <v>3820</v>
+      </c>
+      <c r="G871" s="22">
+        <v>9.209824619E9</v>
+      </c>
+      <c r="H871" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I871" s="22">
+        <v>66245.0</v>
+      </c>
+      <c r="J871" s="24">
+        <v>44922.0</v>
+      </c>
+      <c r="K871" s="15"/>
+      <c r="L871" s="15"/>
+      <c r="M871" s="15"/>
+      <c r="N871" s="15"/>
+      <c r="O871" s="15"/>
+      <c r="P871" s="15"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="19">
+        <v>44105.46501748843</v>
+      </c>
+      <c r="B872" s="22" t="s">
+        <v>3821</v>
+      </c>
+      <c r="C872" s="22" t="s">
+        <v>3822</v>
+      </c>
+      <c r="D872" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="E872" s="22" t="s">
+        <v>3823</v>
+      </c>
+      <c r="F872" s="22" t="s">
+        <v>2628</v>
+      </c>
+      <c r="G872" s="23" t="s">
+        <v>3824</v>
+      </c>
+      <c r="H872" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I872" s="23" t="s">
+        <v>3825</v>
+      </c>
+      <c r="J872" s="24">
+        <v>45117.0</v>
+      </c>
+      <c r="K872" s="15"/>
+      <c r="L872" s="15"/>
+      <c r="M872" s="15"/>
+      <c r="N872" s="15"/>
+      <c r="O872" s="15"/>
+      <c r="P872" s="15"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="19">
+        <v>44105.46590361111</v>
+      </c>
+      <c r="B873" s="22" t="s">
+        <v>3826</v>
+      </c>
+      <c r="C873" s="22" t="s">
+        <v>3827</v>
+      </c>
+      <c r="D873" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="E873" s="22" t="s">
+        <v>3828</v>
+      </c>
+      <c r="F873" s="22" t="s">
+        <v>3411</v>
+      </c>
+      <c r="G873" s="23" t="s">
+        <v>3829</v>
+      </c>
+      <c r="H873" s="22" t="s">
+        <v>3830</v>
+      </c>
+      <c r="I873" s="23" t="s">
+        <v>3831</v>
+      </c>
+      <c r="J873" s="15"/>
+      <c r="K873" s="15"/>
+      <c r="L873" s="15"/>
+      <c r="M873" s="15"/>
+      <c r="N873" s="15"/>
+      <c r="O873" s="15"/>
+      <c r="P873" s="15"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="19">
+        <v>44105.47426482639</v>
+      </c>
+      <c r="B874" s="22" t="s">
+        <v>3832</v>
+      </c>
+      <c r="C874" s="22" t="s">
+        <v>3833</v>
+      </c>
+      <c r="D874" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="E874" s="22" t="s">
+        <v>3834</v>
+      </c>
+      <c r="F874" s="22" t="s">
+        <v>720</v>
+      </c>
+      <c r="G874" s="23" t="s">
+        <v>3835</v>
+      </c>
+      <c r="H874" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="I874" s="23" t="s">
+        <v>3836</v>
+      </c>
+      <c r="J874" s="24">
+        <v>44351.0</v>
+      </c>
+      <c r="K874" s="15"/>
+      <c r="L874" s="15"/>
+      <c r="M874" s="15"/>
+      <c r="N874" s="15"/>
+      <c r="O874" s="15"/>
+      <c r="P874" s="15"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="19">
+        <v>44105.475585162036</v>
+      </c>
+      <c r="B875" s="22" t="s">
+        <v>3837</v>
+      </c>
+      <c r="C875" s="22" t="s">
+        <v>3838</v>
+      </c>
+      <c r="D875" s="22" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E875" s="22" t="s">
+        <v>3839</v>
+      </c>
+      <c r="F875" s="22" t="s">
+        <v>769</v>
+      </c>
+      <c r="G875" s="23" t="s">
+        <v>3840</v>
+      </c>
+      <c r="H875" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="I875" s="23" t="s">
+        <v>3841</v>
+      </c>
+      <c r="J875" s="24">
+        <v>45264.0</v>
+      </c>
+      <c r="K875" s="15"/>
+      <c r="L875" s="15"/>
+      <c r="M875" s="15"/>
+      <c r="N875" s="15"/>
+      <c r="O875" s="15"/>
+      <c r="P875" s="15"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="3">
+        <v>44105.47813229167</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>3837</v>
+      </c>
+      <c r="C876" s="2" t="s">
+        <v>3838</v>
+      </c>
+      <c r="D876" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E876" s="2" t="s">
+        <v>3842</v>
+      </c>
+      <c r="F876" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G876" s="4" t="s">
+        <v>3840</v>
+      </c>
+      <c r="H876" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I876" s="4" t="s">
+        <v>3841</v>
+      </c>
+      <c r="J876" s="5">
+        <v>45029.0</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="19">
+        <v>44105.478140127314</v>
+      </c>
+      <c r="B877" s="22" t="s">
+        <v>3843</v>
+      </c>
+      <c r="C877" s="22" t="s">
+        <v>3844</v>
+      </c>
+      <c r="D877" s="22" t="s">
+        <v>874</v>
+      </c>
+      <c r="E877" s="22" t="s">
+        <v>3845</v>
+      </c>
+      <c r="F877" s="22" t="s">
+        <v>3846</v>
+      </c>
+      <c r="G877" s="23" t="s">
+        <v>3847</v>
+      </c>
+      <c r="H877" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="I877" s="15"/>
+      <c r="J877" s="15"/>
+      <c r="K877" s="15"/>
+      <c r="L877" s="15"/>
+      <c r="M877" s="15"/>
+      <c r="N877" s="15"/>
+      <c r="O877" s="15"/>
+      <c r="P877" s="15"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="19">
+        <v>44105.479001342595</v>
+      </c>
+      <c r="B878" s="22" t="s">
+        <v>3848</v>
+      </c>
+      <c r="C878" s="22" t="s">
+        <v>3849</v>
+      </c>
+      <c r="D878" s="22" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E878" s="22" t="s">
+        <v>3850</v>
+      </c>
+      <c r="F878" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G878" s="23" t="s">
+        <v>3851</v>
+      </c>
+      <c r="H878" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="I878" s="23" t="s">
+        <v>3852</v>
+      </c>
+      <c r="J878" s="24">
+        <v>45157.0</v>
+      </c>
+      <c r="K878" s="15"/>
+      <c r="L878" s="15"/>
+      <c r="M878" s="15"/>
+      <c r="N878" s="15"/>
+      <c r="O878" s="15"/>
+      <c r="P878" s="15"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="19">
+        <v>44105.48343721065</v>
+      </c>
+      <c r="B879" s="22" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C879" s="22" t="s">
+        <v>3853</v>
+      </c>
+      <c r="D879" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="E879" s="22" t="s">
+        <v>3854</v>
+      </c>
+      <c r="F879" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="G879" s="23" t="s">
+        <v>3094</v>
+      </c>
+      <c r="H879" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="I879" s="23" t="s">
+        <v>3095</v>
+      </c>
+      <c r="J879" s="24">
+        <v>44708.0</v>
+      </c>
+      <c r="K879" s="15"/>
+      <c r="L879" s="15"/>
+      <c r="M879" s="15"/>
+      <c r="N879" s="15"/>
+      <c r="O879" s="15"/>
+      <c r="P879" s="15"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="19">
+        <v>44105.49469018518</v>
+      </c>
+      <c r="B880" s="22" t="s">
+        <v>3855</v>
+      </c>
+      <c r="C880" s="22" t="s">
+        <v>3856</v>
+      </c>
+      <c r="D880" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="E880" s="22" t="s">
+        <v>3857</v>
+      </c>
+      <c r="F880" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="G880" s="23" t="s">
+        <v>3858</v>
+      </c>
+      <c r="H880" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I880" s="22">
+        <v>110449.0</v>
+      </c>
+      <c r="J880" s="24">
+        <v>44179.0</v>
+      </c>
+      <c r="K880" s="15"/>
+      <c r="L880" s="15"/>
+      <c r="M880" s="15"/>
+      <c r="N880" s="15"/>
+      <c r="O880" s="15"/>
+      <c r="P880" s="15"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="19">
+        <v>44105.49725752315</v>
+      </c>
+      <c r="B881" s="22" t="s">
+        <v>3777</v>
+      </c>
+      <c r="C881" s="22" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D881" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="E881" s="22" t="s">
+        <v>3860</v>
+      </c>
+      <c r="F881" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G881" s="23" t="s">
+        <v>3861</v>
+      </c>
+      <c r="H881" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="I881" s="23" t="s">
+        <v>3862</v>
+      </c>
+      <c r="J881" s="24">
+        <v>45103.0</v>
+      </c>
+      <c r="K881" s="15"/>
+      <c r="L881" s="15"/>
+      <c r="M881" s="15"/>
+      <c r="N881" s="15"/>
+      <c r="O881" s="15"/>
+      <c r="P881" s="15"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="19">
+        <v>44105.499425347225</v>
+      </c>
+      <c r="B882" s="22" t="s">
+        <v>3863</v>
+      </c>
+      <c r="C882" s="22" t="s">
+        <v>3864</v>
+      </c>
+      <c r="D882" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="E882" s="22" t="s">
+        <v>3865</v>
+      </c>
+      <c r="F882" s="22" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G882" s="23" t="s">
+        <v>3866</v>
+      </c>
+      <c r="H882" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="I882" s="15"/>
+      <c r="J882" s="15"/>
+      <c r="K882" s="15"/>
+      <c r="L882" s="15"/>
+      <c r="M882" s="15"/>
+      <c r="N882" s="15"/>
+      <c r="O882" s="15"/>
+      <c r="P882" s="15"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="3">
+        <v>44105.504714675924</v>
+      </c>
+      <c r="B883" s="2" t="s">
+        <v>3867</v>
+      </c>
+      <c r="C883" s="2" t="s">
+        <v>3868</v>
+      </c>
+      <c r="D883" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E883" s="2" t="s">
+        <v>3869</v>
+      </c>
+      <c r="F883" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G883" s="4" t="s">
+        <v>3870</v>
+      </c>
+      <c r="H883" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="I883" s="4" t="s">
+        <v>3871</v>
+      </c>
+      <c r="J883" s="5">
+        <v>44765.0</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="3">
+        <v>44105.50592277778</v>
+      </c>
+      <c r="B884" s="2" t="s">
+        <v>3465</v>
+      </c>
+      <c r="C884" s="2" t="s">
+        <v>3872</v>
+      </c>
+      <c r="D884" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E884" s="2" t="s">
+        <v>3873</v>
+      </c>
+      <c r="F884" s="2" t="s">
+        <v>3874</v>
+      </c>
+      <c r="G884" s="4" t="s">
+        <v>3470</v>
+      </c>
+      <c r="H884" s="2" t="s">
+        <v>3055</v>
+      </c>
+      <c r="I884" s="2">
+        <v>46298.0</v>
+      </c>
+      <c r="J884" s="5">
+        <v>44603.0</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="3">
+        <v>44105.515776562504</v>
+      </c>
+      <c r="B885" s="2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="C885" s="2" t="s">
+        <v>3876</v>
+      </c>
+      <c r="D885" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E885" s="2" t="s">
+        <v>2931</v>
+      </c>
+      <c r="F885" s="2" t="s">
+        <v>3877</v>
+      </c>
+      <c r="G885" s="4" t="s">
+        <v>2933</v>
+      </c>
+      <c r="H885" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I885" s="4" t="s">
+        <v>2934</v>
+      </c>
+      <c r="J885" s="5">
+        <v>45154.0</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="3">
+        <v>44105.51585402778</v>
+      </c>
+      <c r="B886" s="2" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C886" s="2" t="s">
+        <v>3879</v>
+      </c>
+      <c r="D886" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="E886" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="F886" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G886" s="4" t="s">
+        <v>3880</v>
+      </c>
+      <c r="H886" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I886" s="2">
+        <v>78969.0</v>
+      </c>
+      <c r="J886" s="5">
+        <v>44135.0</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="3">
+        <v>44105.516455543984</v>
+      </c>
+      <c r="B887" s="2" t="s">
+        <v>3881</v>
+      </c>
+      <c r="C887" s="2" t="s">
+        <v>3882</v>
+      </c>
+      <c r="D887" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E887" s="2" t="s">
+        <v>3883</v>
+      </c>
+      <c r="F887" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G887" s="4" t="s">
+        <v>3884</v>
+      </c>
+      <c r="H887" s="2" t="s">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="3">
+        <v>44105.51768671296</v>
+      </c>
+      <c r="B888" s="2" t="s">
+        <v>3886</v>
+      </c>
+      <c r="C888" s="2" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D888" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E888" s="2" t="s">
+        <v>3887</v>
+      </c>
+      <c r="F888" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="G888" s="4" t="s">
+        <v>2450</v>
+      </c>
+      <c r="H888" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I888" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="3">
+        <v>44105.51791359954</v>
+      </c>
+      <c r="B889" s="2" t="s">
+        <v>3888</v>
+      </c>
+      <c r="C889" s="2" t="s">
+        <v>3889</v>
+      </c>
+      <c r="D889" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E889" s="2" t="s">
+        <v>3890</v>
+      </c>
+      <c r="F889" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G889" s="4" t="s">
+        <v>3891</v>
+      </c>
+      <c r="H889" s="2" t="s">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="3">
+        <v>44105.521335763886</v>
+      </c>
+      <c r="B890" s="2" t="s">
+        <v>3893</v>
+      </c>
+      <c r="C890" s="2" t="s">
+        <v>3129</v>
+      </c>
+      <c r="D890" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E890" s="2" t="s">
+        <v>3894</v>
+      </c>
+      <c r="F890" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G890" s="4" t="s">
+        <v>3131</v>
+      </c>
+      <c r="H890" s="2" t="s">
+        <v>3895</v>
+      </c>
+      <c r="I890" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="3">
+        <v>44105.52217134259</v>
+      </c>
+      <c r="B891" s="2" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C891" s="2" t="s">
+        <v>3897</v>
+      </c>
+      <c r="D891" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E891" s="2" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F891" s="2" t="s">
+        <v>3899</v>
+      </c>
+      <c r="G891" s="4" t="s">
+        <v>3900</v>
+      </c>
+      <c r="H891" s="2" t="s">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="3">
+        <v>44105.52290696759</v>
+      </c>
+      <c r="B892" s="2" t="s">
+        <v>3902</v>
+      </c>
+      <c r="C892" s="2" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D892" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E892" s="2" t="s">
+        <v>3904</v>
+      </c>
+      <c r="F892" s="2" t="s">
+        <v>3905</v>
+      </c>
+      <c r="G892" s="4" t="s">
+        <v>3906</v>
+      </c>
+      <c r="H892" s="2" t="s">
+        <v>3907</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6691" uniqueCount="3908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7787" uniqueCount="4291">
   <si>
     <t>Timestamp</t>
   </si>
@@ -11735,6 +11735,1155 @@
   </si>
   <si>
     <t>Bachelor of Science in Industrial Technology</t>
+  </si>
+  <si>
+    <t>yeli.asiong0228@gmail.com</t>
+  </si>
+  <si>
+    <t>Gladys K. Asiong</t>
+  </si>
+  <si>
+    <t>Metro AideII/MNAO</t>
+  </si>
+  <si>
+    <t>Bachelor of Science in Industrial Technology(BSIT)</t>
+  </si>
+  <si>
+    <t>koromatapidz12@gmail.com</t>
+  </si>
+  <si>
+    <t>Cris Albert E. Pidot</t>
+  </si>
+  <si>
+    <t>Municipality of Ramos</t>
+  </si>
+  <si>
+    <t>MNAO/PHN</t>
+  </si>
+  <si>
+    <t>09267139427</t>
+  </si>
+  <si>
+    <t>0710688</t>
+  </si>
+  <si>
+    <t>judymijaresflores04@gmail.com</t>
+  </si>
+  <si>
+    <t>Judy M. Flores</t>
+  </si>
+  <si>
+    <t>09273902718</t>
+  </si>
+  <si>
+    <t>0143980</t>
+  </si>
+  <si>
+    <t>liaokatherine83@gmail.com</t>
+  </si>
+  <si>
+    <t>Katherine Liao-Durano</t>
+  </si>
+  <si>
+    <t>Danao City</t>
+  </si>
+  <si>
+    <t>09171101477</t>
+  </si>
+  <si>
+    <t>0123688</t>
+  </si>
+  <si>
+    <t>liezellasta.19@gmail.com</t>
+  </si>
+  <si>
+    <t>LIEZEL L.GEROMO</t>
+  </si>
+  <si>
+    <t>09495863935</t>
+  </si>
+  <si>
+    <t>0264596</t>
+  </si>
+  <si>
+    <t>rhusanmateoisabelar2@gmail.com</t>
+  </si>
+  <si>
+    <t>RUTH CANTORNA</t>
+  </si>
+  <si>
+    <t>SAN MATEO</t>
+  </si>
+  <si>
+    <t>bnsrtlzsp@gmail.com</t>
+  </si>
+  <si>
+    <t>Marebel G. Tingson</t>
+  </si>
+  <si>
+    <t>LGU RTLIM</t>
+  </si>
+  <si>
+    <t>09554027030</t>
+  </si>
+  <si>
+    <t>Clerk 2</t>
+  </si>
+  <si>
+    <t>ndp_sanfernando@yahoo.com</t>
+  </si>
+  <si>
+    <t>alfredo P.  manugas VI</t>
+  </si>
+  <si>
+    <t>San Fernando</t>
+  </si>
+  <si>
+    <t>09234357845</t>
+  </si>
+  <si>
+    <t>MNAO-Asst.Nutritionist</t>
+  </si>
+  <si>
+    <t>Cynthia P. Daquiz</t>
+  </si>
+  <si>
+    <t>Municipality of Sto. Tomad</t>
+  </si>
+  <si>
+    <t>Phn /nurse II</t>
+  </si>
+  <si>
+    <t>Clare Angeli O. Barbon</t>
+  </si>
+  <si>
+    <t>09618858079</t>
+  </si>
+  <si>
+    <t>0686630</t>
+  </si>
+  <si>
+    <t>mho_kalibo@yahoo.com</t>
+  </si>
+  <si>
+    <t>Vilma A. Mabalon</t>
+  </si>
+  <si>
+    <t>LGU-Kalibo</t>
+  </si>
+  <si>
+    <t>09380148949</t>
+  </si>
+  <si>
+    <t>NUTRITION COORDINATOR</t>
+  </si>
+  <si>
+    <t>lebarnesjosa@gmail.com</t>
+  </si>
+  <si>
+    <t>JOSEPH SALVADOR L. MANAOIS</t>
+  </si>
+  <si>
+    <t>LGU SAN JACINTO</t>
+  </si>
+  <si>
+    <t>09950043574</t>
+  </si>
+  <si>
+    <t>surte.manette@gmail.com</t>
+  </si>
+  <si>
+    <t>angel_naoj@yahoo.com</t>
+  </si>
+  <si>
+    <t>Joan Maricel Zeta Decena</t>
+  </si>
+  <si>
+    <t>Province of Quezon</t>
+  </si>
+  <si>
+    <t>09503892177</t>
+  </si>
+  <si>
+    <t>0011948</t>
+  </si>
+  <si>
+    <t>nutrition.baylaguna@yahoo.com</t>
+  </si>
+  <si>
+    <t>Municipality of Bay</t>
+  </si>
+  <si>
+    <t>tukuranmnao2020@gmail.com</t>
+  </si>
+  <si>
+    <t>Danica Opada</t>
+  </si>
+  <si>
+    <t>Tukuran LGU</t>
+  </si>
+  <si>
+    <t>09190085965</t>
+  </si>
+  <si>
+    <t>0723028</t>
+  </si>
+  <si>
+    <t>Almira D. Tangente</t>
+  </si>
+  <si>
+    <t>PHN-  NURSE II</t>
+  </si>
+  <si>
+    <t>09771426462</t>
+  </si>
+  <si>
+    <t>lheynalaine@gmail.com</t>
+  </si>
+  <si>
+    <t>09098647693</t>
+  </si>
+  <si>
+    <t>rga.cantorna@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruth Cantorna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Mateo, Isabela </t>
+  </si>
+  <si>
+    <t>0069416</t>
+  </si>
+  <si>
+    <t>VERONICA G. RAFANAN</t>
+  </si>
+  <si>
+    <t>CLARIN, MISAMIS OCCIDENTAL</t>
+  </si>
+  <si>
+    <t>BEED</t>
+  </si>
+  <si>
+    <t>nimfa.ekong@nnc.gov.ph</t>
+  </si>
+  <si>
+    <t>Nimfa D. Ekong</t>
+  </si>
+  <si>
+    <t>NNC 9</t>
+  </si>
+  <si>
+    <t>Nutrition Program Coordinator</t>
+  </si>
+  <si>
+    <t>09171655570</t>
+  </si>
+  <si>
+    <t>ELIZABETH I. SERRANO</t>
+  </si>
+  <si>
+    <t>Sta. Josefa, agusan del sur</t>
+  </si>
+  <si>
+    <t>Nutritionist dietatian</t>
+  </si>
+  <si>
+    <t>ednagalea1965@yahoo.com</t>
+  </si>
+  <si>
+    <t>Edna Galea</t>
+  </si>
+  <si>
+    <t>LGU Dipolog City</t>
+  </si>
+  <si>
+    <t>09506214920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor of Science in Fisheries </t>
+  </si>
+  <si>
+    <t>rhu.esperanza@yahoo.com</t>
+  </si>
+  <si>
+    <t>LILIAN O. PINO</t>
+  </si>
+  <si>
+    <t>Esperanza, Agusan del Sur</t>
+  </si>
+  <si>
+    <t>Midwife III/ MNAO Designate</t>
+  </si>
+  <si>
+    <t>felpeachy@yahoo.com</t>
+  </si>
+  <si>
+    <t>sta.josefabns@gmail.com2020</t>
+  </si>
+  <si>
+    <t>Mnao-designate</t>
+  </si>
+  <si>
+    <t>ednagalea1965@gmail.com</t>
+  </si>
+  <si>
+    <t>Bachelor of Science in Fisheries</t>
+  </si>
+  <si>
+    <t>goldamayboco@yahoo.com.ph</t>
+  </si>
+  <si>
+    <t>Midwife/ Designate MNAO</t>
+  </si>
+  <si>
+    <t>marissasd70@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosalie Sto Domingo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Juan </t>
+  </si>
+  <si>
+    <t>City Health Officer, CNAO</t>
+  </si>
+  <si>
+    <t>09173945897</t>
+  </si>
+  <si>
+    <t>0089915</t>
+  </si>
+  <si>
+    <t>Public Health</t>
+  </si>
+  <si>
+    <t>csjdmchonut@gmail.com</t>
+  </si>
+  <si>
+    <t>Ma. Isabel Valentine</t>
+  </si>
+  <si>
+    <t>San Jose del Monte</t>
+  </si>
+  <si>
+    <t>09959878549</t>
+  </si>
+  <si>
+    <t>0007449</t>
+  </si>
+  <si>
+    <t>winona.villanueva10@gmail.com</t>
+  </si>
+  <si>
+    <t>Winona M.Villanueva</t>
+  </si>
+  <si>
+    <t>ND 11</t>
+  </si>
+  <si>
+    <t>09434118827</t>
+  </si>
+  <si>
+    <t>0003172</t>
+  </si>
+  <si>
+    <t>Josefina  a.mendoza</t>
+  </si>
+  <si>
+    <t>Lgu  maragondon</t>
+  </si>
+  <si>
+    <t>Foodtech</t>
+  </si>
+  <si>
+    <t>mayors8588@yahoo.com</t>
+  </si>
+  <si>
+    <t>Ruben Ludaes Tinda-an</t>
+  </si>
+  <si>
+    <t>BUGUIAS</t>
+  </si>
+  <si>
+    <t>LCE</t>
+  </si>
+  <si>
+    <t>+639286033633</t>
+  </si>
+  <si>
+    <t>MAYOR</t>
+  </si>
+  <si>
+    <t>rnhealslidlidlidda@gmail.com</t>
+  </si>
+  <si>
+    <t>Agustina D. Banasan</t>
+  </si>
+  <si>
+    <t>Lidlidda</t>
+  </si>
+  <si>
+    <t>09354153218</t>
+  </si>
+  <si>
+    <t>0208152</t>
+  </si>
+  <si>
+    <t>winona.villanueva@gmail.com</t>
+  </si>
+  <si>
+    <t>Winona.M.Villanueva</t>
+  </si>
+  <si>
+    <t>City Govt of Valenzuela</t>
+  </si>
+  <si>
+    <t>Nutritionist Dietitian 11</t>
+  </si>
+  <si>
+    <t>lotcabreza@yahoo.com</t>
+  </si>
+  <si>
+    <t>Desiree Lou A. Cabreza</t>
+  </si>
+  <si>
+    <t>San Felipe, Zambales</t>
+  </si>
+  <si>
+    <t>Rural Sanitation Inspector ll</t>
+  </si>
+  <si>
+    <t>09999900720</t>
+  </si>
+  <si>
+    <t>0669877</t>
+  </si>
+  <si>
+    <t>Alfredo Manugas VI</t>
+  </si>
+  <si>
+    <t>SAN FERNANDO</t>
+  </si>
+  <si>
+    <t>0078071</t>
+  </si>
+  <si>
+    <t>GLORIA CORAZON</t>
+  </si>
+  <si>
+    <t>DIGOS CITY</t>
+  </si>
+  <si>
+    <t>Nutrition &amp; Dietetics</t>
+  </si>
+  <si>
+    <t>rnhealslidlidda@gmail.com</t>
+  </si>
+  <si>
+    <t>Lidlidda,IlocosSur</t>
+  </si>
+  <si>
+    <t>MNAO designate,Nurse II</t>
+  </si>
+  <si>
+    <t>rhu1.nw@gmail.com</t>
+  </si>
+  <si>
+    <t>Daystar S. Sedillo</t>
+  </si>
+  <si>
+    <t>LGU-New Washington</t>
+  </si>
+  <si>
+    <t>09178093222</t>
+  </si>
+  <si>
+    <t>0120807</t>
+  </si>
+  <si>
+    <t>yeeyeesuansolidum@gmail.com</t>
+  </si>
+  <si>
+    <t>ESTELA GUIA S. GREGORIO</t>
+  </si>
+  <si>
+    <t>09485884649</t>
+  </si>
+  <si>
+    <t>0019569</t>
+  </si>
+  <si>
+    <t>LGU- SAN FABIAN</t>
+  </si>
+  <si>
+    <t>laniepates84@gmail.com</t>
+  </si>
+  <si>
+    <t>Lanie S. Pates</t>
+  </si>
+  <si>
+    <t>LGU MarAMAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurse 1 MNAO Designate </t>
+  </si>
+  <si>
+    <t>09652085092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurse </t>
+  </si>
+  <si>
+    <t>082252</t>
+  </si>
+  <si>
+    <t>chenghsaflor@gmail.com</t>
+  </si>
+  <si>
+    <t>Cheng H Saflor</t>
+  </si>
+  <si>
+    <t>Cervantes, Ilocos Sur</t>
+  </si>
+  <si>
+    <t>0318070</t>
+  </si>
+  <si>
+    <t>Winona.M Villanueva</t>
+  </si>
+  <si>
+    <t>City Government of Valenzuela City</t>
+  </si>
+  <si>
+    <t>CONTRACTUAL NUTRITIONIST DIETITIAN</t>
+  </si>
+  <si>
+    <t>0985884649</t>
+  </si>
+  <si>
+    <t>NUTRITIONITS DIETITIAN</t>
+  </si>
+  <si>
+    <t>SANTA FE</t>
+  </si>
+  <si>
+    <t>johnwilbenluna@yahoo.com</t>
+  </si>
+  <si>
+    <t>JOHN WILBEN M. LUNA</t>
+  </si>
+  <si>
+    <t>LGU- NEW WASHINGTON</t>
+  </si>
+  <si>
+    <t>09776360782</t>
+  </si>
+  <si>
+    <t>0689399</t>
+  </si>
+  <si>
+    <t>neermimi09@gmail.com</t>
+  </si>
+  <si>
+    <t>Neer Gumaod</t>
+  </si>
+  <si>
+    <t>09951863540</t>
+  </si>
+  <si>
+    <t>melfredborja_@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melfred Borja </t>
+  </si>
+  <si>
+    <t>LGU MARAMAG</t>
+  </si>
+  <si>
+    <t>Nutrition Aide NPC</t>
+  </si>
+  <si>
+    <t>09099216518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">civil service </t>
+  </si>
+  <si>
+    <t>tinambunansophia@yahoo.com</t>
+  </si>
+  <si>
+    <t>Sophia T.Suetado</t>
+  </si>
+  <si>
+    <t>PDOHO</t>
+  </si>
+  <si>
+    <t>NDDP</t>
+  </si>
+  <si>
+    <t>09157348002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheng H Saflor </t>
+  </si>
+  <si>
+    <t>rachelgracejamero@gmail.com</t>
+  </si>
+  <si>
+    <t>RACHEL GRACE B. JAMERO</t>
+  </si>
+  <si>
+    <t>LGU-NEW WASHINGTON</t>
+  </si>
+  <si>
+    <t>NDP-NURSE</t>
+  </si>
+  <si>
+    <t>09091664042</t>
+  </si>
+  <si>
+    <t>0689400</t>
+  </si>
+  <si>
+    <t>Neri M. Alvarez</t>
+  </si>
+  <si>
+    <t>PLARIDEL,Quezon</t>
+  </si>
+  <si>
+    <t>maribeth b. torres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lgu-calumpit </t>
+  </si>
+  <si>
+    <t>engineer</t>
+  </si>
+  <si>
+    <t>goldamayigrobay@gmail.com</t>
+  </si>
+  <si>
+    <t>nutrition_south_cotabato@yahoo.com</t>
+  </si>
+  <si>
+    <t>Angela B. FRUGALIDAD</t>
+  </si>
+  <si>
+    <t>Provincial government of South Cotabato</t>
+  </si>
+  <si>
+    <t>09087546374</t>
+  </si>
+  <si>
+    <t>fadzmar1972@gmail.com</t>
+  </si>
+  <si>
+    <t>fadzmar I. Jamahali</t>
+  </si>
+  <si>
+    <t>Talipao</t>
+  </si>
+  <si>
+    <t>09261054525</t>
+  </si>
+  <si>
+    <t>0328219</t>
+  </si>
+  <si>
+    <t>lornapamor.lgumercedes@gmail.com</t>
+  </si>
+  <si>
+    <t>Lorna Pamor</t>
+  </si>
+  <si>
+    <t>LGU Mercedes , Cams. Norte</t>
+  </si>
+  <si>
+    <t>09075980495</t>
+  </si>
+  <si>
+    <t>gracefajutag@yahoo.com</t>
+  </si>
+  <si>
+    <t>Grace Fajutag</t>
+  </si>
+  <si>
+    <t>Corcuera</t>
+  </si>
+  <si>
+    <t>09166700260</t>
+  </si>
+  <si>
+    <t>BSAE</t>
+  </si>
+  <si>
+    <t>0007643</t>
+  </si>
+  <si>
+    <t>Winona M. Villanueva</t>
+  </si>
+  <si>
+    <t>City Government of Valenzuela</t>
+  </si>
+  <si>
+    <t>joylgualberto7@gmail.com</t>
+  </si>
+  <si>
+    <t>Jocelyn Gualberto</t>
+  </si>
+  <si>
+    <t>Pangil</t>
+  </si>
+  <si>
+    <t>Nurse II MNAO</t>
+  </si>
+  <si>
+    <t>09988597781</t>
+  </si>
+  <si>
+    <t>judylizacepe1@gmail.com</t>
+  </si>
+  <si>
+    <t>DR. FLORENCIO  O. JUPLO 2ND</t>
+  </si>
+  <si>
+    <t>CITY GOVERNMENT UNIT OF SIPALAY</t>
+  </si>
+  <si>
+    <t>HEALTH OFFICER</t>
+  </si>
+  <si>
+    <t>09063058221</t>
+  </si>
+  <si>
+    <t>pncbukidnon101@gmail.com</t>
+  </si>
+  <si>
+    <t>Rebecca Hibaya</t>
+  </si>
+  <si>
+    <t>09155163939</t>
+  </si>
+  <si>
+    <t>0006297</t>
+  </si>
+  <si>
+    <t>gabydoc_rx@yahoo.com</t>
+  </si>
+  <si>
+    <t>Gabino S. Velasquez IV</t>
+  </si>
+  <si>
+    <t>09173273253</t>
+  </si>
+  <si>
+    <t>0087485</t>
+  </si>
+  <si>
+    <t>DR. FLORENCIO O. JUPLO</t>
+  </si>
+  <si>
+    <t>Frezalynbongato89@gmail.com</t>
+  </si>
+  <si>
+    <t>Frezalyn R. Bongato</t>
+  </si>
+  <si>
+    <t>LGU-TRENTO</t>
+  </si>
+  <si>
+    <t>09237302333</t>
+  </si>
+  <si>
+    <t>0122898</t>
+  </si>
+  <si>
+    <t>Angela B. Frugalida</t>
+  </si>
+  <si>
+    <t>South Cotabato</t>
+  </si>
+  <si>
+    <t>Elensita Valentin Piit</t>
+  </si>
+  <si>
+    <t>OPOL MISAMIS ORIENTAL</t>
+  </si>
+  <si>
+    <t>bloomsbury_yves@yahoo.com.ph</t>
+  </si>
+  <si>
+    <t>Ivy Mae G. Solibio</t>
+  </si>
+  <si>
+    <t>LGU - Mati City</t>
+  </si>
+  <si>
+    <t>Alternate CNAO</t>
+  </si>
+  <si>
+    <t>09461167700</t>
+  </si>
+  <si>
+    <t>0612365</t>
+  </si>
+  <si>
+    <t>mendozaaileen45@gmail.com</t>
+  </si>
+  <si>
+    <t>Aileen M. Mendoza</t>
+  </si>
+  <si>
+    <t>Sto. Domingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipal Nutrition and Action Officer </t>
+  </si>
+  <si>
+    <t>BS AE</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Biliran, Biliran</t>
+  </si>
+  <si>
+    <t>FLORENCIO O. JUPLO 2ND</t>
+  </si>
+  <si>
+    <t>LOCAL GOVERNMENT UNIT CITY OF SIPALAY</t>
+  </si>
+  <si>
+    <t>CITY HEALTH OFFICER</t>
+  </si>
+  <si>
+    <t>0111887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biliran, Biliran </t>
+  </si>
+  <si>
+    <t>nutritionmalay@gmail.com</t>
+  </si>
+  <si>
+    <t>Mariel S. Cajilig</t>
+  </si>
+  <si>
+    <t>Malay</t>
+  </si>
+  <si>
+    <t>Nurse II, MNAO</t>
+  </si>
+  <si>
+    <t>09477795147</t>
+  </si>
+  <si>
+    <t>0241861</t>
+  </si>
+  <si>
+    <t>rhusikatuna@gmail.com</t>
+  </si>
+  <si>
+    <t>Paz A. Maniwang M,D</t>
+  </si>
+  <si>
+    <t>Sikatuna</t>
+  </si>
+  <si>
+    <t>09472840512</t>
+  </si>
+  <si>
+    <t>0099543</t>
+  </si>
+  <si>
+    <t>GRACE B.NAPONE</t>
+  </si>
+  <si>
+    <t>LGU JASAAN MIS.OR.</t>
+  </si>
+  <si>
+    <t>MNAO OIC</t>
+  </si>
+  <si>
+    <t>victoriasemillavillaflor@gmail.com</t>
+  </si>
+  <si>
+    <t>VICTORIA S. VILLAFLOR</t>
+  </si>
+  <si>
+    <t>SAN JOAQUIN</t>
+  </si>
+  <si>
+    <t>09291486650</t>
+  </si>
+  <si>
+    <t>0073057</t>
+  </si>
+  <si>
+    <t>wcalubing12@gmail.com</t>
+  </si>
+  <si>
+    <t>Wilbert Calubing</t>
+  </si>
+  <si>
+    <t>Tineg</t>
+  </si>
+  <si>
+    <t>09161114325</t>
+  </si>
+  <si>
+    <t>REBECCA SALVADOR RELENTE HIBAYA</t>
+  </si>
+  <si>
+    <t>jacky_calilung2000@yahoo.com</t>
+  </si>
+  <si>
+    <t>Gregoria a. Calilung</t>
+  </si>
+  <si>
+    <t>District nutrition program coordinator</t>
+  </si>
+  <si>
+    <t>09420237210</t>
+  </si>
+  <si>
+    <t>0004802</t>
+  </si>
+  <si>
+    <t>dolores.mangulabnan@yahoo.com.ph</t>
+  </si>
+  <si>
+    <t>DOLORES P. MANGULABNAN</t>
+  </si>
+  <si>
+    <t>DINALUPIHAN, BATAAN</t>
+  </si>
+  <si>
+    <t>09235792041</t>
+  </si>
+  <si>
+    <t>0109370</t>
+  </si>
+  <si>
+    <t>mirriamganda@yahoo.com</t>
+  </si>
+  <si>
+    <t>LINDA B. RAMOS</t>
+  </si>
+  <si>
+    <t>BNs</t>
+  </si>
+  <si>
+    <t>BNS/BHW</t>
+  </si>
+  <si>
+    <t>VIVIAN F. BINUEZA</t>
+  </si>
+  <si>
+    <t>LGU MAASIN, ILOILO</t>
+  </si>
+  <si>
+    <t>Social  Worker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nancy Adalin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGU KORONADAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAO </t>
+  </si>
+  <si>
+    <t>083869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nurse </t>
+  </si>
+  <si>
+    <t>heiseru@yahoo.com</t>
+  </si>
+  <si>
+    <t>Hazel Angelee dELA cRUZ</t>
+  </si>
+  <si>
+    <t>RHU CABIAO</t>
+  </si>
+  <si>
+    <t>CLERK AIDE</t>
+  </si>
+  <si>
+    <t>marikarnd@yahoo.com</t>
+  </si>
+  <si>
+    <t>MARIKA B. MADEJA</t>
+  </si>
+  <si>
+    <t>LGU ABORLAN</t>
+  </si>
+  <si>
+    <t>09064326642</t>
+  </si>
+  <si>
+    <t>0011305</t>
+  </si>
+  <si>
+    <t>tinbisquera@gmail.com</t>
+  </si>
+  <si>
+    <t>Kristina Anne A. Bisquera</t>
+  </si>
+  <si>
+    <t>Municipality of San Rafael Bulacan</t>
+  </si>
+  <si>
+    <t>09277074650</t>
+  </si>
+  <si>
+    <t>0011625</t>
+  </si>
+  <si>
+    <t>bainisolaiman25@gmail.com</t>
+  </si>
+  <si>
+    <t>Leah E. Mangudadatu</t>
+  </si>
+  <si>
+    <t>Lutayan</t>
+  </si>
+  <si>
+    <t>09175339140</t>
+  </si>
+  <si>
+    <t>0328167</t>
+  </si>
+  <si>
+    <t>vinsky@yahoo.com</t>
+  </si>
+  <si>
+    <t>Marichee Genovia</t>
+  </si>
+  <si>
+    <t>Municipal Nutrition Action Officer designate</t>
+  </si>
+  <si>
+    <t>09382345465</t>
+  </si>
+  <si>
+    <t>Under board</t>
+  </si>
+  <si>
+    <t>Baini G. Solaiman</t>
+  </si>
+  <si>
+    <t>09161046816</t>
+  </si>
+  <si>
+    <t>018732</t>
+  </si>
+  <si>
+    <t>vhonnecaleb72815@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shella May Anne V. Laforteza </t>
+  </si>
+  <si>
+    <t>General Mamerto Natividad - MHO</t>
+  </si>
+  <si>
+    <t>09190041023</t>
+  </si>
+  <si>
+    <t>0534087</t>
+  </si>
+  <si>
+    <t>mho_cordon@yahoo.com</t>
+  </si>
+  <si>
+    <t>MICHELLE M. CORPUZ</t>
+  </si>
+  <si>
+    <t>CORDON</t>
+  </si>
+  <si>
+    <t>09152394405</t>
+  </si>
+  <si>
+    <t>LUCENA N. BANGUI</t>
+  </si>
+  <si>
+    <t>PUBLIC HEALTH NURSE</t>
+  </si>
+  <si>
+    <t>09054326158</t>
+  </si>
+  <si>
+    <t>bethmh10@yahoo.com</t>
+  </si>
+  <si>
+    <t>Elizabeth Hernandez</t>
+  </si>
+  <si>
+    <t>NO III</t>
+  </si>
+  <si>
+    <t>CNAO/CNAO</t>
+  </si>
+  <si>
+    <t>rhedzgie123@gmail.com</t>
+  </si>
+  <si>
+    <t>Redgie Abapo</t>
+  </si>
+  <si>
+    <t>Dumanjug RHU</t>
+  </si>
+  <si>
+    <t>09778549866</t>
+  </si>
+  <si>
+    <t>0683428</t>
+  </si>
+  <si>
+    <t>Elizabeth Serrano</t>
+  </si>
+  <si>
+    <t>LGU-Sta. Josefa</t>
+  </si>
+  <si>
+    <t>0005426</t>
+  </si>
+  <si>
+    <t>LGU-STA. JOSEFA</t>
+  </si>
+  <si>
+    <t>Josefina F Malana</t>
+  </si>
+  <si>
+    <t>0070502</t>
+  </si>
+  <si>
+    <t>rakisarmiento@yahoo.com</t>
+  </si>
+  <si>
+    <t>Raquel Samonte Sarmiento</t>
+  </si>
+  <si>
+    <t>Gabaldon,Nueva Ecija</t>
+  </si>
+  <si>
+    <t>09215355510</t>
+  </si>
+  <si>
+    <t>0258486</t>
+  </si>
+  <si>
+    <t>tarynpob@gmail.com</t>
+  </si>
+  <si>
+    <t>Murcia</t>
   </si>
 </sst>
 </file>
@@ -11744,7 +12893,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -11759,7 +12908,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="6">
     <fill>
@@ -11799,7 +12947,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -11849,24 +12997,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -38448,7 +39578,7 @@
       </c>
     </row>
     <row r="808">
-      <c r="A808" s="19">
+      <c r="A808" s="11">
         <v>44104.650613854166</v>
       </c>
       <c r="B808" s="2" t="s">
@@ -38466,7 +39596,7 @@
       <c r="F808" s="2" t="s">
         <v>3526</v>
       </c>
-      <c r="G808" s="20" t="s">
+      <c r="G808" s="4" t="s">
         <v>3527</v>
       </c>
       <c r="H808" s="2" t="s">
@@ -38474,7 +39604,7 @@
       </c>
     </row>
     <row r="809">
-      <c r="A809" s="19">
+      <c r="A809" s="11">
         <v>44104.65363216435</v>
       </c>
       <c r="B809" s="2" t="s">
@@ -38506,7 +39636,7 @@
       </c>
     </row>
     <row r="810">
-      <c r="A810" s="19">
+      <c r="A810" s="11">
         <v>44104.65510849537</v>
       </c>
       <c r="B810" s="2" t="s">
@@ -38532,7 +39662,7 @@
       </c>
     </row>
     <row r="811">
-      <c r="A811" s="19">
+      <c r="A811" s="11">
         <v>44104.65514159722</v>
       </c>
       <c r="B811" s="2" t="s">
@@ -38564,7 +39694,7 @@
       </c>
     </row>
     <row r="812">
-      <c r="A812" s="19">
+      <c r="A812" s="11">
         <v>44104.65528355324</v>
       </c>
       <c r="B812" s="2" t="s">
@@ -38590,7 +39720,7 @@
       </c>
     </row>
     <row r="813">
-      <c r="A813" s="19">
+      <c r="A813" s="11">
         <v>44104.66058422453</v>
       </c>
       <c r="B813" s="2" t="s">
@@ -38619,7 +39749,7 @@
       </c>
     </row>
     <row r="814">
-      <c r="A814" s="19">
+      <c r="A814" s="11">
         <v>44104.66257785879</v>
       </c>
       <c r="B814" s="2" t="s">
@@ -38651,7 +39781,7 @@
       </c>
     </row>
     <row r="815">
-      <c r="A815" s="19">
+      <c r="A815" s="11">
         <v>44104.67087625</v>
       </c>
       <c r="B815" s="2" t="s">
@@ -38683,7 +39813,7 @@
       </c>
     </row>
     <row r="816">
-      <c r="A816" s="19">
+      <c r="A816" s="11">
         <v>44104.67230880787</v>
       </c>
       <c r="B816" s="2" t="s">
@@ -38698,7 +39828,7 @@
       <c r="E816" s="2" t="s">
         <v>3561</v>
       </c>
-      <c r="F816" s="21" t="s">
+      <c r="F816" s="2" t="s">
         <v>185</v>
       </c>
       <c r="G816" s="4" t="s">
@@ -38715,7 +39845,7 @@
       </c>
     </row>
     <row r="817">
-      <c r="A817" s="19">
+      <c r="A817" s="11">
         <v>44104.67404385417</v>
       </c>
       <c r="B817" s="2" t="s">
@@ -38730,7 +39860,7 @@
       <c r="E817" s="2" t="s">
         <v>3566</v>
       </c>
-      <c r="F817" s="21" t="s">
+      <c r="F817" s="2" t="s">
         <v>2207</v>
       </c>
       <c r="G817" s="4" t="s">
@@ -38747,13 +39877,13 @@
       </c>
     </row>
     <row r="818">
-      <c r="A818" s="19">
+      <c r="A818" s="11">
         <v>44104.67989784722</v>
       </c>
       <c r="B818" s="2" t="s">
         <v>3569</v>
       </c>
-      <c r="C818" s="21" t="s">
+      <c r="C818" s="2" t="s">
         <v>3570</v>
       </c>
       <c r="D818" s="2" t="s">
@@ -38779,7 +39909,7 @@
       </c>
     </row>
     <row r="819">
-      <c r="A819" s="19">
+      <c r="A819" s="11">
         <v>44104.68197060185</v>
       </c>
       <c r="B819" s="2" t="s">
@@ -38797,7 +39927,7 @@
       <c r="F819" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G819" s="20" t="s">
+      <c r="G819" s="4" t="s">
         <v>3578</v>
       </c>
       <c r="H819" s="2" t="s">
@@ -38805,7 +39935,7 @@
       </c>
     </row>
     <row r="820">
-      <c r="A820" s="19">
+      <c r="A820" s="11">
         <v>44104.686710462964</v>
       </c>
       <c r="B820" s="2" t="s">
@@ -38823,7 +39953,7 @@
       <c r="F820" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G820" s="20" t="s">
+      <c r="G820" s="4" t="s">
         <v>3582</v>
       </c>
       <c r="H820" s="2" t="s">
@@ -38834,7 +39964,7 @@
       </c>
     </row>
     <row r="821">
-      <c r="A821" s="19">
+      <c r="A821" s="11">
         <v>44104.69053857639</v>
       </c>
       <c r="B821" s="2" t="s">
@@ -38866,7 +39996,7 @@
       </c>
     </row>
     <row r="822">
-      <c r="A822" s="19">
+      <c r="A822" s="11">
         <v>44104.69149840278</v>
       </c>
       <c r="B822" s="2" t="s">
@@ -38898,7 +40028,7 @@
       </c>
     </row>
     <row r="823">
-      <c r="A823" s="19">
+      <c r="A823" s="11">
         <v>44104.69287373843</v>
       </c>
       <c r="B823" s="2" t="s">
@@ -38924,7 +40054,7 @@
       </c>
     </row>
     <row r="824">
-      <c r="A824" s="19">
+      <c r="A824" s="11">
         <v>44104.69389671297</v>
       </c>
       <c r="B824" s="2" t="s">
@@ -38956,7 +40086,7 @@
       </c>
     </row>
     <row r="825">
-      <c r="A825" s="19">
+      <c r="A825" s="11">
         <v>44104.700794143515</v>
       </c>
       <c r="B825" s="2" t="s">
@@ -38988,7 +40118,7 @@
       </c>
     </row>
     <row r="826">
-      <c r="A826" s="19">
+      <c r="A826" s="11">
         <v>44104.70400585648</v>
       </c>
       <c r="B826" s="2" t="s">
@@ -39020,7 +40150,7 @@
       </c>
     </row>
     <row r="827">
-      <c r="A827" s="19">
+      <c r="A827" s="11">
         <v>44104.725599513884</v>
       </c>
       <c r="B827" s="2" t="s">
@@ -39052,7 +40182,7 @@
       </c>
     </row>
     <row r="828">
-      <c r="A828" s="19">
+      <c r="A828" s="11">
         <v>44104.757085289355</v>
       </c>
       <c r="B828" s="2" t="s">
@@ -39084,7 +40214,7 @@
       </c>
     </row>
     <row r="829">
-      <c r="A829" s="19">
+      <c r="A829" s="11">
         <v>44104.760657129635</v>
       </c>
       <c r="B829" s="2" t="s">
@@ -39116,7 +40246,7 @@
       </c>
     </row>
     <row r="830">
-      <c r="A830" s="19">
+      <c r="A830" s="11">
         <v>44104.76837179398</v>
       </c>
       <c r="B830" s="2" t="s">
@@ -39142,7 +40272,7 @@
       </c>
     </row>
     <row r="831">
-      <c r="A831" s="19">
+      <c r="A831" s="11">
         <v>44104.77709018518</v>
       </c>
       <c r="B831" s="2" t="s">
@@ -39174,7 +40304,7 @@
       </c>
     </row>
     <row r="832">
-      <c r="A832" s="19">
+      <c r="A832" s="11">
         <v>44104.784604988425</v>
       </c>
       <c r="B832" s="2" t="s">
@@ -39206,7 +40336,7 @@
       </c>
     </row>
     <row r="833">
-      <c r="A833" s="19">
+      <c r="A833" s="11">
         <v>44104.83139262731</v>
       </c>
       <c r="B833" s="2" t="s">
@@ -39238,7 +40368,7 @@
       </c>
     </row>
     <row r="834">
-      <c r="A834" s="19">
+      <c r="A834" s="11">
         <v>44104.84165552084</v>
       </c>
       <c r="B834" s="2" t="s">
@@ -39270,13 +40400,13 @@
       </c>
     </row>
     <row r="835">
-      <c r="A835" s="19">
+      <c r="A835" s="11">
         <v>44104.84200278935</v>
       </c>
       <c r="B835" s="2" t="s">
         <v>3646</v>
       </c>
-      <c r="C835" s="21" t="s">
+      <c r="C835" s="2" t="s">
         <v>3647</v>
       </c>
       <c r="D835" s="2" t="s">
@@ -39302,7 +40432,7 @@
       </c>
     </row>
     <row r="836">
-      <c r="A836" s="19">
+      <c r="A836" s="11">
         <v>44104.848506759256</v>
       </c>
       <c r="B836" s="2" t="s">
@@ -39328,7 +40458,7 @@
       </c>
     </row>
     <row r="837">
-      <c r="A837" s="19">
+      <c r="A837" s="11">
         <v>44104.8557549074</v>
       </c>
       <c r="B837" s="2" t="s">
@@ -39360,7 +40490,7 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" s="19">
+      <c r="A838" s="11">
         <v>44104.86472344908</v>
       </c>
       <c r="B838" s="2" t="s">
@@ -39375,7 +40505,7 @@
       <c r="E838" s="2" t="s">
         <v>3664</v>
       </c>
-      <c r="F838" s="21" t="s">
+      <c r="F838" s="2" t="s">
         <v>3665</v>
       </c>
       <c r="G838" s="4" t="s">
@@ -39392,7 +40522,7 @@
       </c>
     </row>
     <row r="839">
-      <c r="A839" s="19">
+      <c r="A839" s="11">
         <v>44104.881664189816</v>
       </c>
       <c r="B839" s="2" t="s">
@@ -39418,7 +40548,7 @@
       </c>
     </row>
     <row r="840">
-      <c r="A840" s="19">
+      <c r="A840" s="11">
         <v>44104.954228692135</v>
       </c>
       <c r="B840" s="2" t="s">
@@ -39450,7 +40580,7 @@
       </c>
     </row>
     <row r="841">
-      <c r="A841" s="19">
+      <c r="A841" s="11">
         <v>44104.973340729164</v>
       </c>
       <c r="B841" s="2" t="s">
@@ -39482,7 +40612,7 @@
       </c>
     </row>
     <row r="842">
-      <c r="A842" s="19">
+      <c r="A842" s="11">
         <v>44104.99594665509</v>
       </c>
       <c r="B842" s="2" t="s">
@@ -39514,34 +40644,34 @@
       </c>
     </row>
     <row r="843">
-      <c r="A843" s="19">
+      <c r="A843" s="11">
         <v>44105.08845769676</v>
       </c>
-      <c r="B843" s="22" t="s">
+      <c r="B843" s="12" t="s">
         <v>3680</v>
       </c>
-      <c r="C843" s="22" t="s">
+      <c r="C843" s="12" t="s">
         <v>3681</v>
       </c>
-      <c r="D843" s="22" t="s">
+      <c r="D843" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="E843" s="22" t="s">
+      <c r="E843" s="12" t="s">
         <v>3682</v>
       </c>
-      <c r="F843" s="22" t="s">
+      <c r="F843" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G843" s="23" t="s">
+      <c r="G843" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="H843" s="22" t="s">
+      <c r="H843" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="I843" s="23" t="s">
+      <c r="I843" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="J843" s="24">
+      <c r="J843" s="14">
         <v>44644.0</v>
       </c>
       <c r="K843" s="15"/>
@@ -39552,34 +40682,34 @@
       <c r="P843" s="15"/>
     </row>
     <row r="844">
-      <c r="A844" s="19">
+      <c r="A844" s="11">
         <v>44105.24700478009</v>
       </c>
-      <c r="B844" s="22" t="s">
+      <c r="B844" s="12" t="s">
         <v>3685</v>
       </c>
-      <c r="C844" s="22" t="s">
+      <c r="C844" s="12" t="s">
         <v>3686</v>
       </c>
-      <c r="D844" s="22" t="s">
+      <c r="D844" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="E844" s="22" t="s">
+      <c r="E844" s="12" t="s">
         <v>3687</v>
       </c>
-      <c r="F844" s="22" t="s">
+      <c r="F844" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G844" s="23" t="s">
+      <c r="G844" s="13" t="s">
         <v>3688</v>
       </c>
-      <c r="H844" s="22" t="s">
+      <c r="H844" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I844" s="23" t="s">
+      <c r="I844" s="13" t="s">
         <v>3689</v>
       </c>
-      <c r="J844" s="24">
+      <c r="J844" s="14">
         <v>44849.0</v>
       </c>
       <c r="K844" s="15"/>
@@ -39590,31 +40720,31 @@
       <c r="P844" s="15"/>
     </row>
     <row r="845">
-      <c r="A845" s="19">
+      <c r="A845" s="11">
         <v>44105.26203423611</v>
       </c>
-      <c r="B845" s="22" t="s">
+      <c r="B845" s="12" t="s">
         <v>3690</v>
       </c>
-      <c r="C845" s="22" t="s">
+      <c r="C845" s="12" t="s">
         <v>3691</v>
       </c>
-      <c r="D845" s="22" t="s">
+      <c r="D845" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="E845" s="22" t="s">
+      <c r="E845" s="12" t="s">
         <v>3692</v>
       </c>
-      <c r="F845" s="22" t="s">
+      <c r="F845" s="12" t="s">
         <v>3693</v>
       </c>
-      <c r="G845" s="23" t="s">
+      <c r="G845" s="13" t="s">
         <v>3694</v>
       </c>
-      <c r="H845" s="22" t="s">
+      <c r="H845" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="I845" s="22">
+      <c r="I845" s="12">
         <v>0.0</v>
       </c>
       <c r="J845" s="15"/>
@@ -39626,34 +40756,34 @@
       <c r="P845" s="15"/>
     </row>
     <row r="846">
-      <c r="A846" s="19">
+      <c r="A846" s="11">
         <v>44105.34551530093</v>
       </c>
-      <c r="B846" s="22" t="s">
+      <c r="B846" s="12" t="s">
         <v>3695</v>
       </c>
-      <c r="C846" s="22" t="s">
+      <c r="C846" s="12" t="s">
         <v>3696</v>
       </c>
-      <c r="D846" s="22" t="s">
+      <c r="D846" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="E846" s="22" t="s">
+      <c r="E846" s="12" t="s">
         <v>3697</v>
       </c>
-      <c r="F846" s="22" t="s">
+      <c r="F846" s="12" t="s">
         <v>1228</v>
       </c>
-      <c r="G846" s="23" t="s">
+      <c r="G846" s="13" t="s">
         <v>3698</v>
       </c>
-      <c r="H846" s="22" t="s">
+      <c r="H846" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="I846" s="23" t="s">
+      <c r="I846" s="13" t="s">
         <v>3699</v>
       </c>
-      <c r="J846" s="24">
+      <c r="J846" s="14">
         <v>44465.0</v>
       </c>
       <c r="K846" s="15"/>
@@ -39664,34 +40794,34 @@
       <c r="P846" s="15"/>
     </row>
     <row r="847">
-      <c r="A847" s="19">
+      <c r="A847" s="11">
         <v>44105.34609409722</v>
       </c>
-      <c r="B847" s="22" t="s">
+      <c r="B847" s="12" t="s">
         <v>3700</v>
       </c>
-      <c r="C847" s="22" t="s">
+      <c r="C847" s="12" t="s">
         <v>3701</v>
       </c>
-      <c r="D847" s="22" t="s">
+      <c r="D847" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="E847" s="22" t="s">
+      <c r="E847" s="12" t="s">
         <v>3702</v>
       </c>
-      <c r="F847" s="22" t="s">
+      <c r="F847" s="12" t="s">
         <v>3703</v>
       </c>
-      <c r="G847" s="23" t="s">
+      <c r="G847" s="13" t="s">
         <v>3704</v>
       </c>
-      <c r="H847" s="22" t="s">
+      <c r="H847" s="12" t="s">
         <v>755</v>
       </c>
-      <c r="I847" s="23" t="s">
+      <c r="I847" s="13" t="s">
         <v>3705</v>
       </c>
-      <c r="J847" s="24">
+      <c r="J847" s="14">
         <v>44277.0</v>
       </c>
       <c r="K847" s="15"/>
@@ -39702,34 +40832,34 @@
       <c r="P847" s="15"/>
     </row>
     <row r="848">
-      <c r="A848" s="19">
+      <c r="A848" s="11">
         <v>44105.34907960648</v>
       </c>
-      <c r="B848" s="22" t="s">
+      <c r="B848" s="12" t="s">
         <v>3706</v>
       </c>
-      <c r="C848" s="22" t="s">
+      <c r="C848" s="12" t="s">
         <v>3707</v>
       </c>
-      <c r="D848" s="22" t="s">
+      <c r="D848" s="12" t="s">
         <v>1175</v>
       </c>
-      <c r="E848" s="22" t="s">
+      <c r="E848" s="12" t="s">
         <v>3708</v>
       </c>
-      <c r="F848" s="22" t="s">
+      <c r="F848" s="12" t="s">
         <v>892</v>
       </c>
-      <c r="G848" s="23" t="s">
+      <c r="G848" s="13" t="s">
         <v>3709</v>
       </c>
-      <c r="H848" s="22" t="s">
+      <c r="H848" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="I848" s="23" t="s">
+      <c r="I848" s="13" t="s">
         <v>3710</v>
       </c>
-      <c r="J848" s="24">
+      <c r="J848" s="14">
         <v>44533.0</v>
       </c>
       <c r="K848" s="15"/>
@@ -39740,34 +40870,34 @@
       <c r="P848" s="15"/>
     </row>
     <row r="849">
-      <c r="A849" s="19">
+      <c r="A849" s="11">
         <v>44105.35050591435</v>
       </c>
-      <c r="B849" s="22" t="s">
+      <c r="B849" s="12" t="s">
         <v>3711</v>
       </c>
-      <c r="C849" s="22" t="s">
+      <c r="C849" s="12" t="s">
         <v>3712</v>
       </c>
-      <c r="D849" s="22" t="s">
+      <c r="D849" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="E849" s="22" t="s">
+      <c r="E849" s="12" t="s">
         <v>3713</v>
       </c>
-      <c r="F849" s="22" t="s">
+      <c r="F849" s="12" t="s">
         <v>920</v>
       </c>
-      <c r="G849" s="23" t="s">
+      <c r="G849" s="13" t="s">
         <v>3714</v>
       </c>
-      <c r="H849" s="22" t="s">
+      <c r="H849" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="I849" s="23" t="s">
+      <c r="I849" s="13" t="s">
         <v>3715</v>
       </c>
-      <c r="J849" s="24">
+      <c r="J849" s="14">
         <v>44649.0</v>
       </c>
       <c r="K849" s="15"/>
@@ -39778,34 +40908,34 @@
       <c r="P849" s="15"/>
     </row>
     <row r="850">
-      <c r="A850" s="19">
+      <c r="A850" s="11">
         <v>44105.35835929398</v>
       </c>
-      <c r="B850" s="22" t="s">
+      <c r="B850" s="12" t="s">
         <v>3716</v>
       </c>
-      <c r="C850" s="22" t="s">
+      <c r="C850" s="12" t="s">
         <v>3717</v>
       </c>
-      <c r="D850" s="22" t="s">
+      <c r="D850" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="E850" s="22" t="s">
+      <c r="E850" s="12" t="s">
         <v>3718</v>
       </c>
-      <c r="F850" s="22" t="s">
+      <c r="F850" s="12" t="s">
         <v>3719</v>
       </c>
-      <c r="G850" s="23" t="s">
+      <c r="G850" s="13" t="s">
         <v>3720</v>
       </c>
-      <c r="H850" s="22" t="s">
+      <c r="H850" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="I850" s="23" t="s">
+      <c r="I850" s="13" t="s">
         <v>3721</v>
       </c>
-      <c r="J850" s="24">
+      <c r="J850" s="14">
         <v>44432.0</v>
       </c>
       <c r="K850" s="15"/>
@@ -39816,34 +40946,34 @@
       <c r="P850" s="15"/>
     </row>
     <row r="851">
-      <c r="A851" s="19">
+      <c r="A851" s="11">
         <v>44105.37183914352</v>
       </c>
-      <c r="B851" s="22" t="s">
+      <c r="B851" s="12" t="s">
         <v>3722</v>
       </c>
-      <c r="C851" s="22" t="s">
+      <c r="C851" s="12" t="s">
         <v>3723</v>
       </c>
-      <c r="D851" s="22" t="s">
+      <c r="D851" s="12" t="s">
         <v>3467</v>
       </c>
-      <c r="E851" s="22" t="s">
+      <c r="E851" s="12" t="s">
         <v>3724</v>
       </c>
-      <c r="F851" s="22" t="s">
+      <c r="F851" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G851" s="23" t="s">
+      <c r="G851" s="13" t="s">
         <v>3725</v>
       </c>
-      <c r="H851" s="22" t="s">
+      <c r="H851" s="12" t="s">
         <v>3726</v>
       </c>
-      <c r="I851" s="22">
+      <c r="I851" s="12">
         <v>9226.0</v>
       </c>
-      <c r="J851" s="24">
+      <c r="J851" s="14">
         <v>45017.0</v>
       </c>
       <c r="K851" s="15"/>
@@ -39854,34 +40984,34 @@
       <c r="P851" s="15"/>
     </row>
     <row r="852">
-      <c r="A852" s="19">
+      <c r="A852" s="11">
         <v>44105.38286510417</v>
       </c>
-      <c r="B852" s="22" t="s">
+      <c r="B852" s="12" t="s">
         <v>3727</v>
       </c>
-      <c r="C852" s="22" t="s">
+      <c r="C852" s="12" t="s">
         <v>3728</v>
       </c>
-      <c r="D852" s="22" t="s">
+      <c r="D852" s="12" t="s">
         <v>874</v>
       </c>
-      <c r="E852" s="22" t="s">
+      <c r="E852" s="12" t="s">
         <v>3729</v>
       </c>
-      <c r="F852" s="22" t="s">
+      <c r="F852" s="12" t="s">
         <v>3730</v>
       </c>
-      <c r="G852" s="23" t="s">
+      <c r="G852" s="13" t="s">
         <v>3731</v>
       </c>
-      <c r="H852" s="22" t="s">
+      <c r="H852" s="12" t="s">
         <v>3730</v>
       </c>
-      <c r="I852" s="23" t="s">
+      <c r="I852" s="13" t="s">
         <v>3732</v>
       </c>
-      <c r="J852" s="24">
+      <c r="J852" s="14">
         <v>44355.0</v>
       </c>
       <c r="K852" s="15"/>
@@ -39892,31 +41022,31 @@
       <c r="P852" s="15"/>
     </row>
     <row r="853">
-      <c r="A853" s="19">
+      <c r="A853" s="11">
         <v>44105.387860462964</v>
       </c>
-      <c r="B853" s="22" t="s">
+      <c r="B853" s="12" t="s">
         <v>3733</v>
       </c>
-      <c r="C853" s="22" t="s">
+      <c r="C853" s="12" t="s">
         <v>3734</v>
       </c>
-      <c r="D853" s="22" t="s">
+      <c r="D853" s="12" t="s">
         <v>1175</v>
       </c>
-      <c r="E853" s="22" t="s">
+      <c r="E853" s="12" t="s">
         <v>3735</v>
       </c>
-      <c r="F853" s="22" t="s">
+      <c r="F853" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G853" s="23" t="s">
+      <c r="G853" s="13" t="s">
         <v>2022</v>
       </c>
-      <c r="H853" s="22" t="s">
+      <c r="H853" s="12" t="s">
         <v>3736</v>
       </c>
-      <c r="I853" s="23" t="s">
+      <c r="I853" s="13" t="s">
         <v>57</v>
       </c>
       <c r="J853" s="15"/>
@@ -39928,28 +41058,28 @@
       <c r="P853" s="15"/>
     </row>
     <row r="854">
-      <c r="A854" s="19">
+      <c r="A854" s="11">
         <v>44105.38991575231</v>
       </c>
-      <c r="B854" s="22" t="s">
+      <c r="B854" s="12" t="s">
         <v>3737</v>
       </c>
-      <c r="C854" s="22" t="s">
+      <c r="C854" s="12" t="s">
         <v>3738</v>
       </c>
-      <c r="D854" s="22" t="s">
+      <c r="D854" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="E854" s="22" t="s">
+      <c r="E854" s="12" t="s">
         <v>3739</v>
       </c>
-      <c r="F854" s="22" t="s">
+      <c r="F854" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="G854" s="23" t="s">
+      <c r="G854" s="13" t="s">
         <v>3740</v>
       </c>
-      <c r="H854" s="22" t="s">
+      <c r="H854" s="12" t="s">
         <v>90</v>
       </c>
       <c r="I854" s="15"/>
@@ -39962,28 +41092,28 @@
       <c r="P854" s="15"/>
     </row>
     <row r="855">
-      <c r="A855" s="19">
+      <c r="A855" s="11">
         <v>44105.396493113425</v>
       </c>
-      <c r="B855" s="22" t="s">
+      <c r="B855" s="12" t="s">
         <v>3741</v>
       </c>
-      <c r="C855" s="22" t="s">
+      <c r="C855" s="12" t="s">
         <v>3742</v>
       </c>
-      <c r="D855" s="22" t="s">
+      <c r="D855" s="12" t="s">
         <v>3467</v>
       </c>
-      <c r="E855" s="22" t="s">
+      <c r="E855" s="12" t="s">
         <v>3743</v>
       </c>
-      <c r="F855" s="22" t="s">
+      <c r="F855" s="12" t="s">
         <v>3545</v>
       </c>
-      <c r="G855" s="23" t="s">
+      <c r="G855" s="13" t="s">
         <v>3744</v>
       </c>
-      <c r="H855" s="22" t="s">
+      <c r="H855" s="12" t="s">
         <v>134</v>
       </c>
       <c r="I855" s="15"/>
@@ -39996,34 +41126,34 @@
       <c r="P855" s="15"/>
     </row>
     <row r="856">
-      <c r="A856" s="19">
+      <c r="A856" s="11">
         <v>44105.40281140046</v>
       </c>
-      <c r="B856" s="22" t="s">
+      <c r="B856" s="12" t="s">
         <v>3745</v>
       </c>
-      <c r="C856" s="22" t="s">
+      <c r="C856" s="12" t="s">
         <v>3746</v>
       </c>
-      <c r="D856" s="22" t="s">
+      <c r="D856" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="E856" s="22" t="s">
+      <c r="E856" s="12" t="s">
         <v>3747</v>
       </c>
-      <c r="F856" s="22" t="s">
+      <c r="F856" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="G856" s="23" t="s">
+      <c r="G856" s="13" t="s">
         <v>3748</v>
       </c>
-      <c r="H856" s="22" t="s">
+      <c r="H856" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I856" s="23" t="s">
+      <c r="I856" s="13" t="s">
         <v>3749</v>
       </c>
-      <c r="J856" s="24">
+      <c r="J856" s="14">
         <v>44894.0</v>
       </c>
       <c r="K856" s="15"/>
@@ -40034,34 +41164,34 @@
       <c r="P856" s="15"/>
     </row>
     <row r="857">
-      <c r="A857" s="19">
+      <c r="A857" s="11">
         <v>44105.404195625</v>
       </c>
-      <c r="B857" s="22" t="s">
+      <c r="B857" s="12" t="s">
         <v>3750</v>
       </c>
-      <c r="C857" s="22" t="s">
+      <c r="C857" s="12" t="s">
         <v>3751</v>
       </c>
-      <c r="D857" s="22" t="s">
+      <c r="D857" s="12" t="s">
         <v>3467</v>
       </c>
-      <c r="E857" s="22" t="s">
+      <c r="E857" s="12" t="s">
         <v>3752</v>
       </c>
-      <c r="F857" s="22" t="s">
+      <c r="F857" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G857" s="23" t="s">
+      <c r="G857" s="13" t="s">
         <v>3753</v>
       </c>
-      <c r="H857" s="22" t="s">
+      <c r="H857" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="I857" s="23" t="s">
+      <c r="I857" s="13" t="s">
         <v>3754</v>
       </c>
-      <c r="J857" s="24">
+      <c r="J857" s="14">
         <v>45114.0</v>
       </c>
       <c r="K857" s="15"/>
@@ -40072,34 +41202,34 @@
       <c r="P857" s="15"/>
     </row>
     <row r="858">
-      <c r="A858" s="19">
+      <c r="A858" s="11">
         <v>44105.41094166666</v>
       </c>
-      <c r="B858" s="22" t="s">
+      <c r="B858" s="12" t="s">
         <v>3755</v>
       </c>
-      <c r="C858" s="22" t="s">
+      <c r="C858" s="12" t="s">
         <v>3756</v>
       </c>
-      <c r="D858" s="22" t="s">
+      <c r="D858" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="E858" s="22" t="s">
+      <c r="E858" s="12" t="s">
         <v>3757</v>
       </c>
-      <c r="F858" s="22" t="s">
+      <c r="F858" s="12" t="s">
         <v>3758</v>
       </c>
-      <c r="G858" s="23" t="s">
+      <c r="G858" s="13" t="s">
         <v>3759</v>
       </c>
-      <c r="H858" s="22" t="s">
+      <c r="H858" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="I858" s="23" t="s">
+      <c r="I858" s="13" t="s">
         <v>3760</v>
       </c>
-      <c r="J858" s="24">
+      <c r="J858" s="14">
         <v>44160.0</v>
       </c>
       <c r="K858" s="15"/>
@@ -40110,34 +41240,34 @@
       <c r="P858" s="15"/>
     </row>
     <row r="859">
-      <c r="A859" s="19">
+      <c r="A859" s="11">
         <v>44105.414088171296</v>
       </c>
-      <c r="B859" s="22" t="s">
+      <c r="B859" s="12" t="s">
         <v>3761</v>
       </c>
-      <c r="C859" s="22" t="s">
+      <c r="C859" s="12" t="s">
         <v>3762</v>
       </c>
-      <c r="D859" s="22" t="s">
+      <c r="D859" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="E859" s="22" t="s">
+      <c r="E859" s="12" t="s">
         <v>3763</v>
       </c>
-      <c r="F859" s="22" t="s">
+      <c r="F859" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="G859" s="23" t="s">
+      <c r="G859" s="13" t="s">
         <v>3764</v>
       </c>
-      <c r="H859" s="22" t="s">
+      <c r="H859" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I859" s="23" t="s">
+      <c r="I859" s="13" t="s">
         <v>3765</v>
       </c>
-      <c r="J859" s="24">
+      <c r="J859" s="14">
         <v>43984.0</v>
       </c>
       <c r="K859" s="15"/>
@@ -40148,28 +41278,28 @@
       <c r="P859" s="15"/>
     </row>
     <row r="860">
-      <c r="A860" s="19">
+      <c r="A860" s="11">
         <v>44105.42037383102</v>
       </c>
-      <c r="B860" s="22" t="s">
+      <c r="B860" s="12" t="s">
         <v>3766</v>
       </c>
-      <c r="C860" s="22" t="s">
+      <c r="C860" s="12" t="s">
         <v>3767</v>
       </c>
-      <c r="D860" s="22" t="s">
+      <c r="D860" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="E860" s="22" t="s">
+      <c r="E860" s="12" t="s">
         <v>3768</v>
       </c>
-      <c r="F860" s="22" t="s">
+      <c r="F860" s="12" t="s">
         <v>3769</v>
       </c>
-      <c r="G860" s="23" t="s">
+      <c r="G860" s="13" t="s">
         <v>3770</v>
       </c>
-      <c r="H860" s="22" t="s">
+      <c r="H860" s="12" t="s">
         <v>3771</v>
       </c>
       <c r="I860" s="15"/>
@@ -40182,34 +41312,34 @@
       <c r="P860" s="15"/>
     </row>
     <row r="861">
-      <c r="A861" s="19">
+      <c r="A861" s="11">
         <v>44105.42168292824</v>
       </c>
-      <c r="B861" s="22" t="s">
+      <c r="B861" s="12" t="s">
         <v>3772</v>
       </c>
-      <c r="C861" s="22" t="s">
+      <c r="C861" s="12" t="s">
         <v>3773</v>
       </c>
-      <c r="D861" s="22" t="s">
+      <c r="D861" s="12" t="s">
         <v>3467</v>
       </c>
-      <c r="E861" s="22" t="s">
+      <c r="E861" s="12" t="s">
         <v>3774</v>
       </c>
-      <c r="F861" s="22" t="s">
+      <c r="F861" s="12" t="s">
         <v>764</v>
       </c>
-      <c r="G861" s="23" t="s">
+      <c r="G861" s="13" t="s">
         <v>3775</v>
       </c>
-      <c r="H861" s="22" t="s">
+      <c r="H861" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I861" s="23" t="s">
+      <c r="I861" s="13" t="s">
         <v>3776</v>
       </c>
-      <c r="J861" s="24">
+      <c r="J861" s="14">
         <v>44631.0</v>
       </c>
       <c r="K861" s="15"/>
@@ -40220,34 +41350,34 @@
       <c r="P861" s="15"/>
     </row>
     <row r="862">
-      <c r="A862" s="19">
+      <c r="A862" s="11">
         <v>44105.42557111111</v>
       </c>
-      <c r="B862" s="22" t="s">
+      <c r="B862" s="12" t="s">
         <v>3777</v>
       </c>
-      <c r="C862" s="22" t="s">
+      <c r="C862" s="12" t="s">
         <v>3778</v>
       </c>
-      <c r="D862" s="22" t="s">
+      <c r="D862" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="E862" s="22" t="s">
+      <c r="E862" s="12" t="s">
         <v>3779</v>
       </c>
-      <c r="F862" s="22" t="s">
+      <c r="F862" s="12" t="s">
         <v>3780</v>
       </c>
-      <c r="G862" s="23" t="s">
+      <c r="G862" s="13" t="s">
         <v>3781</v>
       </c>
-      <c r="H862" s="22" t="s">
+      <c r="H862" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I862" s="23" t="s">
+      <c r="I862" s="13" t="s">
         <v>3782</v>
       </c>
-      <c r="J862" s="24">
+      <c r="J862" s="14">
         <v>44898.0</v>
       </c>
       <c r="K862" s="15"/>
@@ -40258,28 +41388,28 @@
       <c r="P862" s="15"/>
     </row>
     <row r="863">
-      <c r="A863" s="19">
+      <c r="A863" s="11">
         <v>44105.427158067134</v>
       </c>
-      <c r="B863" s="22" t="s">
+      <c r="B863" s="12" t="s">
         <v>3783</v>
       </c>
-      <c r="C863" s="22" t="s">
+      <c r="C863" s="12" t="s">
         <v>3784</v>
       </c>
-      <c r="D863" s="22" t="s">
+      <c r="D863" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="E863" s="22" t="s">
+      <c r="E863" s="12" t="s">
         <v>3785</v>
       </c>
-      <c r="F863" s="22" t="s">
+      <c r="F863" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G863" s="23" t="s">
+      <c r="G863" s="13" t="s">
         <v>3786</v>
       </c>
-      <c r="H863" s="22" t="s">
+      <c r="H863" s="12" t="s">
         <v>66</v>
       </c>
       <c r="I863" s="15"/>
@@ -40292,34 +41422,34 @@
       <c r="P863" s="15"/>
     </row>
     <row r="864">
-      <c r="A864" s="19">
+      <c r="A864" s="11">
         <v>44105.43024891204</v>
       </c>
-      <c r="B864" s="22" t="s">
+      <c r="B864" s="12" t="s">
         <v>3787</v>
       </c>
-      <c r="C864" s="22" t="s">
+      <c r="C864" s="12" t="s">
         <v>3788</v>
       </c>
-      <c r="D864" s="22" t="s">
+      <c r="D864" s="12" t="s">
         <v>874</v>
       </c>
-      <c r="E864" s="22" t="s">
+      <c r="E864" s="12" t="s">
         <v>3789</v>
       </c>
-      <c r="F864" s="22" t="s">
+      <c r="F864" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G864" s="23" t="s">
+      <c r="G864" s="13" t="s">
         <v>3790</v>
       </c>
-      <c r="H864" s="22" t="s">
+      <c r="H864" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="I864" s="23" t="s">
+      <c r="I864" s="13" t="s">
         <v>3791</v>
       </c>
-      <c r="J864" s="24">
+      <c r="J864" s="14">
         <v>44098.0</v>
       </c>
       <c r="K864" s="15"/>
@@ -40330,34 +41460,34 @@
       <c r="P864" s="15"/>
     </row>
     <row r="865">
-      <c r="A865" s="19">
+      <c r="A865" s="11">
         <v>44105.43563006945</v>
       </c>
-      <c r="B865" s="22" t="s">
+      <c r="B865" s="12" t="s">
         <v>3792</v>
       </c>
-      <c r="C865" s="22" t="s">
+      <c r="C865" s="12" t="s">
         <v>3793</v>
       </c>
-      <c r="D865" s="22" t="s">
+      <c r="D865" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="E865" s="22" t="s">
+      <c r="E865" s="12" t="s">
         <v>3794</v>
       </c>
-      <c r="F865" s="22" t="s">
+      <c r="F865" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G865" s="23" t="s">
+      <c r="G865" s="13" t="s">
         <v>3795</v>
       </c>
-      <c r="H865" s="22" t="s">
+      <c r="H865" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="I865" s="23" t="s">
+      <c r="I865" s="13" t="s">
         <v>3796</v>
       </c>
-      <c r="J865" s="24">
+      <c r="J865" s="14">
         <v>44350.0</v>
       </c>
       <c r="K865" s="15"/>
@@ -40368,34 +41498,34 @@
       <c r="P865" s="15"/>
     </row>
     <row r="866">
-      <c r="A866" s="19">
+      <c r="A866" s="11">
         <v>44105.43644837963</v>
       </c>
-      <c r="B866" s="22" t="s">
+      <c r="B866" s="12" t="s">
         <v>3797</v>
       </c>
-      <c r="C866" s="22" t="s">
+      <c r="C866" s="12" t="s">
         <v>3798</v>
       </c>
-      <c r="D866" s="22" t="s">
+      <c r="D866" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="E866" s="22" t="s">
+      <c r="E866" s="12" t="s">
         <v>3799</v>
       </c>
-      <c r="F866" s="22" t="s">
+      <c r="F866" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="G866" s="23" t="s">
+      <c r="G866" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="H866" s="22" t="s">
+      <c r="H866" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="I866" s="23" t="s">
+      <c r="I866" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="J866" s="24">
+      <c r="J866" s="14">
         <v>44886.0</v>
       </c>
       <c r="K866" s="15"/>
@@ -40406,34 +41536,34 @@
       <c r="P866" s="15"/>
     </row>
     <row r="867">
-      <c r="A867" s="19">
+      <c r="A867" s="11">
         <v>44105.44257194444</v>
       </c>
-      <c r="B867" s="22" t="s">
+      <c r="B867" s="12" t="s">
         <v>3800</v>
       </c>
-      <c r="C867" s="22" t="s">
+      <c r="C867" s="12" t="s">
         <v>3801</v>
       </c>
-      <c r="D867" s="22" t="s">
+      <c r="D867" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="E867" s="22" t="s">
+      <c r="E867" s="12" t="s">
         <v>3802</v>
       </c>
-      <c r="F867" s="22" t="s">
+      <c r="F867" s="12" t="s">
         <v>3803</v>
       </c>
-      <c r="G867" s="23" t="s">
+      <c r="G867" s="13" t="s">
         <v>3804</v>
       </c>
-      <c r="H867" s="22" t="s">
+      <c r="H867" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="I867" s="23" t="s">
+      <c r="I867" s="13" t="s">
         <v>3805</v>
       </c>
-      <c r="J867" s="24">
+      <c r="J867" s="14">
         <v>44197.0</v>
       </c>
       <c r="K867" s="15"/>
@@ -40444,28 +41574,28 @@
       <c r="P867" s="15"/>
     </row>
     <row r="868">
-      <c r="A868" s="19">
+      <c r="A868" s="11">
         <v>44105.45039273148</v>
       </c>
-      <c r="B868" s="22" t="s">
+      <c r="B868" s="12" t="s">
         <v>3806</v>
       </c>
-      <c r="C868" s="22" t="s">
+      <c r="C868" s="12" t="s">
         <v>3807</v>
       </c>
-      <c r="D868" s="22" t="s">
+      <c r="D868" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="E868" s="22" t="s">
+      <c r="E868" s="12" t="s">
         <v>3808</v>
       </c>
-      <c r="F868" s="22" t="s">
+      <c r="F868" s="12" t="s">
         <v>3809</v>
       </c>
-      <c r="G868" s="23" t="s">
+      <c r="G868" s="13" t="s">
         <v>3810</v>
       </c>
-      <c r="H868" s="22" t="s">
+      <c r="H868" s="12" t="s">
         <v>443</v>
       </c>
       <c r="I868" s="15"/>
@@ -40504,34 +41634,34 @@
       </c>
     </row>
     <row r="870">
-      <c r="A870" s="19">
+      <c r="A870" s="11">
         <v>44105.453699537036</v>
       </c>
-      <c r="B870" s="22" t="s">
+      <c r="B870" s="12" t="s">
         <v>3811</v>
       </c>
-      <c r="C870" s="22" t="s">
+      <c r="C870" s="12" t="s">
         <v>3812</v>
       </c>
-      <c r="D870" s="22" t="s">
+      <c r="D870" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="E870" s="22" t="s">
+      <c r="E870" s="12" t="s">
         <v>3813</v>
       </c>
-      <c r="F870" s="22" t="s">
+      <c r="F870" s="12" t="s">
         <v>3814</v>
       </c>
-      <c r="G870" s="23" t="s">
+      <c r="G870" s="13" t="s">
         <v>3815</v>
       </c>
-      <c r="H870" s="22" t="s">
+      <c r="H870" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I870" s="23" t="s">
+      <c r="I870" s="13" t="s">
         <v>3816</v>
       </c>
-      <c r="J870" s="24">
+      <c r="J870" s="14">
         <v>45289.0</v>
       </c>
       <c r="K870" s="15"/>
@@ -40542,34 +41672,34 @@
       <c r="P870" s="15"/>
     </row>
     <row r="871">
-      <c r="A871" s="19">
+      <c r="A871" s="11">
         <v>44105.46041356481</v>
       </c>
-      <c r="B871" s="22" t="s">
+      <c r="B871" s="12" t="s">
         <v>3817</v>
       </c>
-      <c r="C871" s="22" t="s">
+      <c r="C871" s="12" t="s">
         <v>3818</v>
       </c>
-      <c r="D871" s="22" t="s">
+      <c r="D871" s="12" t="s">
         <v>3467</v>
       </c>
-      <c r="E871" s="22" t="s">
+      <c r="E871" s="12" t="s">
         <v>3819</v>
       </c>
-      <c r="F871" s="22" t="s">
+      <c r="F871" s="12" t="s">
         <v>3820</v>
       </c>
-      <c r="G871" s="22">
+      <c r="G871" s="12">
         <v>9.209824619E9</v>
       </c>
-      <c r="H871" s="22" t="s">
+      <c r="H871" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I871" s="22">
+      <c r="I871" s="12">
         <v>66245.0</v>
       </c>
-      <c r="J871" s="24">
+      <c r="J871" s="14">
         <v>44922.0</v>
       </c>
       <c r="K871" s="15"/>
@@ -40580,34 +41710,34 @@
       <c r="P871" s="15"/>
     </row>
     <row r="872">
-      <c r="A872" s="19">
+      <c r="A872" s="11">
         <v>44105.46501748843</v>
       </c>
-      <c r="B872" s="22" t="s">
+      <c r="B872" s="12" t="s">
         <v>3821</v>
       </c>
-      <c r="C872" s="22" t="s">
+      <c r="C872" s="12" t="s">
         <v>3822</v>
       </c>
-      <c r="D872" s="22" t="s">
+      <c r="D872" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="E872" s="22" t="s">
+      <c r="E872" s="12" t="s">
         <v>3823</v>
       </c>
-      <c r="F872" s="22" t="s">
+      <c r="F872" s="12" t="s">
         <v>2628</v>
       </c>
-      <c r="G872" s="23" t="s">
+      <c r="G872" s="13" t="s">
         <v>3824</v>
       </c>
-      <c r="H872" s="22" t="s">
+      <c r="H872" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I872" s="23" t="s">
+      <c r="I872" s="13" t="s">
         <v>3825</v>
       </c>
-      <c r="J872" s="24">
+      <c r="J872" s="14">
         <v>45117.0</v>
       </c>
       <c r="K872" s="15"/>
@@ -40618,31 +41748,31 @@
       <c r="P872" s="15"/>
     </row>
     <row r="873">
-      <c r="A873" s="19">
+      <c r="A873" s="11">
         <v>44105.46590361111</v>
       </c>
-      <c r="B873" s="22" t="s">
+      <c r="B873" s="12" t="s">
         <v>3826</v>
       </c>
-      <c r="C873" s="22" t="s">
+      <c r="C873" s="12" t="s">
         <v>3827</v>
       </c>
-      <c r="D873" s="22" t="s">
+      <c r="D873" s="12" t="s">
         <v>772</v>
       </c>
-      <c r="E873" s="22" t="s">
+      <c r="E873" s="12" t="s">
         <v>3828</v>
       </c>
-      <c r="F873" s="22" t="s">
+      <c r="F873" s="12" t="s">
         <v>3411</v>
       </c>
-      <c r="G873" s="23" t="s">
+      <c r="G873" s="13" t="s">
         <v>3829</v>
       </c>
-      <c r="H873" s="22" t="s">
+      <c r="H873" s="12" t="s">
         <v>3830</v>
       </c>
-      <c r="I873" s="23" t="s">
+      <c r="I873" s="13" t="s">
         <v>3831</v>
       </c>
       <c r="J873" s="15"/>
@@ -40654,34 +41784,34 @@
       <c r="P873" s="15"/>
     </row>
     <row r="874">
-      <c r="A874" s="19">
+      <c r="A874" s="11">
         <v>44105.47426482639</v>
       </c>
-      <c r="B874" s="22" t="s">
+      <c r="B874" s="12" t="s">
         <v>3832</v>
       </c>
-      <c r="C874" s="22" t="s">
+      <c r="C874" s="12" t="s">
         <v>3833</v>
       </c>
-      <c r="D874" s="22" t="s">
+      <c r="D874" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="E874" s="22" t="s">
+      <c r="E874" s="12" t="s">
         <v>3834</v>
       </c>
-      <c r="F874" s="22" t="s">
+      <c r="F874" s="12" t="s">
         <v>720</v>
       </c>
-      <c r="G874" s="23" t="s">
+      <c r="G874" s="13" t="s">
         <v>3835</v>
       </c>
-      <c r="H874" s="22" t="s">
+      <c r="H874" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="I874" s="23" t="s">
+      <c r="I874" s="13" t="s">
         <v>3836</v>
       </c>
-      <c r="J874" s="24">
+      <c r="J874" s="14">
         <v>44351.0</v>
       </c>
       <c r="K874" s="15"/>
@@ -40692,34 +41822,34 @@
       <c r="P874" s="15"/>
     </row>
     <row r="875">
-      <c r="A875" s="19">
+      <c r="A875" s="11">
         <v>44105.475585162036</v>
       </c>
-      <c r="B875" s="22" t="s">
+      <c r="B875" s="12" t="s">
         <v>3837</v>
       </c>
-      <c r="C875" s="22" t="s">
+      <c r="C875" s="12" t="s">
         <v>3838</v>
       </c>
-      <c r="D875" s="22" t="s">
+      <c r="D875" s="12" t="s">
         <v>3467</v>
       </c>
-      <c r="E875" s="22" t="s">
+      <c r="E875" s="12" t="s">
         <v>3839</v>
       </c>
-      <c r="F875" s="22" t="s">
+      <c r="F875" s="12" t="s">
         <v>769</v>
       </c>
-      <c r="G875" s="23" t="s">
+      <c r="G875" s="13" t="s">
         <v>3840</v>
       </c>
-      <c r="H875" s="22" t="s">
+      <c r="H875" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="I875" s="23" t="s">
+      <c r="I875" s="13" t="s">
         <v>3841</v>
       </c>
-      <c r="J875" s="24">
+      <c r="J875" s="14">
         <v>45264.0</v>
       </c>
       <c r="K875" s="15"/>
@@ -40762,28 +41892,28 @@
       </c>
     </row>
     <row r="877">
-      <c r="A877" s="19">
+      <c r="A877" s="11">
         <v>44105.478140127314</v>
       </c>
-      <c r="B877" s="22" t="s">
+      <c r="B877" s="12" t="s">
         <v>3843</v>
       </c>
-      <c r="C877" s="22" t="s">
+      <c r="C877" s="12" t="s">
         <v>3844</v>
       </c>
-      <c r="D877" s="22" t="s">
+      <c r="D877" s="12" t="s">
         <v>874</v>
       </c>
-      <c r="E877" s="22" t="s">
+      <c r="E877" s="12" t="s">
         <v>3845</v>
       </c>
-      <c r="F877" s="22" t="s">
+      <c r="F877" s="12" t="s">
         <v>3846</v>
       </c>
-      <c r="G877" s="23" t="s">
+      <c r="G877" s="13" t="s">
         <v>3847</v>
       </c>
-      <c r="H877" s="22" t="s">
+      <c r="H877" s="12" t="s">
         <v>191</v>
       </c>
       <c r="I877" s="15"/>
@@ -40796,34 +41926,34 @@
       <c r="P877" s="15"/>
     </row>
     <row r="878">
-      <c r="A878" s="19">
+      <c r="A878" s="11">
         <v>44105.479001342595</v>
       </c>
-      <c r="B878" s="22" t="s">
+      <c r="B878" s="12" t="s">
         <v>3848</v>
       </c>
-      <c r="C878" s="22" t="s">
+      <c r="C878" s="12" t="s">
         <v>3849</v>
       </c>
-      <c r="D878" s="22" t="s">
+      <c r="D878" s="12" t="s">
         <v>3467</v>
       </c>
-      <c r="E878" s="22" t="s">
+      <c r="E878" s="12" t="s">
         <v>3850</v>
       </c>
-      <c r="F878" s="22" t="s">
+      <c r="F878" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G878" s="23" t="s">
+      <c r="G878" s="13" t="s">
         <v>3851</v>
       </c>
-      <c r="H878" s="22" t="s">
+      <c r="H878" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="I878" s="23" t="s">
+      <c r="I878" s="13" t="s">
         <v>3852</v>
       </c>
-      <c r="J878" s="24">
+      <c r="J878" s="14">
         <v>45157.0</v>
       </c>
       <c r="K878" s="15"/>
@@ -40834,34 +41964,34 @@
       <c r="P878" s="15"/>
     </row>
     <row r="879">
-      <c r="A879" s="19">
+      <c r="A879" s="11">
         <v>44105.48343721065</v>
       </c>
-      <c r="B879" s="22" t="s">
+      <c r="B879" s="12" t="s">
         <v>3090</v>
       </c>
-      <c r="C879" s="22" t="s">
+      <c r="C879" s="12" t="s">
         <v>3853</v>
       </c>
-      <c r="D879" s="22" t="s">
+      <c r="D879" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="E879" s="22" t="s">
+      <c r="E879" s="12" t="s">
         <v>3854</v>
       </c>
-      <c r="F879" s="22" t="s">
+      <c r="F879" s="12" t="s">
         <v>774</v>
       </c>
-      <c r="G879" s="23" t="s">
+      <c r="G879" s="13" t="s">
         <v>3094</v>
       </c>
-      <c r="H879" s="22" t="s">
+      <c r="H879" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="I879" s="23" t="s">
+      <c r="I879" s="13" t="s">
         <v>3095</v>
       </c>
-      <c r="J879" s="24">
+      <c r="J879" s="14">
         <v>44708.0</v>
       </c>
       <c r="K879" s="15"/>
@@ -40872,34 +42002,34 @@
       <c r="P879" s="15"/>
     </row>
     <row r="880">
-      <c r="A880" s="19">
+      <c r="A880" s="11">
         <v>44105.49469018518</v>
       </c>
-      <c r="B880" s="22" t="s">
+      <c r="B880" s="12" t="s">
         <v>3855</v>
       </c>
-      <c r="C880" s="22" t="s">
+      <c r="C880" s="12" t="s">
         <v>3856</v>
       </c>
-      <c r="D880" s="22" t="s">
+      <c r="D880" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="E880" s="22" t="s">
+      <c r="E880" s="12" t="s">
         <v>3857</v>
       </c>
-      <c r="F880" s="22" t="s">
+      <c r="F880" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="G880" s="23" t="s">
+      <c r="G880" s="13" t="s">
         <v>3858</v>
       </c>
-      <c r="H880" s="22" t="s">
+      <c r="H880" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I880" s="22">
+      <c r="I880" s="12">
         <v>110449.0</v>
       </c>
-      <c r="J880" s="24">
+      <c r="J880" s="14">
         <v>44179.0</v>
       </c>
       <c r="K880" s="15"/>
@@ -40910,34 +42040,34 @@
       <c r="P880" s="15"/>
     </row>
     <row r="881">
-      <c r="A881" s="19">
+      <c r="A881" s="11">
         <v>44105.49725752315</v>
       </c>
-      <c r="B881" s="22" t="s">
+      <c r="B881" s="12" t="s">
         <v>3777</v>
       </c>
-      <c r="C881" s="22" t="s">
+      <c r="C881" s="12" t="s">
         <v>3859</v>
       </c>
-      <c r="D881" s="22" t="s">
+      <c r="D881" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="E881" s="22" t="s">
+      <c r="E881" s="12" t="s">
         <v>3860</v>
       </c>
-      <c r="F881" s="22" t="s">
+      <c r="F881" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G881" s="23" t="s">
+      <c r="G881" s="13" t="s">
         <v>3861</v>
       </c>
-      <c r="H881" s="22" t="s">
+      <c r="H881" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="I881" s="23" t="s">
+      <c r="I881" s="13" t="s">
         <v>3862</v>
       </c>
-      <c r="J881" s="24">
+      <c r="J881" s="14">
         <v>45103.0</v>
       </c>
       <c r="K881" s="15"/>
@@ -40948,28 +42078,28 @@
       <c r="P881" s="15"/>
     </row>
     <row r="882">
-      <c r="A882" s="19">
+      <c r="A882" s="11">
         <v>44105.499425347225</v>
       </c>
-      <c r="B882" s="22" t="s">
+      <c r="B882" s="12" t="s">
         <v>3863</v>
       </c>
-      <c r="C882" s="22" t="s">
+      <c r="C882" s="12" t="s">
         <v>3864</v>
       </c>
-      <c r="D882" s="22" t="s">
+      <c r="D882" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="E882" s="22" t="s">
+      <c r="E882" s="12" t="s">
         <v>3865</v>
       </c>
-      <c r="F882" s="22" t="s">
+      <c r="F882" s="12" t="s">
         <v>1089</v>
       </c>
-      <c r="G882" s="23" t="s">
+      <c r="G882" s="13" t="s">
         <v>3866</v>
       </c>
-      <c r="H882" s="22" t="s">
+      <c r="H882" s="12" t="s">
         <v>153</v>
       </c>
       <c r="I882" s="15"/>
@@ -40982,158 +42112,190 @@
       <c r="P882" s="15"/>
     </row>
     <row r="883">
-      <c r="A883" s="3">
+      <c r="A883" s="11">
         <v>44105.504714675924</v>
       </c>
-      <c r="B883" s="2" t="s">
+      <c r="B883" s="12" t="s">
         <v>3867</v>
       </c>
-      <c r="C883" s="2" t="s">
+      <c r="C883" s="12" t="s">
         <v>3868</v>
       </c>
-      <c r="D883" s="2" t="s">
+      <c r="D883" s="12" t="s">
         <v>3467</v>
       </c>
-      <c r="E883" s="2" t="s">
+      <c r="E883" s="12" t="s">
         <v>3869</v>
       </c>
-      <c r="F883" s="2" t="s">
+      <c r="F883" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G883" s="4" t="s">
+      <c r="G883" s="13" t="s">
         <v>3870</v>
       </c>
-      <c r="H883" s="2" t="s">
+      <c r="H883" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="I883" s="4" t="s">
+      <c r="I883" s="13" t="s">
         <v>3871</v>
       </c>
-      <c r="J883" s="5">
+      <c r="J883" s="14">
         <v>44765.0</v>
       </c>
+      <c r="K883" s="15"/>
+      <c r="L883" s="15"/>
+      <c r="M883" s="15"/>
+      <c r="N883" s="15"/>
+      <c r="O883" s="15"/>
+      <c r="P883" s="15"/>
     </row>
     <row r="884">
-      <c r="A884" s="3">
+      <c r="A884" s="11">
         <v>44105.50592277778</v>
       </c>
-      <c r="B884" s="2" t="s">
+      <c r="B884" s="12" t="s">
         <v>3465</v>
       </c>
-      <c r="C884" s="2" t="s">
+      <c r="C884" s="12" t="s">
         <v>3872</v>
       </c>
-      <c r="D884" s="2" t="s">
+      <c r="D884" s="12" t="s">
         <v>3467</v>
       </c>
-      <c r="E884" s="2" t="s">
+      <c r="E884" s="12" t="s">
         <v>3873</v>
       </c>
-      <c r="F884" s="2" t="s">
+      <c r="F884" s="12" t="s">
         <v>3874</v>
       </c>
-      <c r="G884" s="4" t="s">
+      <c r="G884" s="13" t="s">
         <v>3470</v>
       </c>
-      <c r="H884" s="2" t="s">
+      <c r="H884" s="12" t="s">
         <v>3055</v>
       </c>
-      <c r="I884" s="2">
+      <c r="I884" s="12">
         <v>46298.0</v>
       </c>
-      <c r="J884" s="5">
+      <c r="J884" s="14">
         <v>44603.0</v>
       </c>
+      <c r="K884" s="15"/>
+      <c r="L884" s="15"/>
+      <c r="M884" s="15"/>
+      <c r="N884" s="15"/>
+      <c r="O884" s="15"/>
+      <c r="P884" s="15"/>
     </row>
     <row r="885">
-      <c r="A885" s="3">
+      <c r="A885" s="11">
         <v>44105.515776562504</v>
       </c>
-      <c r="B885" s="2" t="s">
+      <c r="B885" s="12" t="s">
         <v>3875</v>
       </c>
-      <c r="C885" s="2" t="s">
+      <c r="C885" s="12" t="s">
         <v>3876</v>
       </c>
-      <c r="D885" s="2" t="s">
+      <c r="D885" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="E885" s="2" t="s">
+      <c r="E885" s="12" t="s">
         <v>2931</v>
       </c>
-      <c r="F885" s="2" t="s">
+      <c r="F885" s="12" t="s">
         <v>3877</v>
       </c>
-      <c r="G885" s="4" t="s">
+      <c r="G885" s="13" t="s">
         <v>2933</v>
       </c>
-      <c r="H885" s="2" t="s">
+      <c r="H885" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="I885" s="4" t="s">
+      <c r="I885" s="13" t="s">
         <v>2934</v>
       </c>
-      <c r="J885" s="5">
+      <c r="J885" s="14">
         <v>45154.0</v>
       </c>
+      <c r="K885" s="15"/>
+      <c r="L885" s="15"/>
+      <c r="M885" s="15"/>
+      <c r="N885" s="15"/>
+      <c r="O885" s="15"/>
+      <c r="P885" s="15"/>
     </row>
     <row r="886">
-      <c r="A886" s="3">
+      <c r="A886" s="11">
         <v>44105.51585402778</v>
       </c>
-      <c r="B886" s="2" t="s">
+      <c r="B886" s="12" t="s">
         <v>3878</v>
       </c>
-      <c r="C886" s="2" t="s">
+      <c r="C886" s="12" t="s">
         <v>3879</v>
       </c>
-      <c r="D886" s="2" t="s">
+      <c r="D886" s="12" t="s">
         <v>874</v>
       </c>
-      <c r="E886" s="2" t="s">
+      <c r="E886" s="12" t="s">
         <v>720</v>
       </c>
-      <c r="F886" s="2" t="s">
+      <c r="F886" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G886" s="4" t="s">
+      <c r="G886" s="13" t="s">
         <v>3880</v>
       </c>
-      <c r="H886" s="2" t="s">
+      <c r="H886" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I886" s="2">
+      <c r="I886" s="12">
         <v>78969.0</v>
       </c>
-      <c r="J886" s="5">
+      <c r="J886" s="14">
         <v>44135.0</v>
       </c>
+      <c r="K886" s="15"/>
+      <c r="L886" s="15"/>
+      <c r="M886" s="15"/>
+      <c r="N886" s="15"/>
+      <c r="O886" s="15"/>
+      <c r="P886" s="15"/>
     </row>
     <row r="887">
-      <c r="A887" s="3">
+      <c r="A887" s="11">
         <v>44105.516455543984</v>
       </c>
-      <c r="B887" s="2" t="s">
+      <c r="B887" s="12" t="s">
         <v>3881</v>
       </c>
-      <c r="C887" s="2" t="s">
+      <c r="C887" s="12" t="s">
         <v>3882</v>
       </c>
-      <c r="D887" s="2" t="s">
+      <c r="D887" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="E887" s="2" t="s">
+      <c r="E887" s="12" t="s">
         <v>3883</v>
       </c>
-      <c r="F887" s="2" t="s">
+      <c r="F887" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G887" s="4" t="s">
+      <c r="G887" s="13" t="s">
         <v>3884</v>
       </c>
-      <c r="H887" s="2" t="s">
+      <c r="H887" s="12" t="s">
         <v>3885</v>
       </c>
+      <c r="I887" s="15"/>
+      <c r="J887" s="15"/>
+      <c r="K887" s="15"/>
+      <c r="L887" s="15"/>
+      <c r="M887" s="15"/>
+      <c r="N887" s="15"/>
+      <c r="O887" s="15"/>
+      <c r="P887" s="15"/>
     </row>
     <row r="888">
       <c r="A888" s="3">
@@ -41269,6 +42431,4364 @@
       </c>
       <c r="H892" s="2" t="s">
         <v>3907</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="3">
+        <v>44105.52532302083</v>
+      </c>
+      <c r="B893" s="2" t="s">
+        <v>3902</v>
+      </c>
+      <c r="C893" s="2" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D893" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E893" s="2" t="s">
+        <v>3904</v>
+      </c>
+      <c r="F893" s="2" t="s">
+        <v>3905</v>
+      </c>
+      <c r="G893" s="4" t="s">
+        <v>3906</v>
+      </c>
+      <c r="H893" s="2" t="s">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="3">
+        <v>44105.52690534722</v>
+      </c>
+      <c r="B894" s="2" t="s">
+        <v>3908</v>
+      </c>
+      <c r="C894" s="2" t="s">
+        <v>3909</v>
+      </c>
+      <c r="D894" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="E894" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F894" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G894" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H894" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I894" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J894" s="5">
+        <v>44801.0</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="3">
+        <v>44105.52828085648</v>
+      </c>
+      <c r="B895" s="2" t="s">
+        <v>3902</v>
+      </c>
+      <c r="C895" s="2" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D895" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E895" s="2" t="s">
+        <v>3904</v>
+      </c>
+      <c r="F895" s="2" t="s">
+        <v>3910</v>
+      </c>
+      <c r="G895" s="4" t="s">
+        <v>3906</v>
+      </c>
+      <c r="H895" s="2" t="s">
+        <v>3911</v>
+      </c>
+      <c r="I895" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="J895" s="5">
+        <v>44105.0</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="3">
+        <v>44105.52846043982</v>
+      </c>
+      <c r="B896" s="2" t="s">
+        <v>3912</v>
+      </c>
+      <c r="C896" s="2" t="s">
+        <v>3913</v>
+      </c>
+      <c r="D896" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E896" s="2" t="s">
+        <v>3914</v>
+      </c>
+      <c r="F896" s="2" t="s">
+        <v>3915</v>
+      </c>
+      <c r="G896" s="4" t="s">
+        <v>3916</v>
+      </c>
+      <c r="H896" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I896" s="4" t="s">
+        <v>3917</v>
+      </c>
+      <c r="J896" s="5">
+        <v>44928.0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="3">
+        <v>44105.530300659724</v>
+      </c>
+      <c r="B897" s="2" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C897" s="2" t="s">
+        <v>3919</v>
+      </c>
+      <c r="D897" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E897" s="2" t="s">
+        <v>2832</v>
+      </c>
+      <c r="F897" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G897" s="4" t="s">
+        <v>3920</v>
+      </c>
+      <c r="H897" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I897" s="4" t="s">
+        <v>3921</v>
+      </c>
+      <c r="J897" s="5">
+        <v>44288.0</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="3">
+        <v>44105.53062171296</v>
+      </c>
+      <c r="B898" s="2" t="s">
+        <v>3922</v>
+      </c>
+      <c r="C898" s="2" t="s">
+        <v>3923</v>
+      </c>
+      <c r="D898" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E898" s="2" t="s">
+        <v>3924</v>
+      </c>
+      <c r="F898" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G898" s="4" t="s">
+        <v>3925</v>
+      </c>
+      <c r="H898" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I898" s="4" t="s">
+        <v>3926</v>
+      </c>
+      <c r="J898" s="5">
+        <v>44889.0</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="3">
+        <v>44105.53071420139</v>
+      </c>
+      <c r="B899" s="2" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C899" s="2" t="s">
+        <v>3919</v>
+      </c>
+      <c r="D899" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E899" s="2" t="s">
+        <v>2832</v>
+      </c>
+      <c r="F899" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G899" s="4" t="s">
+        <v>3920</v>
+      </c>
+      <c r="H899" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I899" s="4" t="s">
+        <v>3921</v>
+      </c>
+      <c r="J899" s="5">
+        <v>44288.0</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="3">
+        <v>44105.531122858796</v>
+      </c>
+      <c r="B900" s="2" t="s">
+        <v>3927</v>
+      </c>
+      <c r="C900" s="2" t="s">
+        <v>3928</v>
+      </c>
+      <c r="D900" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E900" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F900" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G900" s="4" t="s">
+        <v>3929</v>
+      </c>
+      <c r="H900" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I900" s="4" t="s">
+        <v>3930</v>
+      </c>
+      <c r="J900" s="5">
+        <v>44366.0</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="3">
+        <v>44105.53171079861</v>
+      </c>
+      <c r="B901" s="2" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C901" s="2" t="s">
+        <v>3919</v>
+      </c>
+      <c r="D901" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E901" s="2" t="s">
+        <v>2832</v>
+      </c>
+      <c r="F901" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G901" s="4" t="s">
+        <v>3920</v>
+      </c>
+      <c r="H901" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I901" s="4" t="s">
+        <v>3921</v>
+      </c>
+      <c r="J901" s="5">
+        <v>44288.0</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="3">
+        <v>44105.53203109954</v>
+      </c>
+      <c r="B902" s="2" t="s">
+        <v>3931</v>
+      </c>
+      <c r="C902" s="2" t="s">
+        <v>3932</v>
+      </c>
+      <c r="D902" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E902" s="2" t="s">
+        <v>3933</v>
+      </c>
+      <c r="F902" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="G902" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="H902" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I902" s="2">
+        <v>69416.0</v>
+      </c>
+      <c r="J902" s="5">
+        <v>44459.0</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="3">
+        <v>44105.53253048611</v>
+      </c>
+      <c r="B903" s="2" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C903" s="2" t="s">
+        <v>3919</v>
+      </c>
+      <c r="D903" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E903" s="2" t="s">
+        <v>2832</v>
+      </c>
+      <c r="F903" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G903" s="4" t="s">
+        <v>3920</v>
+      </c>
+      <c r="H903" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I903" s="4" t="s">
+        <v>3921</v>
+      </c>
+      <c r="J903" s="5">
+        <v>44288.0</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="3">
+        <v>44105.53798716435</v>
+      </c>
+      <c r="B904" s="2" t="s">
+        <v>3934</v>
+      </c>
+      <c r="C904" s="2" t="s">
+        <v>3935</v>
+      </c>
+      <c r="D904" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E904" s="2" t="s">
+        <v>3936</v>
+      </c>
+      <c r="F904" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G904" s="4" t="s">
+        <v>3937</v>
+      </c>
+      <c r="H904" s="2" t="s">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="3">
+        <v>44105.53834271991</v>
+      </c>
+      <c r="B905" s="2" t="s">
+        <v>3939</v>
+      </c>
+      <c r="C905" s="2" t="s">
+        <v>3940</v>
+      </c>
+      <c r="D905" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E905" s="2" t="s">
+        <v>3941</v>
+      </c>
+      <c r="F905" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="G905" s="4" t="s">
+        <v>3942</v>
+      </c>
+      <c r="H905" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I905" s="2">
+        <v>78071.0</v>
+      </c>
+      <c r="J905" s="5">
+        <v>44021.0</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="3">
+        <v>44105.53925479167</v>
+      </c>
+      <c r="B906" s="2" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C906" s="2" t="s">
+        <v>3897</v>
+      </c>
+      <c r="D906" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E906" s="2" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F906" s="2" t="s">
+        <v>3943</v>
+      </c>
+      <c r="G906" s="4" t="s">
+        <v>3900</v>
+      </c>
+      <c r="H906" s="2" t="s">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="3">
+        <v>44105.53953819444</v>
+      </c>
+      <c r="B907" s="2" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C907" s="2" t="s">
+        <v>3919</v>
+      </c>
+      <c r="D907" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E907" s="2" t="s">
+        <v>2832</v>
+      </c>
+      <c r="F907" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G907" s="4" t="s">
+        <v>3920</v>
+      </c>
+      <c r="H907" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I907" s="4" t="s">
+        <v>3921</v>
+      </c>
+      <c r="J907" s="5">
+        <v>44288.0</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="3">
+        <v>44105.53979730324</v>
+      </c>
+      <c r="B908" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C908" s="2" t="s">
+        <v>3944</v>
+      </c>
+      <c r="D908" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E908" s="2" t="s">
+        <v>3945</v>
+      </c>
+      <c r="F908" s="2" t="s">
+        <v>3946</v>
+      </c>
+      <c r="G908" s="4" t="s">
+        <v>2309</v>
+      </c>
+      <c r="H908" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I908" s="4" t="s">
+        <v>1844</v>
+      </c>
+      <c r="J908" s="5" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="3">
+        <v>44105.539988171295</v>
+      </c>
+      <c r="B909" s="2" t="s">
+        <v>3939</v>
+      </c>
+      <c r="C909" s="2" t="s">
+        <v>3947</v>
+      </c>
+      <c r="D909" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E909" s="2" t="s">
+        <v>3941</v>
+      </c>
+      <c r="F909" s="2" t="s">
+        <v>2544</v>
+      </c>
+      <c r="G909" s="4" t="s">
+        <v>3948</v>
+      </c>
+      <c r="H909" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I909" s="4" t="s">
+        <v>3949</v>
+      </c>
+      <c r="J909" s="5">
+        <v>45153.0</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="3">
+        <v>44105.54028663195</v>
+      </c>
+      <c r="B910" s="2" t="s">
+        <v>3950</v>
+      </c>
+      <c r="C910" s="2" t="s">
+        <v>3951</v>
+      </c>
+      <c r="D910" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E910" s="2" t="s">
+        <v>3952</v>
+      </c>
+      <c r="F910" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="G910" s="4" t="s">
+        <v>3953</v>
+      </c>
+      <c r="H910" s="2" t="s">
+        <v>3954</v>
+      </c>
+      <c r="I910" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J910" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="3">
+        <v>44105.54048909722</v>
+      </c>
+      <c r="B911" s="2" t="s">
+        <v>3955</v>
+      </c>
+      <c r="C911" s="2" t="s">
+        <v>3956</v>
+      </c>
+      <c r="D911" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E911" s="2" t="s">
+        <v>3957</v>
+      </c>
+      <c r="F911" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G911" s="4" t="s">
+        <v>3958</v>
+      </c>
+      <c r="H911" s="2" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="3">
+        <v>44105.54064099537</v>
+      </c>
+      <c r="B912" s="2" t="s">
+        <v>3955</v>
+      </c>
+      <c r="C912" s="2" t="s">
+        <v>3956</v>
+      </c>
+      <c r="D912" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E912" s="2" t="s">
+        <v>3957</v>
+      </c>
+      <c r="F912" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G912" s="4" t="s">
+        <v>3958</v>
+      </c>
+      <c r="H912" s="2" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="3">
+        <v>44105.54084420139</v>
+      </c>
+      <c r="B913" s="2" t="s">
+        <v>3959</v>
+      </c>
+      <c r="C913" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D913" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E913" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F913" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G913" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H913" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I913" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J913" s="5">
+        <v>45033.0</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="3">
+        <v>44105.54174006944</v>
+      </c>
+      <c r="B914" s="2" t="s">
+        <v>3960</v>
+      </c>
+      <c r="C914" s="2" t="s">
+        <v>3961</v>
+      </c>
+      <c r="D914" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E914" s="2" t="s">
+        <v>3962</v>
+      </c>
+      <c r="F914" s="2" t="s">
+        <v>2855</v>
+      </c>
+      <c r="G914" s="4" t="s">
+        <v>3963</v>
+      </c>
+      <c r="H914" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="I914" s="4" t="s">
+        <v>3964</v>
+      </c>
+      <c r="J914" s="5">
+        <v>44002.0</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="3">
+        <v>44105.54235988426</v>
+      </c>
+      <c r="B915" s="2" t="s">
+        <v>3965</v>
+      </c>
+      <c r="C915" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D915" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E915" s="2" t="s">
+        <v>3966</v>
+      </c>
+      <c r="F915" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G915" s="4" t="s">
+        <v>1996</v>
+      </c>
+      <c r="H915" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="3">
+        <v>44105.54263362268</v>
+      </c>
+      <c r="B916" s="2" t="s">
+        <v>3967</v>
+      </c>
+      <c r="C916" s="2" t="s">
+        <v>3968</v>
+      </c>
+      <c r="D916" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E916" s="2" t="s">
+        <v>3969</v>
+      </c>
+      <c r="F916" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G916" s="4" t="s">
+        <v>3970</v>
+      </c>
+      <c r="H916" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I916" s="4" t="s">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="3">
+        <v>44105.54292902778</v>
+      </c>
+      <c r="B917" s="2" t="s">
+        <v>3939</v>
+      </c>
+      <c r="C917" s="2" t="s">
+        <v>3972</v>
+      </c>
+      <c r="D917" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E917" s="2" t="s">
+        <v>3941</v>
+      </c>
+      <c r="F917" s="2" t="s">
+        <v>3973</v>
+      </c>
+      <c r="G917" s="4" t="s">
+        <v>3974</v>
+      </c>
+      <c r="H917" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="3">
+        <v>44105.54370920139</v>
+      </c>
+      <c r="B918" s="2" t="s">
+        <v>3975</v>
+      </c>
+      <c r="C918" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D918" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E918" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F918" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G918" s="4" t="s">
+        <v>3976</v>
+      </c>
+      <c r="H918" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="I918" s="2">
+        <v>9737.0</v>
+      </c>
+      <c r="J918" s="5">
+        <v>44481.0</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="3">
+        <v>44105.5447531713</v>
+      </c>
+      <c r="B919" s="2" t="s">
+        <v>3977</v>
+      </c>
+      <c r="C919" s="2" t="s">
+        <v>3978</v>
+      </c>
+      <c r="D919" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E919" s="2" t="s">
+        <v>3979</v>
+      </c>
+      <c r="F919" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G919" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="H919" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I919" s="4" t="s">
+        <v>3980</v>
+      </c>
+      <c r="J919" s="5">
+        <v>44459.0</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="3">
+        <v>44105.54491020834</v>
+      </c>
+      <c r="B920" s="2" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C920" s="2" t="s">
+        <v>3981</v>
+      </c>
+      <c r="D920" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E920" s="2" t="s">
+        <v>3982</v>
+      </c>
+      <c r="F920" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G920" s="4" t="s">
+        <v>2445</v>
+      </c>
+      <c r="H920" s="2" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="3">
+        <v>44105.54651465278</v>
+      </c>
+      <c r="B921" s="2" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C921" s="2" t="s">
+        <v>3985</v>
+      </c>
+      <c r="D921" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E921" s="2" t="s">
+        <v>3986</v>
+      </c>
+      <c r="F921" s="2" t="s">
+        <v>3987</v>
+      </c>
+      <c r="G921" s="4" t="s">
+        <v>3988</v>
+      </c>
+      <c r="H921" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I921" s="2">
+        <v>5337.0</v>
+      </c>
+      <c r="J921" s="5">
+        <v>44187.0</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="3">
+        <v>44105.54688488426</v>
+      </c>
+      <c r="B922" s="2" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C922" s="2" t="s">
+        <v>3989</v>
+      </c>
+      <c r="D922" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E922" s="2" t="s">
+        <v>3990</v>
+      </c>
+      <c r="F922" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G922" s="4" t="s">
+        <v>2524</v>
+      </c>
+      <c r="H922" s="2" t="s">
+        <v>3991</v>
+      </c>
+      <c r="I922" s="4" t="s">
+        <v>2526</v>
+      </c>
+      <c r="J922" s="5">
+        <v>45261.0</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="3">
+        <v>44105.54705033565</v>
+      </c>
+      <c r="B923" s="2" t="s">
+        <v>3992</v>
+      </c>
+      <c r="C923" s="2" t="s">
+        <v>3993</v>
+      </c>
+      <c r="D923" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E923" s="2" t="s">
+        <v>3994</v>
+      </c>
+      <c r="F923" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G923" s="4" t="s">
+        <v>3995</v>
+      </c>
+      <c r="H923" s="2" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="3">
+        <v>44105.54720673611</v>
+      </c>
+      <c r="B924" s="2" t="s">
+        <v>3997</v>
+      </c>
+      <c r="C924" s="2" t="s">
+        <v>3998</v>
+      </c>
+      <c r="D924" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E924" s="2" t="s">
+        <v>3999</v>
+      </c>
+      <c r="F924" s="2" t="s">
+        <v>4000</v>
+      </c>
+      <c r="G924" s="4" t="s">
+        <v>2531</v>
+      </c>
+      <c r="H924" s="2" t="s">
+        <v>2098</v>
+      </c>
+      <c r="I924" s="4" t="s">
+        <v>2532</v>
+      </c>
+      <c r="J924" s="5">
+        <v>44230.0</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="3">
+        <v>44105.54790839121</v>
+      </c>
+      <c r="B925" s="2" t="s">
+        <v>4001</v>
+      </c>
+      <c r="C925" s="2" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D925" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E925" s="2" t="s">
+        <v>3904</v>
+      </c>
+      <c r="F925" s="2" t="s">
+        <v>3905</v>
+      </c>
+      <c r="G925" s="4" t="s">
+        <v>3906</v>
+      </c>
+      <c r="H925" s="2" t="s">
+        <v>3911</v>
+      </c>
+      <c r="I925" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="3">
+        <v>44105.548787210646</v>
+      </c>
+      <c r="B926" s="2" t="s">
+        <v>4002</v>
+      </c>
+      <c r="C926" s="2" t="s">
+        <v>3989</v>
+      </c>
+      <c r="D926" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E926" s="2" t="s">
+        <v>3990</v>
+      </c>
+      <c r="F926" s="2" t="s">
+        <v>4003</v>
+      </c>
+      <c r="G926" s="4" t="s">
+        <v>2524</v>
+      </c>
+      <c r="H926" s="2" t="s">
+        <v>3991</v>
+      </c>
+      <c r="I926" s="4" t="s">
+        <v>2526</v>
+      </c>
+      <c r="J926" s="5">
+        <v>45261.0</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="3">
+        <v>44105.54930990741</v>
+      </c>
+      <c r="B927" s="2" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C927" s="2" t="s">
+        <v>3919</v>
+      </c>
+      <c r="D927" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E927" s="2" t="s">
+        <v>2832</v>
+      </c>
+      <c r="F927" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G927" s="4" t="s">
+        <v>3920</v>
+      </c>
+      <c r="H927" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I927" s="4" t="s">
+        <v>3921</v>
+      </c>
+      <c r="J927" s="5">
+        <v>44288.0</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="3">
+        <v>44105.54958918982</v>
+      </c>
+      <c r="B928" s="2" t="s">
+        <v>4004</v>
+      </c>
+      <c r="C928" s="2" t="s">
+        <v>3993</v>
+      </c>
+      <c r="D928" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E928" s="2" t="s">
+        <v>3994</v>
+      </c>
+      <c r="F928" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G928" s="4" t="s">
+        <v>3995</v>
+      </c>
+      <c r="H928" s="2" t="s">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="3">
+        <v>44105.54970113426</v>
+      </c>
+      <c r="B929" s="2" t="s">
+        <v>4006</v>
+      </c>
+      <c r="C929" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D929" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E929" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F929" s="2" t="s">
+        <v>4007</v>
+      </c>
+      <c r="G929" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H929" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I929" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="J929" s="5">
+        <v>45047.0</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="3">
+        <v>44105.549931574074</v>
+      </c>
+      <c r="B930" s="2" t="s">
+        <v>4008</v>
+      </c>
+      <c r="C930" s="2" t="s">
+        <v>4009</v>
+      </c>
+      <c r="D930" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E930" s="2" t="s">
+        <v>4010</v>
+      </c>
+      <c r="F930" s="2" t="s">
+        <v>4011</v>
+      </c>
+      <c r="G930" s="4" t="s">
+        <v>4012</v>
+      </c>
+      <c r="H930" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I930" s="4" t="s">
+        <v>4013</v>
+      </c>
+      <c r="J930" s="5">
+        <v>25924.0</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="3">
+        <v>44105.55051609954</v>
+      </c>
+      <c r="B931" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C931" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="D931" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="E931" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="F931" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G931" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="H931" s="2" t="s">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="3">
+        <v>44105.551559467596</v>
+      </c>
+      <c r="B932" s="2" t="s">
+        <v>4015</v>
+      </c>
+      <c r="C932" s="2" t="s">
+        <v>4016</v>
+      </c>
+      <c r="D932" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E932" s="2" t="s">
+        <v>4017</v>
+      </c>
+      <c r="F932" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G932" s="4" t="s">
+        <v>4018</v>
+      </c>
+      <c r="H932" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I932" s="4" t="s">
+        <v>4019</v>
+      </c>
+      <c r="J932" s="5">
+        <v>44461.0</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="3">
+        <v>44105.5528068287</v>
+      </c>
+      <c r="B933" s="2" t="s">
+        <v>4020</v>
+      </c>
+      <c r="C933" s="2" t="s">
+        <v>4021</v>
+      </c>
+      <c r="D933" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E933" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F933" s="2" t="s">
+        <v>4022</v>
+      </c>
+      <c r="G933" s="4" t="s">
+        <v>4023</v>
+      </c>
+      <c r="H933" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I933" s="4" t="s">
+        <v>4024</v>
+      </c>
+      <c r="J933" s="5">
+        <v>44124.0</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="3">
+        <v>44105.55358361111</v>
+      </c>
+      <c r="B934" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C934" s="2" t="s">
+        <v>4025</v>
+      </c>
+      <c r="D934" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E934" s="2" t="s">
+        <v>4026</v>
+      </c>
+      <c r="F934" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="G934" s="4" t="s">
+        <v>3131</v>
+      </c>
+      <c r="H934" s="2" t="s">
+        <v>4027</v>
+      </c>
+      <c r="I934" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="3">
+        <v>44105.55371690972</v>
+      </c>
+      <c r="B935" s="2" t="s">
+        <v>4028</v>
+      </c>
+      <c r="C935" s="2" t="s">
+        <v>4029</v>
+      </c>
+      <c r="D935" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="E935" s="2" t="s">
+        <v>4030</v>
+      </c>
+      <c r="F935" s="2" t="s">
+        <v>4031</v>
+      </c>
+      <c r="G935" s="2" t="s">
+        <v>4032</v>
+      </c>
+      <c r="H935" s="2" t="s">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="3">
+        <v>44105.5548655787</v>
+      </c>
+      <c r="B936" s="2" t="s">
+        <v>4034</v>
+      </c>
+      <c r="C936" s="2" t="s">
+        <v>4035</v>
+      </c>
+      <c r="D936" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E936" s="2" t="s">
+        <v>4036</v>
+      </c>
+      <c r="F936" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G936" s="4" t="s">
+        <v>4037</v>
+      </c>
+      <c r="H936" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I936" s="4" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J936" s="5">
+        <v>44418.0</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="3">
+        <v>44105.55497960648</v>
+      </c>
+      <c r="B937" s="2" t="s">
+        <v>4034</v>
+      </c>
+      <c r="C937" s="2" t="s">
+        <v>4035</v>
+      </c>
+      <c r="D937" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E937" s="2" t="s">
+        <v>4036</v>
+      </c>
+      <c r="F937" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G937" s="4" t="s">
+        <v>4037</v>
+      </c>
+      <c r="H937" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I937" s="4" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J937" s="5">
+        <v>44418.0</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="3">
+        <v>44105.55535376158</v>
+      </c>
+      <c r="B938" s="2" t="s">
+        <v>4039</v>
+      </c>
+      <c r="C938" s="2" t="s">
+        <v>4040</v>
+      </c>
+      <c r="D938" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E938" s="2" t="s">
+        <v>4041</v>
+      </c>
+      <c r="F938" s="2" t="s">
+        <v>4042</v>
+      </c>
+      <c r="G938" s="4" t="s">
+        <v>4023</v>
+      </c>
+      <c r="H938" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I938" s="4" t="s">
+        <v>4024</v>
+      </c>
+      <c r="J938" s="5">
+        <v>44124.0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="3">
+        <v>44105.55893165509</v>
+      </c>
+      <c r="B939" s="2" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C939" s="2" t="s">
+        <v>4044</v>
+      </c>
+      <c r="D939" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E939" s="2" t="s">
+        <v>4045</v>
+      </c>
+      <c r="F939" s="2" t="s">
+        <v>4046</v>
+      </c>
+      <c r="G939" s="4" t="s">
+        <v>4047</v>
+      </c>
+      <c r="H939" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I939" s="4" t="s">
+        <v>4048</v>
+      </c>
+      <c r="J939" s="5">
+        <v>45259.0</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="3">
+        <v>44105.55899314815</v>
+      </c>
+      <c r="B940" s="2" t="s">
+        <v>3939</v>
+      </c>
+      <c r="C940" s="2" t="s">
+        <v>4049</v>
+      </c>
+      <c r="D940" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E940" s="2" t="s">
+        <v>4050</v>
+      </c>
+      <c r="F940" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="G940" s="4" t="s">
+        <v>3942</v>
+      </c>
+      <c r="H940" s="2" t="s">
+        <v>3266</v>
+      </c>
+      <c r="I940" s="4" t="s">
+        <v>4051</v>
+      </c>
+      <c r="J940" s="5">
+        <v>44021.0</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="3">
+        <v>44105.55903034723</v>
+      </c>
+      <c r="B941" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C941" s="2" t="s">
+        <v>4052</v>
+      </c>
+      <c r="D941" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="E941" s="2" t="s">
+        <v>4053</v>
+      </c>
+      <c r="F941" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G941" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="H941" s="2" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="3">
+        <v>44105.559272453705</v>
+      </c>
+      <c r="B942" s="2" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C942" s="2" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D942" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="E942" s="2" t="s">
+        <v>3143</v>
+      </c>
+      <c r="F942" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G942" s="4" t="s">
+        <v>3144</v>
+      </c>
+      <c r="H942" s="2" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="3">
+        <v>44105.55968644676</v>
+      </c>
+      <c r="B943" s="2" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C943" s="2" t="s">
+        <v>4035</v>
+      </c>
+      <c r="D943" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E943" s="2" t="s">
+        <v>4056</v>
+      </c>
+      <c r="F943" s="2" t="s">
+        <v>4057</v>
+      </c>
+      <c r="G943" s="4" t="s">
+        <v>4037</v>
+      </c>
+      <c r="H943" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I943" s="4" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J943" s="5">
+        <v>44418.0</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="3">
+        <v>44105.55969458334</v>
+      </c>
+      <c r="B944" s="2" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C944" s="2" t="s">
+        <v>3919</v>
+      </c>
+      <c r="D944" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E944" s="2" t="s">
+        <v>2832</v>
+      </c>
+      <c r="F944" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G944" s="4" t="s">
+        <v>3920</v>
+      </c>
+      <c r="H944" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I944" s="4" t="s">
+        <v>3921</v>
+      </c>
+      <c r="J944" s="5">
+        <v>44288.0</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="3">
+        <v>44105.55979216435</v>
+      </c>
+      <c r="B945" s="2" t="s">
+        <v>4058</v>
+      </c>
+      <c r="C945" s="2" t="s">
+        <v>4059</v>
+      </c>
+      <c r="D945" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E945" s="2" t="s">
+        <v>4060</v>
+      </c>
+      <c r="F945" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G945" s="4" t="s">
+        <v>4061</v>
+      </c>
+      <c r="H945" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I945" s="4" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J945" s="5">
+        <v>45044.0</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="3">
+        <v>44105.55995390046</v>
+      </c>
+      <c r="B946" s="2" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C946" s="2" t="s">
+        <v>4035</v>
+      </c>
+      <c r="D946" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E946" s="2" t="s">
+        <v>4056</v>
+      </c>
+      <c r="F946" s="2" t="s">
+        <v>4057</v>
+      </c>
+      <c r="G946" s="4" t="s">
+        <v>4037</v>
+      </c>
+      <c r="H946" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I946" s="4" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J946" s="5">
+        <v>44418.0</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="3">
+        <v>44105.56036043982</v>
+      </c>
+      <c r="B947" s="2" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C947" s="2" t="s">
+        <v>4064</v>
+      </c>
+      <c r="D947" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E947" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F947" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G947" s="4" t="s">
+        <v>4065</v>
+      </c>
+      <c r="H947" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I947" s="4" t="s">
+        <v>4066</v>
+      </c>
+      <c r="J947" s="5">
+        <v>44287.0</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="3">
+        <v>44105.56036280093</v>
+      </c>
+      <c r="B948" s="2" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C948" s="2" t="s">
+        <v>4044</v>
+      </c>
+      <c r="D948" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E948" s="2" t="s">
+        <v>4045</v>
+      </c>
+      <c r="F948" s="2" t="s">
+        <v>4046</v>
+      </c>
+      <c r="G948" s="4" t="s">
+        <v>4047</v>
+      </c>
+      <c r="H948" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I948" s="4" t="s">
+        <v>4048</v>
+      </c>
+      <c r="J948" s="5">
+        <v>45259.0</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="3">
+        <v>44105.560647997685</v>
+      </c>
+      <c r="B949" s="2" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C949" s="2" t="s">
+        <v>3388</v>
+      </c>
+      <c r="D949" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E949" s="2" t="s">
+        <v>4067</v>
+      </c>
+      <c r="F949" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G949" s="4" t="s">
+        <v>3390</v>
+      </c>
+      <c r="H949" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I949" s="4" t="s">
+        <v>3391</v>
+      </c>
+      <c r="J949" s="5">
+        <v>44303.0</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="3">
+        <v>44105.56257918982</v>
+      </c>
+      <c r="B950" s="2" t="s">
+        <v>3950</v>
+      </c>
+      <c r="C950" s="2" t="s">
+        <v>3951</v>
+      </c>
+      <c r="D950" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E950" s="2" t="s">
+        <v>3952</v>
+      </c>
+      <c r="F950" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="G950" s="4" t="s">
+        <v>3953</v>
+      </c>
+      <c r="H950" s="2" t="s">
+        <v>3954</v>
+      </c>
+      <c r="I950" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J950" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="3">
+        <v>44105.56276443287</v>
+      </c>
+      <c r="B951" s="2" t="s">
+        <v>3950</v>
+      </c>
+      <c r="C951" s="2" t="s">
+        <v>3951</v>
+      </c>
+      <c r="D951" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E951" s="2" t="s">
+        <v>3952</v>
+      </c>
+      <c r="F951" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="G951" s="4" t="s">
+        <v>3953</v>
+      </c>
+      <c r="H951" s="2" t="s">
+        <v>3954</v>
+      </c>
+      <c r="I951" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J951" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="3">
+        <v>44105.56347729167</v>
+      </c>
+      <c r="B952" s="2" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C952" s="2" t="s">
+        <v>4069</v>
+      </c>
+      <c r="D952" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E952" s="2" t="s">
+        <v>4070</v>
+      </c>
+      <c r="F952" s="2" t="s">
+        <v>4071</v>
+      </c>
+      <c r="G952" s="4" t="s">
+        <v>4072</v>
+      </c>
+      <c r="H952" s="2" t="s">
+        <v>4073</v>
+      </c>
+      <c r="I952" s="4" t="s">
+        <v>4074</v>
+      </c>
+      <c r="J952" s="5">
+        <v>44038.0</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="3">
+        <v>44105.56361459491</v>
+      </c>
+      <c r="B953" s="2" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C953" s="2" t="s">
+        <v>4076</v>
+      </c>
+      <c r="D953" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E953" s="2" t="s">
+        <v>4077</v>
+      </c>
+      <c r="F953" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="G953" s="2">
+        <v>9.99994214E9</v>
+      </c>
+      <c r="H953" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="I953" s="4" t="s">
+        <v>4078</v>
+      </c>
+      <c r="J953" s="5">
+        <v>44826.0</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="3">
+        <v>44105.56366922453</v>
+      </c>
+      <c r="B954" s="2" t="s">
+        <v>4020</v>
+      </c>
+      <c r="C954" s="2" t="s">
+        <v>4079</v>
+      </c>
+      <c r="D954" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E954" s="2" t="s">
+        <v>4080</v>
+      </c>
+      <c r="F954" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G954" s="4" t="s">
+        <v>4023</v>
+      </c>
+      <c r="H954" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I954" s="4" t="s">
+        <v>4024</v>
+      </c>
+      <c r="J954" s="5">
+        <v>44124.0</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="3">
+        <v>44105.56371688657</v>
+      </c>
+      <c r="B955" s="2" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C955" s="2" t="s">
+        <v>4064</v>
+      </c>
+      <c r="D955" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E955" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F955" s="2" t="s">
+        <v>4081</v>
+      </c>
+      <c r="G955" s="4" t="s">
+        <v>4082</v>
+      </c>
+      <c r="H955" s="2" t="s">
+        <v>4083</v>
+      </c>
+      <c r="I955" s="4" t="s">
+        <v>4066</v>
+      </c>
+      <c r="J955" s="5">
+        <v>35156.0</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="3">
+        <v>44105.56374925926</v>
+      </c>
+      <c r="B956" s="2" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C956" s="2" t="s">
+        <v>3919</v>
+      </c>
+      <c r="D956" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E956" s="2" t="s">
+        <v>4084</v>
+      </c>
+      <c r="F956" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G956" s="4" t="s">
+        <v>3920</v>
+      </c>
+      <c r="H956" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I956" s="4" t="s">
+        <v>3921</v>
+      </c>
+      <c r="J956" s="5">
+        <v>44288.0</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="3">
+        <v>44105.56456643519</v>
+      </c>
+      <c r="B957" s="2" t="s">
+        <v>4085</v>
+      </c>
+      <c r="C957" s="2" t="s">
+        <v>4086</v>
+      </c>
+      <c r="D957" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E957" s="2" t="s">
+        <v>4087</v>
+      </c>
+      <c r="F957" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G957" s="4" t="s">
+        <v>4088</v>
+      </c>
+      <c r="H957" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I957" s="4" t="s">
+        <v>4089</v>
+      </c>
+      <c r="J957" s="5">
+        <v>45289.0</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="3">
+        <v>44105.56465537037</v>
+      </c>
+      <c r="B958" s="2" t="s">
+        <v>4090</v>
+      </c>
+      <c r="C958" s="2" t="s">
+        <v>4091</v>
+      </c>
+      <c r="D958" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E958" s="2" t="s">
+        <v>4017</v>
+      </c>
+      <c r="F958" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G958" s="4" t="s">
+        <v>4092</v>
+      </c>
+      <c r="H958" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I958" s="2">
+        <v>11044.0</v>
+      </c>
+      <c r="J958" s="5">
+        <v>44690.0</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="3">
+        <v>44105.56481415509</v>
+      </c>
+      <c r="B959" s="2" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C959" s="2" t="s">
+        <v>4035</v>
+      </c>
+      <c r="D959" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E959" s="2" t="s">
+        <v>4036</v>
+      </c>
+      <c r="F959" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G959" s="4" t="s">
+        <v>4037</v>
+      </c>
+      <c r="H959" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I959" s="4" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J959" s="5">
+        <v>44418.0</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="3">
+        <v>44105.564941041666</v>
+      </c>
+      <c r="B960" s="2" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C960" s="2" t="s">
+        <v>4035</v>
+      </c>
+      <c r="D960" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E960" s="2" t="s">
+        <v>4036</v>
+      </c>
+      <c r="F960" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G960" s="4" t="s">
+        <v>4037</v>
+      </c>
+      <c r="H960" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I960" s="4" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J960" s="5">
+        <v>44418.0</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="3">
+        <v>44105.56507023148</v>
+      </c>
+      <c r="B961" s="2" t="s">
+        <v>4093</v>
+      </c>
+      <c r="C961" s="2" t="s">
+        <v>4094</v>
+      </c>
+      <c r="D961" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E961" s="2" t="s">
+        <v>4095</v>
+      </c>
+      <c r="F961" s="2" t="s">
+        <v>4096</v>
+      </c>
+      <c r="G961" s="4" t="s">
+        <v>4097</v>
+      </c>
+      <c r="H961" s="2" t="s">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="3">
+        <v>44105.56520045139</v>
+      </c>
+      <c r="B962" s="2" t="s">
+        <v>4099</v>
+      </c>
+      <c r="C962" s="2" t="s">
+        <v>4100</v>
+      </c>
+      <c r="D962" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E962" s="2" t="s">
+        <v>4101</v>
+      </c>
+      <c r="F962" s="2" t="s">
+        <v>4102</v>
+      </c>
+      <c r="G962" s="4" t="s">
+        <v>4103</v>
+      </c>
+      <c r="H962" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I962" s="2">
+        <v>13598.0</v>
+      </c>
+      <c r="J962" s="5">
+        <v>45072.0</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="3">
+        <v>44105.565221157405</v>
+      </c>
+      <c r="B963" s="2" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C963" s="2" t="s">
+        <v>4104</v>
+      </c>
+      <c r="D963" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E963" s="2" t="s">
+        <v>4077</v>
+      </c>
+      <c r="F963" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="G963" s="2">
+        <v>9.99994214E9</v>
+      </c>
+      <c r="H963" s="2" t="s">
+        <v>4073</v>
+      </c>
+      <c r="I963" s="4" t="s">
+        <v>4078</v>
+      </c>
+      <c r="J963" s="5">
+        <v>44826.0</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="3">
+        <v>44105.56756387731</v>
+      </c>
+      <c r="B964" s="2" t="s">
+        <v>4105</v>
+      </c>
+      <c r="C964" s="2" t="s">
+        <v>4106</v>
+      </c>
+      <c r="D964" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E964" s="2" t="s">
+        <v>4107</v>
+      </c>
+      <c r="F964" s="2" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G964" s="4" t="s">
+        <v>4109</v>
+      </c>
+      <c r="H964" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I964" s="4" t="s">
+        <v>4110</v>
+      </c>
+      <c r="J964" s="5">
+        <v>45207.0</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="3">
+        <v>44105.56781587963</v>
+      </c>
+      <c r="B965" s="2" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C965" s="2" t="s">
+        <v>4111</v>
+      </c>
+      <c r="D965" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E965" s="2" t="s">
+        <v>4112</v>
+      </c>
+      <c r="F965" s="2" t="s">
+        <v>3001</v>
+      </c>
+      <c r="G965" s="4" t="s">
+        <v>3002</v>
+      </c>
+      <c r="H965" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="3">
+        <v>44105.56837741898</v>
+      </c>
+      <c r="B966" s="2" t="s">
+        <v>3888</v>
+      </c>
+      <c r="C966" s="2" t="s">
+        <v>4113</v>
+      </c>
+      <c r="D966" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E966" s="2" t="s">
+        <v>4114</v>
+      </c>
+      <c r="F966" s="2" t="s">
+        <v>2207</v>
+      </c>
+      <c r="G966" s="4" t="s">
+        <v>3891</v>
+      </c>
+      <c r="H966" s="2" t="s">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="3">
+        <v>44105.56870721065</v>
+      </c>
+      <c r="B967" s="2" t="s">
+        <v>4116</v>
+      </c>
+      <c r="C967" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D967" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E967" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F967" s="2" t="s">
+        <v>4007</v>
+      </c>
+      <c r="G967" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H967" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I967" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="J967" s="5">
+        <v>45047.0</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="3">
+        <v>44105.57191400463</v>
+      </c>
+      <c r="B968" s="2" t="s">
+        <v>4117</v>
+      </c>
+      <c r="C968" s="2" t="s">
+        <v>4118</v>
+      </c>
+      <c r="D968" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E968" s="2" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F968" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G968" s="4" t="s">
+        <v>4120</v>
+      </c>
+      <c r="H968" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I968" s="2">
+        <v>6880.0</v>
+      </c>
+      <c r="J968" s="5">
+        <v>44360.0</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="3">
+        <v>44105.57409699074</v>
+      </c>
+      <c r="B969" s="2" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C969" s="2" t="s">
+        <v>4122</v>
+      </c>
+      <c r="D969" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E969" s="2" t="s">
+        <v>4123</v>
+      </c>
+      <c r="F969" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="G969" s="4" t="s">
+        <v>4124</v>
+      </c>
+      <c r="H969" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I969" s="4" t="s">
+        <v>4125</v>
+      </c>
+      <c r="J969" s="5">
+        <v>44515.0</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="3">
+        <v>44105.57711244213</v>
+      </c>
+      <c r="B970" s="2" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C970" s="2" t="s">
+        <v>4127</v>
+      </c>
+      <c r="D970" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E970" s="2" t="s">
+        <v>4128</v>
+      </c>
+      <c r="F970" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G970" s="4" t="s">
+        <v>4129</v>
+      </c>
+      <c r="H970" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="3">
+        <v>44105.57743936343</v>
+      </c>
+      <c r="B971" s="2" t="s">
+        <v>4130</v>
+      </c>
+      <c r="C971" s="2" t="s">
+        <v>4131</v>
+      </c>
+      <c r="D971" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E971" s="2" t="s">
+        <v>4132</v>
+      </c>
+      <c r="F971" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G971" s="4" t="s">
+        <v>4133</v>
+      </c>
+      <c r="H971" s="2" t="s">
+        <v>4134</v>
+      </c>
+      <c r="I971" s="4" t="s">
+        <v>4135</v>
+      </c>
+      <c r="J971" s="5">
+        <v>44534.0</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="3">
+        <v>44105.57811640046</v>
+      </c>
+      <c r="B972" s="2" t="s">
+        <v>4020</v>
+      </c>
+      <c r="C972" s="2" t="s">
+        <v>4136</v>
+      </c>
+      <c r="D972" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E972" s="2" t="s">
+        <v>4137</v>
+      </c>
+      <c r="F972" s="2" t="s">
+        <v>4042</v>
+      </c>
+      <c r="G972" s="4" t="s">
+        <v>4023</v>
+      </c>
+      <c r="H972" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I972" s="4" t="s">
+        <v>4024</v>
+      </c>
+      <c r="J972" s="5">
+        <v>44118.0</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="3">
+        <v>44105.5786968287</v>
+      </c>
+      <c r="B973" s="2" t="s">
+        <v>4138</v>
+      </c>
+      <c r="C973" s="2" t="s">
+        <v>4139</v>
+      </c>
+      <c r="D973" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E973" s="2" t="s">
+        <v>4140</v>
+      </c>
+      <c r="F973" s="2" t="s">
+        <v>4141</v>
+      </c>
+      <c r="G973" s="4" t="s">
+        <v>4142</v>
+      </c>
+      <c r="H973" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I973" s="2">
+        <v>125463.0</v>
+      </c>
+      <c r="J973" s="5">
+        <v>44877.0</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="3">
+        <v>44105.5788387963</v>
+      </c>
+      <c r="B974" s="2" t="s">
+        <v>4143</v>
+      </c>
+      <c r="C974" s="2" t="s">
+        <v>4144</v>
+      </c>
+      <c r="D974" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E974" s="2" t="s">
+        <v>4145</v>
+      </c>
+      <c r="F974" s="2" t="s">
+        <v>4146</v>
+      </c>
+      <c r="G974" s="4" t="s">
+        <v>4147</v>
+      </c>
+      <c r="H974" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="3">
+        <v>44105.58045243056</v>
+      </c>
+      <c r="B975" s="2" t="s">
+        <v>4148</v>
+      </c>
+      <c r="C975" s="2" t="s">
+        <v>4149</v>
+      </c>
+      <c r="D975" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E975" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F975" s="2" t="s">
+        <v>3110</v>
+      </c>
+      <c r="G975" s="4" t="s">
+        <v>4150</v>
+      </c>
+      <c r="H975" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="I975" s="4" t="s">
+        <v>4151</v>
+      </c>
+      <c r="J975" s="5">
+        <v>44888.0</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="3">
+        <v>44105.58286415509</v>
+      </c>
+      <c r="B976" s="2" t="s">
+        <v>4152</v>
+      </c>
+      <c r="C976" s="2" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D976" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E976" s="2" t="s">
+        <v>2708</v>
+      </c>
+      <c r="F976" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G976" s="4" t="s">
+        <v>4154</v>
+      </c>
+      <c r="H976" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I976" s="4" t="s">
+        <v>4155</v>
+      </c>
+      <c r="J976" s="5">
+        <v>44894.0</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="3">
+        <v>44105.5829546875</v>
+      </c>
+      <c r="B977" s="2" t="s">
+        <v>4143</v>
+      </c>
+      <c r="C977" s="2" t="s">
+        <v>4156</v>
+      </c>
+      <c r="D977" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E977" s="2" t="s">
+        <v>4145</v>
+      </c>
+      <c r="F977" s="2" t="s">
+        <v>4146</v>
+      </c>
+      <c r="G977" s="4" t="s">
+        <v>4147</v>
+      </c>
+      <c r="H977" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="3">
+        <v>44105.58319094907</v>
+      </c>
+      <c r="B978" s="2" t="s">
+        <v>4143</v>
+      </c>
+      <c r="C978" s="2" t="s">
+        <v>4156</v>
+      </c>
+      <c r="D978" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E978" s="2" t="s">
+        <v>4145</v>
+      </c>
+      <c r="F978" s="2" t="s">
+        <v>4146</v>
+      </c>
+      <c r="G978" s="4" t="s">
+        <v>4147</v>
+      </c>
+      <c r="H978" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="3">
+        <v>44105.58772581018</v>
+      </c>
+      <c r="B979" s="2" t="s">
+        <v>4157</v>
+      </c>
+      <c r="C979" s="2" t="s">
+        <v>4158</v>
+      </c>
+      <c r="D979" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E979" s="2" t="s">
+        <v>4159</v>
+      </c>
+      <c r="F979" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G979" s="4" t="s">
+        <v>4160</v>
+      </c>
+      <c r="H979" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I979" s="4" t="s">
+        <v>4161</v>
+      </c>
+      <c r="J979" s="5">
+        <v>43828.0</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="3">
+        <v>44105.58796564815</v>
+      </c>
+      <c r="B980" s="2" t="s">
+        <v>4157</v>
+      </c>
+      <c r="C980" s="2" t="s">
+        <v>4158</v>
+      </c>
+      <c r="D980" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E980" s="2" t="s">
+        <v>4159</v>
+      </c>
+      <c r="F980" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G980" s="4" t="s">
+        <v>4160</v>
+      </c>
+      <c r="H980" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I980" s="4" t="s">
+        <v>4161</v>
+      </c>
+      <c r="J980" s="5">
+        <v>43828.0</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="3">
+        <v>44105.58811527777</v>
+      </c>
+      <c r="B981" s="2" t="s">
+        <v>4117</v>
+      </c>
+      <c r="C981" s="2" t="s">
+        <v>4162</v>
+      </c>
+      <c r="D981" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E981" s="2" t="s">
+        <v>4163</v>
+      </c>
+      <c r="F981" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="G981" s="4" t="s">
+        <v>4120</v>
+      </c>
+      <c r="H981" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I981" s="2">
+        <v>6880.0</v>
+      </c>
+      <c r="J981" s="5">
+        <v>44360.0</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="3">
+        <v>44105.58996373843</v>
+      </c>
+      <c r="B982" s="2" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C982" s="2" t="s">
+        <v>4164</v>
+      </c>
+      <c r="D982" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E982" s="2" t="s">
+        <v>4165</v>
+      </c>
+      <c r="F982" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G982" s="4" t="s">
+        <v>2519</v>
+      </c>
+      <c r="H982" s="2" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="3">
+        <v>44105.59135458333</v>
+      </c>
+      <c r="B983" s="2" t="s">
+        <v>4166</v>
+      </c>
+      <c r="C983" s="2" t="s">
+        <v>4167</v>
+      </c>
+      <c r="D983" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="E983" s="2" t="s">
+        <v>4168</v>
+      </c>
+      <c r="F983" s="2" t="s">
+        <v>4169</v>
+      </c>
+      <c r="G983" s="4" t="s">
+        <v>4170</v>
+      </c>
+      <c r="H983" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I983" s="4" t="s">
+        <v>4171</v>
+      </c>
+      <c r="J983" s="5">
+        <v>44738.0</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="3">
+        <v>44105.592058090275</v>
+      </c>
+      <c r="B984" s="2" t="s">
+        <v>4172</v>
+      </c>
+      <c r="C984" s="2" t="s">
+        <v>4173</v>
+      </c>
+      <c r="D984" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E984" s="2" t="s">
+        <v>4174</v>
+      </c>
+      <c r="F984" s="2" t="s">
+        <v>4175</v>
+      </c>
+      <c r="G984" s="4" t="s">
+        <v>1650</v>
+      </c>
+      <c r="H984" s="2" t="s">
+        <v>2098</v>
+      </c>
+      <c r="I984" s="4" t="s">
+        <v>1651</v>
+      </c>
+      <c r="J984" s="5">
+        <v>44847.0</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="3">
+        <v>44105.595554803236</v>
+      </c>
+      <c r="B985" s="2" t="s">
+        <v>4130</v>
+      </c>
+      <c r="C985" s="2" t="s">
+        <v>4131</v>
+      </c>
+      <c r="D985" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E985" s="2" t="s">
+        <v>4132</v>
+      </c>
+      <c r="F985" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G985" s="4" t="s">
+        <v>4133</v>
+      </c>
+      <c r="H985" s="2" t="s">
+        <v>4134</v>
+      </c>
+      <c r="I985" s="4" t="s">
+        <v>4135</v>
+      </c>
+      <c r="J985" s="5">
+        <v>44534.0</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="3">
+        <v>44105.59658802084</v>
+      </c>
+      <c r="B986" s="2" t="s">
+        <v>4130</v>
+      </c>
+      <c r="C986" s="2" t="s">
+        <v>4131</v>
+      </c>
+      <c r="D986" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E986" s="2" t="s">
+        <v>4132</v>
+      </c>
+      <c r="F986" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G986" s="4" t="s">
+        <v>4133</v>
+      </c>
+      <c r="H986" s="2" t="s">
+        <v>4134</v>
+      </c>
+      <c r="I986" s="4" t="s">
+        <v>4135</v>
+      </c>
+      <c r="J986" s="5">
+        <v>44534.0</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="3">
+        <v>44105.59684025463</v>
+      </c>
+      <c r="B987" s="2" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C987" s="2" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D987" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E987" s="2" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F987" s="2" t="s">
+        <v>2294</v>
+      </c>
+      <c r="G987" s="4" t="s">
+        <v>2428</v>
+      </c>
+      <c r="H987" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I987" s="4" t="s">
+        <v>2429</v>
+      </c>
+      <c r="J987" s="5">
+        <v>44635.0</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="3">
+        <v>44105.60124945602</v>
+      </c>
+      <c r="B988" s="2" t="s">
+        <v>4130</v>
+      </c>
+      <c r="C988" s="2" t="s">
+        <v>4131</v>
+      </c>
+      <c r="D988" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E988" s="2" t="s">
+        <v>4132</v>
+      </c>
+      <c r="F988" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G988" s="4" t="s">
+        <v>4133</v>
+      </c>
+      <c r="H988" s="2" t="s">
+        <v>4176</v>
+      </c>
+      <c r="I988" s="4" t="s">
+        <v>4135</v>
+      </c>
+      <c r="J988" s="5">
+        <v>44534.0</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="3">
+        <v>44105.60141575232</v>
+      </c>
+      <c r="B989" s="2" t="s">
+        <v>4130</v>
+      </c>
+      <c r="C989" s="2" t="s">
+        <v>4131</v>
+      </c>
+      <c r="D989" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E989" s="2" t="s">
+        <v>4132</v>
+      </c>
+      <c r="F989" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G989" s="4" t="s">
+        <v>4133</v>
+      </c>
+      <c r="H989" s="2" t="s">
+        <v>4176</v>
+      </c>
+      <c r="I989" s="4" t="s">
+        <v>4135</v>
+      </c>
+      <c r="J989" s="5">
+        <v>44534.0</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="3">
+        <v>44105.601518564814</v>
+      </c>
+      <c r="B990" s="2" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C990" s="2" t="s">
+        <v>3294</v>
+      </c>
+      <c r="D990" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E990" s="2" t="s">
+        <v>3295</v>
+      </c>
+      <c r="F990" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G990" s="4" t="s">
+        <v>3296</v>
+      </c>
+      <c r="H990" s="2" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="3">
+        <v>44105.603262812496</v>
+      </c>
+      <c r="B991" s="2" t="s">
+        <v>4130</v>
+      </c>
+      <c r="C991" s="2" t="s">
+        <v>4177</v>
+      </c>
+      <c r="D991" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E991" s="2" t="s">
+        <v>4132</v>
+      </c>
+      <c r="F991" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G991" s="4" t="s">
+        <v>4133</v>
+      </c>
+      <c r="H991" s="2" t="s">
+        <v>4134</v>
+      </c>
+      <c r="I991" s="4" t="s">
+        <v>4135</v>
+      </c>
+      <c r="J991" s="5">
+        <v>44534.0</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="3">
+        <v>44105.60340399305</v>
+      </c>
+      <c r="B992" s="2" t="s">
+        <v>4130</v>
+      </c>
+      <c r="C992" s="2" t="s">
+        <v>4177</v>
+      </c>
+      <c r="D992" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E992" s="2" t="s">
+        <v>4132</v>
+      </c>
+      <c r="F992" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G992" s="4" t="s">
+        <v>4133</v>
+      </c>
+      <c r="H992" s="2" t="s">
+        <v>4134</v>
+      </c>
+      <c r="I992" s="4" t="s">
+        <v>4135</v>
+      </c>
+      <c r="J992" s="5">
+        <v>44534.0</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="3">
+        <v>44105.60377893518</v>
+      </c>
+      <c r="B993" s="2" t="s">
+        <v>4130</v>
+      </c>
+      <c r="C993" s="2" t="s">
+        <v>4177</v>
+      </c>
+      <c r="D993" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E993" s="2" t="s">
+        <v>4132</v>
+      </c>
+      <c r="F993" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G993" s="4" t="s">
+        <v>4133</v>
+      </c>
+      <c r="H993" s="2" t="s">
+        <v>4134</v>
+      </c>
+      <c r="I993" s="4" t="s">
+        <v>4135</v>
+      </c>
+      <c r="J993" s="5">
+        <v>44534.0</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="3">
+        <v>44105.60465405093</v>
+      </c>
+      <c r="B994" s="2" t="s">
+        <v>4152</v>
+      </c>
+      <c r="C994" s="2" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D994" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E994" s="2" t="s">
+        <v>4178</v>
+      </c>
+      <c r="F994" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G994" s="4" t="s">
+        <v>4154</v>
+      </c>
+      <c r="H994" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I994" s="4" t="s">
+        <v>4155</v>
+      </c>
+      <c r="J994" s="5">
+        <v>44894.0</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="3">
+        <v>44105.60531557871</v>
+      </c>
+      <c r="B995" s="2" t="s">
+        <v>4143</v>
+      </c>
+      <c r="C995" s="2" t="s">
+        <v>4179</v>
+      </c>
+      <c r="D995" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E995" s="2" t="s">
+        <v>4180</v>
+      </c>
+      <c r="F995" s="2" t="s">
+        <v>4181</v>
+      </c>
+      <c r="G995" s="4" t="s">
+        <v>4147</v>
+      </c>
+      <c r="H995" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I995" s="4" t="s">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="3">
+        <v>44105.606718842595</v>
+      </c>
+      <c r="B996" s="2" t="s">
+        <v>4152</v>
+      </c>
+      <c r="C996" s="2" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D996" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E996" s="2" t="s">
+        <v>4183</v>
+      </c>
+      <c r="F996" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G996" s="4" t="s">
+        <v>4154</v>
+      </c>
+      <c r="H996" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I996" s="4" t="s">
+        <v>4155</v>
+      </c>
+      <c r="J996" s="5">
+        <v>44894.0</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="3">
+        <v>44105.60684180555</v>
+      </c>
+      <c r="B997" s="2" t="s">
+        <v>4152</v>
+      </c>
+      <c r="C997" s="2" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D997" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E997" s="2" t="s">
+        <v>4183</v>
+      </c>
+      <c r="F997" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G997" s="4" t="s">
+        <v>4154</v>
+      </c>
+      <c r="H997" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I997" s="4" t="s">
+        <v>4155</v>
+      </c>
+      <c r="J997" s="5">
+        <v>44894.0</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="3">
+        <v>44105.60732487269</v>
+      </c>
+      <c r="B998" s="2" t="s">
+        <v>4152</v>
+      </c>
+      <c r="C998" s="2" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D998" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E998" s="2" t="s">
+        <v>4183</v>
+      </c>
+      <c r="F998" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G998" s="4" t="s">
+        <v>4154</v>
+      </c>
+      <c r="H998" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I998" s="4" t="s">
+        <v>4155</v>
+      </c>
+      <c r="J998" s="5">
+        <v>44894.0</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="3">
+        <v>44105.60744680556</v>
+      </c>
+      <c r="B999" s="2" t="s">
+        <v>4152</v>
+      </c>
+      <c r="C999" s="2" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D999" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E999" s="2" t="s">
+        <v>4183</v>
+      </c>
+      <c r="F999" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G999" s="4" t="s">
+        <v>4154</v>
+      </c>
+      <c r="H999" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I999" s="4" t="s">
+        <v>4155</v>
+      </c>
+      <c r="J999" s="5">
+        <v>44894.0</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="3">
+        <v>44105.6139559375</v>
+      </c>
+      <c r="B1000" s="2" t="s">
+        <v>4184</v>
+      </c>
+      <c r="C1000" s="2" t="s">
+        <v>4185</v>
+      </c>
+      <c r="D1000" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1000" s="2" t="s">
+        <v>4186</v>
+      </c>
+      <c r="F1000" s="2" t="s">
+        <v>4187</v>
+      </c>
+      <c r="G1000" s="4" t="s">
+        <v>4188</v>
+      </c>
+      <c r="H1000" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1000" s="4" t="s">
+        <v>4189</v>
+      </c>
+      <c r="J1000" s="5">
+        <v>44627.0</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="3">
+        <v>44105.615746180556</v>
+      </c>
+      <c r="B1001" s="2" t="s">
+        <v>4190</v>
+      </c>
+      <c r="C1001" s="2" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D1001" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1001" s="2" t="s">
+        <v>4192</v>
+      </c>
+      <c r="F1001" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1001" s="4" t="s">
+        <v>4193</v>
+      </c>
+      <c r="H1001" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1001" s="4" t="s">
+        <v>4194</v>
+      </c>
+      <c r="J1001" s="5">
+        <v>45194.0</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="3">
+        <v>44105.62458116898</v>
+      </c>
+      <c r="B1002" s="2" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C1002" s="2" t="s">
+        <v>4195</v>
+      </c>
+      <c r="D1002" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E1002" s="2" t="s">
+        <v>4196</v>
+      </c>
+      <c r="F1002" s="2" t="s">
+        <v>4197</v>
+      </c>
+      <c r="G1002" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="H1002" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="3">
+        <v>44105.62494476852</v>
+      </c>
+      <c r="B1003" s="2" t="s">
+        <v>4198</v>
+      </c>
+      <c r="C1003" s="2" t="s">
+        <v>4199</v>
+      </c>
+      <c r="D1003" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1003" s="2" t="s">
+        <v>4200</v>
+      </c>
+      <c r="F1003" s="2" t="s">
+        <v>3219</v>
+      </c>
+      <c r="G1003" s="4" t="s">
+        <v>4201</v>
+      </c>
+      <c r="H1003" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I1003" s="4" t="s">
+        <v>4202</v>
+      </c>
+      <c r="J1003" s="5">
+        <v>44259.0</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="3">
+        <v>44105.63107017361</v>
+      </c>
+      <c r="B1004" s="2" t="s">
+        <v>4203</v>
+      </c>
+      <c r="C1004" s="2" t="s">
+        <v>4204</v>
+      </c>
+      <c r="D1004" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="E1004" s="2" t="s">
+        <v>4205</v>
+      </c>
+      <c r="F1004" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1004" s="4" t="s">
+        <v>4206</v>
+      </c>
+      <c r="H1004" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="3">
+        <v>44105.648753125</v>
+      </c>
+      <c r="B1005" s="2" t="s">
+        <v>4105</v>
+      </c>
+      <c r="C1005" s="2" t="s">
+        <v>4106</v>
+      </c>
+      <c r="D1005" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1005" s="2" t="s">
+        <v>4107</v>
+      </c>
+      <c r="F1005" s="2" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G1005" s="4" t="s">
+        <v>4109</v>
+      </c>
+      <c r="H1005" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1005" s="4" t="s">
+        <v>4110</v>
+      </c>
+      <c r="J1005" s="5">
+        <v>45207.0</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="3">
+        <v>44105.66503887731</v>
+      </c>
+      <c r="B1006" s="2" t="s">
+        <v>4148</v>
+      </c>
+      <c r="C1006" s="2" t="s">
+        <v>4207</v>
+      </c>
+      <c r="D1006" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E1006" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F1006" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="G1006" s="4" t="s">
+        <v>4150</v>
+      </c>
+      <c r="H1006" s="2" t="s">
+        <v>3048</v>
+      </c>
+      <c r="I1006" s="4" t="s">
+        <v>4151</v>
+      </c>
+      <c r="J1006" s="5">
+        <v>44888.0</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="3">
+        <v>44105.675862118056</v>
+      </c>
+      <c r="B1007" s="2" t="s">
+        <v>4208</v>
+      </c>
+      <c r="C1007" s="2" t="s">
+        <v>4209</v>
+      </c>
+      <c r="D1007" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1007" s="2" t="s">
+        <v>2951</v>
+      </c>
+      <c r="F1007" s="2" t="s">
+        <v>4210</v>
+      </c>
+      <c r="G1007" s="4" t="s">
+        <v>4211</v>
+      </c>
+      <c r="H1007" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1007" s="4" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="3">
+        <v>44105.67906524306</v>
+      </c>
+      <c r="B1008" s="2" t="s">
+        <v>4213</v>
+      </c>
+      <c r="C1008" s="2" t="s">
+        <v>4214</v>
+      </c>
+      <c r="D1008" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1008" s="2" t="s">
+        <v>4215</v>
+      </c>
+      <c r="F1008" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1008" s="4" t="s">
+        <v>4216</v>
+      </c>
+      <c r="H1008" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I1008" s="4" t="s">
+        <v>4217</v>
+      </c>
+      <c r="J1008" s="5">
+        <v>43827.0</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="3">
+        <v>44105.71465733796</v>
+      </c>
+      <c r="B1009" s="2" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C1009" s="2" t="s">
+        <v>4219</v>
+      </c>
+      <c r="D1009" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E1009" s="2" t="s">
+        <v>3489</v>
+      </c>
+      <c r="F1009" s="2" t="s">
+        <v>4220</v>
+      </c>
+      <c r="G1009" s="4" t="s">
+        <v>3490</v>
+      </c>
+      <c r="H1009" s="2" t="s">
+        <v>4221</v>
+      </c>
+      <c r="I1009" s="4" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="3">
+        <v>44105.729989733794</v>
+      </c>
+      <c r="B1010" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C1010" s="2" t="s">
+        <v>4222</v>
+      </c>
+      <c r="D1010" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1010" s="2" t="s">
+        <v>4223</v>
+      </c>
+      <c r="F1010" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="G1010" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H1010" s="2" t="s">
+        <v>4224</v>
+      </c>
+      <c r="I1010" s="4" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J1010" s="5">
+        <v>44052.0</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="3">
+        <v>44105.897408206016</v>
+      </c>
+      <c r="B1011" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C1011" s="2" t="s">
+        <v>4225</v>
+      </c>
+      <c r="D1011" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E1011" s="2" t="s">
+        <v>4226</v>
+      </c>
+      <c r="F1011" s="2" t="s">
+        <v>4227</v>
+      </c>
+      <c r="G1011" s="2">
+        <v>9.193627004E9</v>
+      </c>
+      <c r="H1011" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I1011" s="4" t="s">
+        <v>4228</v>
+      </c>
+      <c r="J1011" s="5">
+        <v>44659.0</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="3">
+        <v>44105.89908592592</v>
+      </c>
+      <c r="B1012" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C1012" s="2" t="s">
+        <v>4225</v>
+      </c>
+      <c r="D1012" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E1012" s="2" t="s">
+        <v>4226</v>
+      </c>
+      <c r="F1012" s="2" t="s">
+        <v>4227</v>
+      </c>
+      <c r="G1012" s="2">
+        <v>9.193627004E9</v>
+      </c>
+      <c r="H1012" s="2" t="s">
+        <v>4229</v>
+      </c>
+      <c r="I1012" s="4" t="s">
+        <v>4228</v>
+      </c>
+      <c r="J1012" s="5">
+        <v>44659.0</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="3">
+        <v>44107.564483449074</v>
+      </c>
+      <c r="B1013" s="2" t="s">
+        <v>4230</v>
+      </c>
+      <c r="C1013" s="2" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D1013" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1013" s="2" t="s">
+        <v>4232</v>
+      </c>
+      <c r="F1013" s="2" t="s">
+        <v>4233</v>
+      </c>
+      <c r="G1013" s="4" t="s">
+        <v>3012</v>
+      </c>
+      <c r="H1013" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1013" s="4" t="s">
+        <v>3013</v>
+      </c>
+      <c r="J1013" s="5">
+        <v>44286.0</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="3">
+        <v>44108.6824037037</v>
+      </c>
+      <c r="B1014" s="2" t="s">
+        <v>4234</v>
+      </c>
+      <c r="C1014" s="2" t="s">
+        <v>4235</v>
+      </c>
+      <c r="D1014" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1014" s="2" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F1014" s="2" t="s">
+        <v>2901</v>
+      </c>
+      <c r="G1014" s="4" t="s">
+        <v>4237</v>
+      </c>
+      <c r="H1014" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1014" s="4" t="s">
+        <v>4238</v>
+      </c>
+      <c r="J1014" s="5">
+        <v>43882.0</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="3">
+        <v>44108.68261236111</v>
+      </c>
+      <c r="B1015" s="2" t="s">
+        <v>4234</v>
+      </c>
+      <c r="C1015" s="2" t="s">
+        <v>4235</v>
+      </c>
+      <c r="D1015" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1015" s="2" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F1015" s="2" t="s">
+        <v>2901</v>
+      </c>
+      <c r="G1015" s="4" t="s">
+        <v>4237</v>
+      </c>
+      <c r="H1015" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1015" s="4" t="s">
+        <v>4238</v>
+      </c>
+      <c r="J1015" s="5">
+        <v>43882.0</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="3">
+        <v>44109.28510283565</v>
+      </c>
+      <c r="B1016" s="2" t="s">
+        <v>4239</v>
+      </c>
+      <c r="C1016" s="2" t="s">
+        <v>4240</v>
+      </c>
+      <c r="D1016" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1016" s="2" t="s">
+        <v>4241</v>
+      </c>
+      <c r="F1016" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1016" s="4" t="s">
+        <v>4242</v>
+      </c>
+      <c r="H1016" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1016" s="4" t="s">
+        <v>4243</v>
+      </c>
+      <c r="J1016" s="5">
+        <v>44875.0</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="3">
+        <v>44109.389075659725</v>
+      </c>
+      <c r="B1017" s="2" t="s">
+        <v>4244</v>
+      </c>
+      <c r="C1017" s="2" t="s">
+        <v>4245</v>
+      </c>
+      <c r="D1017" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E1017" s="2" t="s">
+        <v>4246</v>
+      </c>
+      <c r="F1017" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1017" s="4" t="s">
+        <v>4247</v>
+      </c>
+      <c r="H1017" s="2" t="s">
+        <v>4073</v>
+      </c>
+      <c r="I1017" s="4" t="s">
+        <v>4248</v>
+      </c>
+      <c r="J1017" s="5">
+        <v>44532.0</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="3">
+        <v>44109.39073569444</v>
+      </c>
+      <c r="B1018" s="2" t="s">
+        <v>4249</v>
+      </c>
+      <c r="C1018" s="2" t="s">
+        <v>4250</v>
+      </c>
+      <c r="D1018" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E1018" s="2" t="s">
+        <v>4246</v>
+      </c>
+      <c r="F1018" s="2" t="s">
+        <v>4251</v>
+      </c>
+      <c r="G1018" s="4" t="s">
+        <v>4252</v>
+      </c>
+      <c r="H1018" s="2" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="3">
+        <v>44109.391444189816</v>
+      </c>
+      <c r="B1019" s="2" t="s">
+        <v>4244</v>
+      </c>
+      <c r="C1019" s="2" t="s">
+        <v>4254</v>
+      </c>
+      <c r="D1019" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E1019" s="2" t="s">
+        <v>4246</v>
+      </c>
+      <c r="F1019" s="2" t="s">
+        <v>3730</v>
+      </c>
+      <c r="G1019" s="4" t="s">
+        <v>4255</v>
+      </c>
+      <c r="H1019" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1019" s="4" t="s">
+        <v>4256</v>
+      </c>
+      <c r="J1019" s="5">
+        <v>45122.0</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="3">
+        <v>44109.402927731484</v>
+      </c>
+      <c r="B1020" s="2" t="s">
+        <v>4257</v>
+      </c>
+      <c r="C1020" s="2" t="s">
+        <v>4258</v>
+      </c>
+      <c r="D1020" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1020" s="2" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F1020" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G1020" s="4" t="s">
+        <v>4260</v>
+      </c>
+      <c r="H1020" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1020" s="4" t="s">
+        <v>4261</v>
+      </c>
+      <c r="J1020" s="5">
+        <v>44682.0</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="3">
+        <v>44109.416504050925</v>
+      </c>
+      <c r="B1021" s="2" t="s">
+        <v>4262</v>
+      </c>
+      <c r="C1021" s="2" t="s">
+        <v>4263</v>
+      </c>
+      <c r="D1021" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E1021" s="2" t="s">
+        <v>4264</v>
+      </c>
+      <c r="F1021" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1021" s="4" t="s">
+        <v>4265</v>
+      </c>
+      <c r="H1021" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="3">
+        <v>44109.41721025463</v>
+      </c>
+      <c r="B1022" s="2" t="s">
+        <v>4262</v>
+      </c>
+      <c r="C1022" s="2" t="s">
+        <v>4266</v>
+      </c>
+      <c r="D1022" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E1022" s="2" t="s">
+        <v>4264</v>
+      </c>
+      <c r="F1022" s="2" t="s">
+        <v>4267</v>
+      </c>
+      <c r="G1022" s="4" t="s">
+        <v>4268</v>
+      </c>
+      <c r="H1022" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="3">
+        <v>44109.428984293976</v>
+      </c>
+      <c r="B1023" s="2" t="s">
+        <v>4269</v>
+      </c>
+      <c r="C1023" s="2" t="s">
+        <v>4270</v>
+      </c>
+      <c r="D1023" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E1023" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F1023" s="2" t="s">
+        <v>4271</v>
+      </c>
+      <c r="G1023" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H1023" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1023" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1023" s="5">
+        <v>44842.0</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="3">
+        <v>44109.430372118055</v>
+      </c>
+      <c r="B1024" s="2" t="s">
+        <v>4269</v>
+      </c>
+      <c r="C1024" s="2" t="s">
+        <v>4270</v>
+      </c>
+      <c r="D1024" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E1024" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F1024" s="2" t="s">
+        <v>4272</v>
+      </c>
+      <c r="G1024" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H1024" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1024" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1024" s="5">
+        <v>44842.0</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="3">
+        <v>44109.47822746528</v>
+      </c>
+      <c r="B1025" s="2" t="s">
+        <v>4273</v>
+      </c>
+      <c r="C1025" s="2" t="s">
+        <v>4274</v>
+      </c>
+      <c r="D1025" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1025" s="2" t="s">
+        <v>4275</v>
+      </c>
+      <c r="F1025" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1025" s="4" t="s">
+        <v>4276</v>
+      </c>
+      <c r="H1025" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1025" s="4" t="s">
+        <v>4277</v>
+      </c>
+      <c r="J1025" s="5">
+        <v>45028.0</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="3">
+        <v>44109.5952734375</v>
+      </c>
+      <c r="B1026" s="2" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C1026" s="2" t="s">
+        <v>4278</v>
+      </c>
+      <c r="D1026" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1026" s="2" t="s">
+        <v>4279</v>
+      </c>
+      <c r="F1026" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1026" s="4" t="s">
+        <v>2524</v>
+      </c>
+      <c r="H1026" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I1026" s="4" t="s">
+        <v>4280</v>
+      </c>
+      <c r="J1026" s="5">
+        <v>45261.0</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="3">
+        <v>44109.59549024305</v>
+      </c>
+      <c r="B1027" s="2" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C1027" s="2" t="s">
+        <v>4278</v>
+      </c>
+      <c r="D1027" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1027" s="2" t="s">
+        <v>4279</v>
+      </c>
+      <c r="F1027" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1027" s="4" t="s">
+        <v>2524</v>
+      </c>
+      <c r="H1027" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I1027" s="4" t="s">
+        <v>4280</v>
+      </c>
+      <c r="J1027" s="5">
+        <v>45261.0</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="3">
+        <v>44109.5960457176</v>
+      </c>
+      <c r="B1028" s="2" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C1028" s="2" t="s">
+        <v>4278</v>
+      </c>
+      <c r="D1028" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1028" s="2" t="s">
+        <v>4279</v>
+      </c>
+      <c r="F1028" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1028" s="4" t="s">
+        <v>2524</v>
+      </c>
+      <c r="H1028" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I1028" s="4" t="s">
+        <v>4280</v>
+      </c>
+      <c r="J1028" s="5">
+        <v>45261.0</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="3">
+        <v>44109.598506724535</v>
+      </c>
+      <c r="B1029" s="2" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C1029" s="2" t="s">
+        <v>4278</v>
+      </c>
+      <c r="D1029" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1029" s="2" t="s">
+        <v>4281</v>
+      </c>
+      <c r="F1029" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="G1029" s="4" t="s">
+        <v>2524</v>
+      </c>
+      <c r="H1029" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I1029" s="4" t="s">
+        <v>2526</v>
+      </c>
+      <c r="J1029" s="5">
+        <v>45261.0</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="3">
+        <v>44109.5986380324</v>
+      </c>
+      <c r="B1030" s="2" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C1030" s="2" t="s">
+        <v>4278</v>
+      </c>
+      <c r="D1030" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1030" s="2" t="s">
+        <v>4281</v>
+      </c>
+      <c r="F1030" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="G1030" s="4" t="s">
+        <v>2524</v>
+      </c>
+      <c r="H1030" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I1030" s="4" t="s">
+        <v>2526</v>
+      </c>
+      <c r="J1030" s="5">
+        <v>45261.0</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="3">
+        <v>44110.4025643287</v>
+      </c>
+      <c r="B1031" s="2" t="s">
+        <v>4273</v>
+      </c>
+      <c r="C1031" s="2" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D1031" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1031" s="2" t="s">
+        <v>4275</v>
+      </c>
+      <c r="F1031" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="G1031" s="4" t="s">
+        <v>4276</v>
+      </c>
+      <c r="H1031" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1031" s="4" t="s">
+        <v>4283</v>
+      </c>
+      <c r="J1031" s="5">
+        <v>45047.0</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="3">
+        <v>44110.50425440972</v>
+      </c>
+      <c r="B1032" s="2" t="s">
+        <v>4284</v>
+      </c>
+      <c r="C1032" s="2" t="s">
+        <v>4285</v>
+      </c>
+      <c r="D1032" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1032" s="2" t="s">
+        <v>4286</v>
+      </c>
+      <c r="F1032" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G1032" s="4" t="s">
+        <v>4287</v>
+      </c>
+      <c r="H1032" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1032" s="4" t="s">
+        <v>4288</v>
+      </c>
+      <c r="J1032" s="5">
+        <v>44234.0</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="3">
+        <v>44110.51641069444</v>
+      </c>
+      <c r="B1033" s="2" t="s">
+        <v>4273</v>
+      </c>
+      <c r="C1033" s="2" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D1033" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1033" s="2" t="s">
+        <v>4275</v>
+      </c>
+      <c r="F1033" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="G1033" s="4" t="s">
+        <v>4276</v>
+      </c>
+      <c r="H1033" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1033" s="4" t="s">
+        <v>4283</v>
+      </c>
+      <c r="J1033" s="5">
+        <v>45047.0</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="3">
+        <v>44110.61053797454</v>
+      </c>
+      <c r="B1034" s="2" t="s">
+        <v>4289</v>
+      </c>
+      <c r="C1034" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1034" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1034" s="2" t="s">
+        <v>4290</v>
+      </c>
+      <c r="F1034" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="G1034" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="H1034" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1034" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="J1034" s="5">
+        <v>45241.0</v>
       </c>
     </row>
   </sheetData>
